--- a/Projects/SANOFIKZ/Data/Template.xlsx
+++ b/Projects/SANOFIKZ/Data/Template.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="990" firstSheet="0" activeTab="5"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="KPIs" sheetId="1" state="visible" r:id="rId2"/>
@@ -517,7 +517,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="428" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="399" uniqueCount="106">
   <si>
     <t xml:space="preserve">KPI Name</t>
   </si>
@@ -651,7 +651,7 @@
     <t xml:space="preserve">Lasolvan</t>
   </si>
   <si>
-    <t xml:space="preserve">Cough</t>
+    <t xml:space="preserve">Cough &amp; Cold</t>
   </si>
   <si>
     <t xml:space="preserve">Lasolvan MAX</t>
@@ -777,25 +777,31 @@
     <t xml:space="preserve">Vitamin E 400mg tabs.#30</t>
   </si>
   <si>
-    <t xml:space="preserve">No-Spa 40 tabs. #100</t>
-  </si>
-  <si>
-    <t xml:space="preserve">No-Spa 40 tabs. #60</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Zodac</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Allergy</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Zodac 10mg tabs.#30</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Zodac 10mg tabs.#10</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Zodac 200mg/20ml drops</t>
+    <t xml:space="preserve">Lasolvan Shelf Talker</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KA-STS-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lasolvan </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bronchicum Shelf Talker</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KA-STS-02</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bronchicum </t>
+  </si>
+  <si>
+    <t xml:space="preserve">No Spa Shelf Talker</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KA-STS-03</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No Spa</t>
   </si>
   <si>
     <t xml:space="preserve">Enterogermina Shelf Talker</t>
@@ -804,22 +810,22 @@
     <t xml:space="preserve">KA-STS-04</t>
   </si>
   <si>
-    <t xml:space="preserve">Enterogeremina</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DH</t>
-  </si>
-  <si>
     <t xml:space="preserve">Essentiale Shelf Talker</t>
   </si>
   <si>
     <t xml:space="preserve">KA-STS-05</t>
   </si>
   <si>
-    <t xml:space="preserve">No-Spa Shelf Talker</t>
-  </si>
-  <si>
-    <t xml:space="preserve">KA-STS-03</t>
+    <t xml:space="preserve">Essentiale </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Magne B6 Shelf Talker</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KA-STS-11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Magne B6 </t>
   </si>
   <si>
     <t xml:space="preserve">Festal Shelf Talker</t>
@@ -828,40 +834,7 @@
     <t xml:space="preserve">KA-STS-08</t>
   </si>
   <si>
-    <t xml:space="preserve">Lasolvan Shelf Talker</t>
-  </si>
-  <si>
-    <t xml:space="preserve">KA-STS-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lasolvan </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cough &amp; Cold</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bronchicum Shelf Talker</t>
-  </si>
-  <si>
-    <t xml:space="preserve">KA-STS-02</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bronchicum </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Essentiale </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Magne B6 Shelf Talker</t>
-  </si>
-  <si>
-    <t xml:space="preserve">KA-STS-06</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Magne B6 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Enterogermina suspension #10 4bln</t>
+    <t xml:space="preserve">No Spa 40 tabs. #24</t>
   </si>
 </sst>
 </file>
@@ -874,7 +847,7 @@
     <numFmt numFmtId="166" formatCode="0.00"/>
     <numFmt numFmtId="167" formatCode="0"/>
   </numFmts>
-  <fonts count="20">
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -998,6 +971,11 @@
       <charset val="1"/>
     </font>
     <font>
+      <sz val="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
       <b val="true"/>
       <sz val="12"/>
       <name val="Calibri"/>
@@ -1007,6 +985,18 @@
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Arial"/>
       <family val="2"/>
       <charset val="204"/>
     </font>
@@ -1186,7 +1176,7 @@
       <protection locked="true" hidden="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="70">
+  <cellXfs count="73">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1391,6 +1381,10 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="18" fillId="2" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1411,7 +1405,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="18" fillId="9" borderId="5" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="19" fillId="9" borderId="5" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1435,11 +1429,11 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="19" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="20" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1455,16 +1449,24 @@
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="15" fillId="10" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="21" fillId="10" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="19" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="167" fontId="20" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="15" fillId="12" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="22" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="18" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -1547,20 +1549,20 @@
   </sheetPr>
   <dimension ref="A1:H11"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="B19" activeCellId="0" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="23.3805668016194"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="26.9311740890688"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="20.1943319838057"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="20.4453441295547"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="15.919028340081"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="33.0485829959514"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="26.3238866396761"/>
-    <col collapsed="false" hidden="false" max="1025" min="8" style="0" width="9.18218623481781"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="23.8744939271255"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="27.5425101214575"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="20.6882591093117"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="20.9392712550607"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="16.1619433198381"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="33.7935222672065"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="26.9311740890688"/>
+    <col collapsed="false" hidden="false" max="1025" min="8" style="0" width="9.30364372469636"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1795,23 +1797,24 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:O18"/>
+  <dimension ref="A1:O15"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B15" activeCellId="0" sqref="B15"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C1" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E3" activeCellId="0" sqref="E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="27" width="26.6882591093117"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="27" width="45.7813765182186"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="27" width="23.3805668016194"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="27" width="18.8542510121457"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="27" width="14.4453441295547"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="27" width="18.8542510121457"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="27" width="17.502024291498"/>
-    <col collapsed="false" hidden="false" max="15" min="8" style="28" width="9.30364372469636"/>
-    <col collapsed="false" hidden="false" max="1025" min="16" style="29" width="9.30364372469636"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="27" width="27.4210526315789"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="27" width="46.8906882591093"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="27" width="23.8744939271255"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="27" width="19.3441295546559"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="27" width="14.8097165991903"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="27" width="19.3441295546559"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="27" width="17.8744939271255"/>
+    <col collapsed="false" hidden="false" max="15" min="8" style="28" width="9.4251012145749"/>
+    <col collapsed="false" hidden="false" max="1023" min="16" style="29" width="9.4251012145749"/>
+    <col collapsed="false" hidden="false" max="1025" min="1024" style="0" width="9.4251012145749"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1833,7 +1836,7 @@
       <c r="N1" s="0"/>
       <c r="O1" s="0"/>
     </row>
-    <row r="2" customFormat="false" ht="51" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="37.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="32" t="s">
         <v>0</v>
       </c>
@@ -1880,7 +1883,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="34" t="s">
         <v>20</v>
       </c>
@@ -1927,7 +1930,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="34" t="s">
         <v>20</v>
       </c>
@@ -1974,7 +1977,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="34" t="s">
         <v>20</v>
       </c>
@@ -2021,7 +2024,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="25.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="34" t="s">
         <v>20</v>
       </c>
@@ -2068,7 +2071,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="25.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="34" t="s">
         <v>20</v>
       </c>
@@ -2115,7 +2118,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="25.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="34" t="s">
         <v>20</v>
       </c>
@@ -2162,7 +2165,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="25.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="34" t="s">
         <v>20</v>
       </c>
@@ -2209,7 +2212,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="34" t="s">
         <v>20</v>
       </c>
@@ -2256,7 +2259,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="34" t="s">
         <v>20</v>
       </c>
@@ -2303,7 +2306,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="34" t="s">
         <v>20</v>
       </c>
@@ -2350,7 +2353,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="34" t="s">
         <v>20</v>
       </c>
@@ -2397,7 +2400,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="34" t="s">
         <v>20</v>
       </c>
@@ -2444,7 +2447,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="34" t="s">
         <v>20</v>
       </c>
@@ -2490,54 +2493,6 @@
       <c r="O15" s="38" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="34"/>
-      <c r="B16" s="35"/>
-      <c r="D16" s="37"/>
-      <c r="E16" s="37"/>
-      <c r="F16" s="38"/>
-      <c r="G16" s="38"/>
-      <c r="H16" s="38"/>
-      <c r="I16" s="38"/>
-      <c r="J16" s="38"/>
-      <c r="K16" s="38"/>
-      <c r="L16" s="38"/>
-      <c r="M16" s="38"/>
-      <c r="N16" s="38"/>
-      <c r="O16" s="38"/>
-    </row>
-    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="34"/>
-      <c r="B17" s="35"/>
-      <c r="D17" s="37"/>
-      <c r="E17" s="37"/>
-      <c r="F17" s="38"/>
-      <c r="G17" s="38"/>
-      <c r="H17" s="38"/>
-      <c r="I17" s="38"/>
-      <c r="J17" s="38"/>
-      <c r="K17" s="38"/>
-      <c r="L17" s="38"/>
-      <c r="M17" s="38"/>
-      <c r="N17" s="38"/>
-      <c r="O17" s="38"/>
-    </row>
-    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="34"/>
-      <c r="B18" s="35"/>
-      <c r="D18" s="37"/>
-      <c r="E18" s="37"/>
-      <c r="F18" s="38"/>
-      <c r="G18" s="38"/>
-      <c r="H18" s="38"/>
-      <c r="I18" s="38"/>
-      <c r="J18" s="38"/>
-      <c r="K18" s="38"/>
-      <c r="L18" s="38"/>
-      <c r="M18" s="38"/>
-      <c r="N18" s="38"/>
-      <c r="O18" s="38"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -2561,20 +2516,20 @@
   </sheetPr>
   <dimension ref="A1:K18"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="K2" activeCellId="0" sqref="K2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="40" width="26.6882591093117"/>
-    <col collapsed="false" hidden="false" max="3" min="2" style="40" width="22.5222672064777"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="40" width="33.0485829959514"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="40" width="22.5222672064777"/>
-    <col collapsed="false" hidden="false" max="7" min="6" style="40" width="18.2388663967611"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="28" width="15.919028340081"/>
-    <col collapsed="false" hidden="false" max="11" min="9" style="28" width="9.30364372469636"/>
-    <col collapsed="false" hidden="false" max="1025" min="12" style="29" width="9.30364372469636"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="40" width="27.4210526315789"/>
+    <col collapsed="false" hidden="false" max="3" min="2" style="40" width="23.0161943319838"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="40" width="33.7935222672065"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="40" width="23.0161943319838"/>
+    <col collapsed="false" hidden="false" max="7" min="6" style="40" width="18.6113360323887"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="28" width="16.1619433198381"/>
+    <col collapsed="false" hidden="false" max="11" min="9" style="28" width="9.4251012145749"/>
+    <col collapsed="false" hidden="false" max="1025" min="12" style="29" width="9.4251012145749"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2872,19 +2827,19 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:O30"/>
+  <dimension ref="A1:O65536"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A2" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D27" activeCellId="0" sqref="D27"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C28" activeCellId="0" sqref="C28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="3" min="1" style="47" width="21.914979757085"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="47" width="39.663967611336"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="47" width="21.914979757085"/>
-    <col collapsed="false" hidden="false" max="15" min="6" style="47" width="13.834008097166"/>
-    <col collapsed="false" hidden="false" max="1025" min="16" style="48" width="9.30364372469636"/>
+    <col collapsed="false" hidden="false" max="3" min="1" style="47" width="22.4008097165992"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="47" width="40.5182186234818"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="47" width="22.4008097165992"/>
+    <col collapsed="false" hidden="false" max="15" min="6" style="47" width="14.2024291497976"/>
+    <col collapsed="false" hidden="false" max="1025" min="16" style="48" width="9.4251012145749"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2906,7 +2861,7 @@
       <c r="N1" s="0"/>
       <c r="O1" s="0"/>
     </row>
-    <row r="2" customFormat="false" ht="25.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="25.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="32" t="s">
         <v>0</v>
       </c>
@@ -2953,195 +2908,195 @@
         <v>41</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="13.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="50" t="s">
         <v>14</v>
       </c>
       <c r="B3" s="37" t="s">
         <v>43</v>
       </c>
-      <c r="C3" s="37" t="s">
+      <c r="C3" s="51" t="s">
         <v>44</v>
       </c>
-      <c r="D3" s="51" t="s">
+      <c r="D3" s="52" t="s">
         <v>42</v>
       </c>
-      <c r="E3" s="52" t="n">
+      <c r="E3" s="53" t="n">
         <v>9006968006093</v>
       </c>
-      <c r="F3" s="53" t="n">
-        <v>0</v>
-      </c>
-      <c r="G3" s="53" t="n">
-        <v>0</v>
-      </c>
-      <c r="H3" s="53" t="n">
-        <v>0</v>
-      </c>
-      <c r="I3" s="53" t="n">
-        <v>0</v>
-      </c>
-      <c r="J3" s="53" t="n">
-        <v>0</v>
-      </c>
-      <c r="K3" s="53" t="n">
-        <v>0</v>
-      </c>
-      <c r="L3" s="53" t="n">
-        <v>0</v>
-      </c>
-      <c r="M3" s="53" t="n">
-        <v>0</v>
-      </c>
-      <c r="N3" s="53" t="n">
-        <v>0</v>
-      </c>
-      <c r="O3" s="53" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F3" s="54" t="n">
+        <v>1</v>
+      </c>
+      <c r="G3" s="54" t="n">
+        <v>1</v>
+      </c>
+      <c r="H3" s="54" t="n">
+        <v>1</v>
+      </c>
+      <c r="I3" s="54" t="n">
+        <v>1</v>
+      </c>
+      <c r="J3" s="54" t="n">
+        <v>1</v>
+      </c>
+      <c r="K3" s="54" t="n">
+        <v>1</v>
+      </c>
+      <c r="L3" s="54" t="n">
+        <v>1</v>
+      </c>
+      <c r="M3" s="54" t="n">
+        <v>1</v>
+      </c>
+      <c r="N3" s="54" t="n">
+        <v>1</v>
+      </c>
+      <c r="O3" s="54" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="13.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="50" t="s">
         <v>14</v>
       </c>
       <c r="B4" s="37" t="s">
         <v>43</v>
       </c>
-      <c r="C4" s="37" t="s">
+      <c r="C4" s="51" t="s">
         <v>44</v>
       </c>
-      <c r="D4" s="51" t="s">
+      <c r="D4" s="52" t="s">
         <v>70</v>
       </c>
-      <c r="E4" s="52" t="n">
+      <c r="E4" s="53" t="n">
         <v>9006968006109</v>
       </c>
-      <c r="F4" s="53" t="n">
-        <v>0</v>
-      </c>
-      <c r="G4" s="53" t="n">
-        <v>0</v>
-      </c>
-      <c r="H4" s="53" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" s="53" t="n">
-        <v>0</v>
-      </c>
-      <c r="J4" s="53" t="n">
-        <v>0</v>
-      </c>
-      <c r="K4" s="53" t="n">
-        <v>0</v>
-      </c>
-      <c r="L4" s="53" t="n">
-        <v>0</v>
-      </c>
-      <c r="M4" s="53" t="n">
-        <v>0</v>
-      </c>
-      <c r="N4" s="53" t="n">
-        <v>0</v>
-      </c>
-      <c r="O4" s="53" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F4" s="54" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" s="54" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" s="54" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" s="54" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" s="54" t="n">
+        <v>0</v>
+      </c>
+      <c r="K4" s="54" t="n">
+        <v>0</v>
+      </c>
+      <c r="L4" s="54" t="n">
+        <v>0</v>
+      </c>
+      <c r="M4" s="54" t="n">
+        <v>0</v>
+      </c>
+      <c r="N4" s="54" t="n">
+        <v>0</v>
+      </c>
+      <c r="O4" s="54" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="13.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="50" t="s">
         <v>14</v>
       </c>
       <c r="B5" s="37" t="s">
         <v>43</v>
       </c>
-      <c r="C5" s="37" t="s">
+      <c r="C5" s="51" t="s">
         <v>44</v>
       </c>
-      <c r="D5" s="51" t="s">
+      <c r="D5" s="52" t="s">
         <v>46</v>
       </c>
-      <c r="E5" s="52" t="n">
+      <c r="E5" s="53" t="n">
         <v>9006968007793</v>
       </c>
-      <c r="F5" s="53" t="n">
-        <v>0</v>
-      </c>
-      <c r="G5" s="53" t="n">
-        <v>0</v>
-      </c>
-      <c r="H5" s="53" t="n">
-        <v>0</v>
-      </c>
-      <c r="I5" s="53" t="n">
-        <v>0</v>
-      </c>
-      <c r="J5" s="53" t="n">
-        <v>0</v>
-      </c>
-      <c r="K5" s="53" t="n">
-        <v>0</v>
-      </c>
-      <c r="L5" s="53" t="n">
-        <v>0</v>
-      </c>
-      <c r="M5" s="53" t="n">
-        <v>0</v>
-      </c>
-      <c r="N5" s="53" t="n">
-        <v>0</v>
-      </c>
-      <c r="O5" s="53" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F5" s="54" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" s="54" t="n">
+        <v>0</v>
+      </c>
+      <c r="H5" s="54" t="n">
+        <v>0</v>
+      </c>
+      <c r="I5" s="54" t="n">
+        <v>0</v>
+      </c>
+      <c r="J5" s="54" t="n">
+        <v>0</v>
+      </c>
+      <c r="K5" s="54" t="n">
+        <v>0</v>
+      </c>
+      <c r="L5" s="54" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" s="54" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" s="54" t="n">
+        <v>0</v>
+      </c>
+      <c r="O5" s="54" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="13.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="50" t="s">
         <v>14</v>
       </c>
       <c r="B6" s="37" t="s">
         <v>43</v>
       </c>
-      <c r="C6" s="37" t="s">
+      <c r="C6" s="51" t="s">
         <v>44</v>
       </c>
-      <c r="D6" s="51" t="s">
+      <c r="D6" s="52" t="s">
         <v>71</v>
       </c>
-      <c r="E6" s="52" t="n">
+      <c r="E6" s="53" t="n">
         <v>9006968005874</v>
       </c>
-      <c r="F6" s="53" t="n">
-        <v>0</v>
-      </c>
-      <c r="G6" s="53" t="n">
-        <v>0</v>
-      </c>
-      <c r="H6" s="53" t="n">
-        <v>0</v>
-      </c>
-      <c r="I6" s="53" t="n">
-        <v>0</v>
-      </c>
-      <c r="J6" s="53" t="n">
-        <v>0</v>
-      </c>
-      <c r="K6" s="53" t="n">
-        <v>0</v>
-      </c>
-      <c r="L6" s="53" t="n">
-        <v>0</v>
-      </c>
-      <c r="M6" s="53" t="n">
-        <v>0</v>
-      </c>
-      <c r="N6" s="53" t="n">
-        <v>0</v>
-      </c>
-      <c r="O6" s="53" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F6" s="54" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" s="54" t="n">
+        <v>0</v>
+      </c>
+      <c r="H6" s="54" t="n">
+        <v>0</v>
+      </c>
+      <c r="I6" s="54" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" s="54" t="n">
+        <v>0</v>
+      </c>
+      <c r="K6" s="54" t="n">
+        <v>0</v>
+      </c>
+      <c r="L6" s="54" t="n">
+        <v>0</v>
+      </c>
+      <c r="M6" s="54" t="n">
+        <v>0</v>
+      </c>
+      <c r="N6" s="54" t="n">
+        <v>0</v>
+      </c>
+      <c r="O6" s="54" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="13.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="50" t="s">
         <v>14</v>
       </c>
@@ -3151,44 +3106,44 @@
       <c r="C7" s="37" t="s">
         <v>49</v>
       </c>
-      <c r="D7" s="51" t="s">
+      <c r="D7" s="52" t="s">
         <v>47</v>
       </c>
-      <c r="E7" s="52" t="n">
+      <c r="E7" s="53" t="n">
         <v>3582910031185</v>
       </c>
-      <c r="F7" s="53" t="n">
-        <v>0</v>
-      </c>
-      <c r="G7" s="53" t="n">
-        <v>0</v>
-      </c>
-      <c r="H7" s="53" t="n">
-        <v>0</v>
-      </c>
-      <c r="I7" s="53" t="n">
-        <v>0</v>
-      </c>
-      <c r="J7" s="53" t="n">
-        <v>0</v>
-      </c>
-      <c r="K7" s="53" t="n">
-        <v>0</v>
-      </c>
-      <c r="L7" s="53" t="n">
-        <v>0</v>
-      </c>
-      <c r="M7" s="53" t="n">
-        <v>0</v>
-      </c>
-      <c r="N7" s="53" t="n">
-        <v>0</v>
-      </c>
-      <c r="O7" s="53" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F7" s="54" t="n">
+        <v>0</v>
+      </c>
+      <c r="G7" s="54" t="n">
+        <v>0</v>
+      </c>
+      <c r="H7" s="54" t="n">
+        <v>0</v>
+      </c>
+      <c r="I7" s="54" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" s="54" t="n">
+        <v>0</v>
+      </c>
+      <c r="K7" s="54" t="n">
+        <v>0</v>
+      </c>
+      <c r="L7" s="54" t="n">
+        <v>0</v>
+      </c>
+      <c r="M7" s="54" t="n">
+        <v>0</v>
+      </c>
+      <c r="N7" s="54" t="n">
+        <v>0</v>
+      </c>
+      <c r="O7" s="54" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="13.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="50" t="s">
         <v>14</v>
       </c>
@@ -3201,41 +3156,41 @@
       <c r="D8" s="37" t="s">
         <v>50</v>
       </c>
-      <c r="E8" s="52" t="n">
+      <c r="E8" s="53" t="n">
         <v>3582910079149</v>
       </c>
-      <c r="F8" s="53" t="n">
-        <v>1</v>
-      </c>
-      <c r="G8" s="53" t="n">
-        <v>1</v>
-      </c>
-      <c r="H8" s="53" t="n">
-        <v>1</v>
-      </c>
-      <c r="I8" s="53" t="n">
-        <v>1</v>
-      </c>
-      <c r="J8" s="53" t="n">
-        <v>1</v>
-      </c>
-      <c r="K8" s="53" t="n">
-        <v>1</v>
-      </c>
-      <c r="L8" s="53" t="n">
-        <v>1</v>
-      </c>
-      <c r="M8" s="53" t="n">
-        <v>1</v>
-      </c>
-      <c r="N8" s="53" t="n">
-        <v>1</v>
-      </c>
-      <c r="O8" s="53" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F8" s="54" t="n">
+        <v>0</v>
+      </c>
+      <c r="G8" s="54" t="n">
+        <v>0</v>
+      </c>
+      <c r="H8" s="54" t="n">
+        <v>0</v>
+      </c>
+      <c r="I8" s="54" t="n">
+        <v>0</v>
+      </c>
+      <c r="J8" s="54" t="n">
+        <v>0</v>
+      </c>
+      <c r="K8" s="54" t="n">
+        <v>0</v>
+      </c>
+      <c r="L8" s="54" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" s="54" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" s="54" t="n">
+        <v>0</v>
+      </c>
+      <c r="O8" s="54" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="13.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="50" t="s">
         <v>14</v>
       </c>
@@ -3248,41 +3203,41 @@
       <c r="D9" s="37" t="s">
         <v>72</v>
       </c>
-      <c r="E9" s="52" t="n">
+      <c r="E9" s="53" t="n">
         <v>3582910037132</v>
       </c>
-      <c r="F9" s="53" t="n">
-        <v>0</v>
-      </c>
-      <c r="G9" s="53" t="n">
-        <v>0</v>
-      </c>
-      <c r="H9" s="53" t="n">
-        <v>0</v>
-      </c>
-      <c r="I9" s="53" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" s="53" t="n">
-        <v>0</v>
-      </c>
-      <c r="K9" s="53" t="n">
-        <v>0</v>
-      </c>
-      <c r="L9" s="53" t="n">
-        <v>0</v>
-      </c>
-      <c r="M9" s="53" t="n">
-        <v>0</v>
-      </c>
-      <c r="N9" s="53" t="n">
-        <v>0</v>
-      </c>
-      <c r="O9" s="53" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F9" s="54" t="n">
+        <v>0</v>
+      </c>
+      <c r="G9" s="54" t="n">
+        <v>0</v>
+      </c>
+      <c r="H9" s="54" t="n">
+        <v>0</v>
+      </c>
+      <c r="I9" s="54" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" s="54" t="n">
+        <v>0</v>
+      </c>
+      <c r="K9" s="54" t="n">
+        <v>0</v>
+      </c>
+      <c r="L9" s="54" t="n">
+        <v>0</v>
+      </c>
+      <c r="M9" s="54" t="n">
+        <v>0</v>
+      </c>
+      <c r="N9" s="54" t="n">
+        <v>0</v>
+      </c>
+      <c r="O9" s="54" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="13.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="50" t="s">
         <v>14</v>
       </c>
@@ -3295,41 +3250,41 @@
       <c r="D10" s="47" t="s">
         <v>51</v>
       </c>
-      <c r="E10" s="52" t="n">
+      <c r="E10" s="53" t="n">
         <v>4030113618119</v>
       </c>
-      <c r="F10" s="53" t="n">
-        <v>1</v>
-      </c>
-      <c r="G10" s="53" t="n">
-        <v>1</v>
-      </c>
-      <c r="H10" s="53" t="n">
-        <v>1</v>
-      </c>
-      <c r="I10" s="53" t="n">
-        <v>1</v>
-      </c>
-      <c r="J10" s="53" t="n">
-        <v>1</v>
-      </c>
-      <c r="K10" s="53" t="n">
-        <v>1</v>
-      </c>
-      <c r="L10" s="53" t="n">
-        <v>1</v>
-      </c>
-      <c r="M10" s="53" t="n">
-        <v>1</v>
-      </c>
-      <c r="N10" s="53" t="n">
-        <v>1</v>
-      </c>
-      <c r="O10" s="53" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F10" s="54" t="n">
+        <v>0</v>
+      </c>
+      <c r="G10" s="54" t="n">
+        <v>0</v>
+      </c>
+      <c r="H10" s="54" t="n">
+        <v>0</v>
+      </c>
+      <c r="I10" s="54" t="n">
+        <v>0</v>
+      </c>
+      <c r="J10" s="54" t="n">
+        <v>0</v>
+      </c>
+      <c r="K10" s="54" t="n">
+        <v>0</v>
+      </c>
+      <c r="L10" s="54" t="n">
+        <v>0</v>
+      </c>
+      <c r="M10" s="54" t="n">
+        <v>0</v>
+      </c>
+      <c r="N10" s="54" t="n">
+        <v>0</v>
+      </c>
+      <c r="O10" s="54" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="13.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="50" t="s">
         <v>14</v>
       </c>
@@ -3342,41 +3297,41 @@
       <c r="D11" s="47" t="s">
         <v>53</v>
       </c>
-      <c r="E11" s="52" t="n">
+      <c r="E11" s="53" t="n">
         <v>8901083000470</v>
       </c>
-      <c r="F11" s="53" t="n">
-        <v>0</v>
-      </c>
-      <c r="G11" s="53" t="n">
-        <v>0</v>
-      </c>
-      <c r="H11" s="53" t="n">
-        <v>0</v>
-      </c>
-      <c r="I11" s="53" t="n">
-        <v>1</v>
-      </c>
-      <c r="J11" s="53" t="n">
-        <v>1</v>
-      </c>
-      <c r="K11" s="53" t="n">
-        <v>1</v>
-      </c>
-      <c r="L11" s="53" t="n">
-        <v>0</v>
-      </c>
-      <c r="M11" s="53" t="n">
-        <v>0</v>
-      </c>
-      <c r="N11" s="53" t="n">
-        <v>0</v>
-      </c>
-      <c r="O11" s="53" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F11" s="54" t="n">
+        <v>0</v>
+      </c>
+      <c r="G11" s="54" t="n">
+        <v>0</v>
+      </c>
+      <c r="H11" s="54" t="n">
+        <v>0</v>
+      </c>
+      <c r="I11" s="54" t="n">
+        <v>0</v>
+      </c>
+      <c r="J11" s="54" t="n">
+        <v>0</v>
+      </c>
+      <c r="K11" s="54" t="n">
+        <v>0</v>
+      </c>
+      <c r="L11" s="54" t="n">
+        <v>0</v>
+      </c>
+      <c r="M11" s="54" t="n">
+        <v>0</v>
+      </c>
+      <c r="N11" s="54" t="n">
+        <v>0</v>
+      </c>
+      <c r="O11" s="54" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="13.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="50" t="s">
         <v>14</v>
       </c>
@@ -3389,41 +3344,41 @@
       <c r="D12" s="47" t="s">
         <v>74</v>
       </c>
-      <c r="E12" s="52" t="n">
+      <c r="E12" s="53" t="n">
         <v>9006968007212</v>
       </c>
-      <c r="F12" s="53" t="n">
-        <v>0</v>
-      </c>
-      <c r="G12" s="53" t="n">
-        <v>0</v>
-      </c>
-      <c r="H12" s="53" t="n">
-        <v>0</v>
-      </c>
-      <c r="I12" s="53" t="n">
-        <v>0</v>
-      </c>
-      <c r="J12" s="53" t="n">
-        <v>0</v>
-      </c>
-      <c r="K12" s="53" t="n">
-        <v>0</v>
-      </c>
-      <c r="L12" s="53" t="n">
-        <v>0</v>
-      </c>
-      <c r="M12" s="53" t="n">
-        <v>0</v>
-      </c>
-      <c r="N12" s="53" t="n">
-        <v>0</v>
-      </c>
-      <c r="O12" s="53" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F12" s="54" t="n">
+        <v>0</v>
+      </c>
+      <c r="G12" s="54" t="n">
+        <v>0</v>
+      </c>
+      <c r="H12" s="54" t="n">
+        <v>0</v>
+      </c>
+      <c r="I12" s="54" t="n">
+        <v>0</v>
+      </c>
+      <c r="J12" s="54" t="n">
+        <v>0</v>
+      </c>
+      <c r="K12" s="54" t="n">
+        <v>0</v>
+      </c>
+      <c r="L12" s="54" t="n">
+        <v>0</v>
+      </c>
+      <c r="M12" s="54" t="n">
+        <v>0</v>
+      </c>
+      <c r="N12" s="54" t="n">
+        <v>0</v>
+      </c>
+      <c r="O12" s="54" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="13.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="50" t="s">
         <v>14</v>
       </c>
@@ -3436,41 +3391,41 @@
       <c r="D13" s="47" t="s">
         <v>75</v>
       </c>
-      <c r="E13" s="52" t="n">
+      <c r="E13" s="53" t="n">
         <v>9006968007229</v>
       </c>
-      <c r="F13" s="53" t="n">
-        <v>0</v>
-      </c>
-      <c r="G13" s="53" t="n">
-        <v>0</v>
-      </c>
-      <c r="H13" s="53" t="n">
-        <v>0</v>
-      </c>
-      <c r="I13" s="53" t="n">
-        <v>0</v>
-      </c>
-      <c r="J13" s="53" t="n">
-        <v>0</v>
-      </c>
-      <c r="K13" s="53" t="n">
-        <v>0</v>
-      </c>
-      <c r="L13" s="53" t="n">
-        <v>0</v>
-      </c>
-      <c r="M13" s="53" t="n">
-        <v>0</v>
-      </c>
-      <c r="N13" s="53" t="n">
-        <v>0</v>
-      </c>
-      <c r="O13" s="53" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F13" s="54" t="n">
+        <v>0</v>
+      </c>
+      <c r="G13" s="54" t="n">
+        <v>0</v>
+      </c>
+      <c r="H13" s="54" t="n">
+        <v>0</v>
+      </c>
+      <c r="I13" s="54" t="n">
+        <v>0</v>
+      </c>
+      <c r="J13" s="54" t="n">
+        <v>0</v>
+      </c>
+      <c r="K13" s="54" t="n">
+        <v>0</v>
+      </c>
+      <c r="L13" s="54" t="n">
+        <v>0</v>
+      </c>
+      <c r="M13" s="54" t="n">
+        <v>0</v>
+      </c>
+      <c r="N13" s="54" t="n">
+        <v>0</v>
+      </c>
+      <c r="O13" s="54" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="13.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="50" t="s">
         <v>14</v>
       </c>
@@ -3483,41 +3438,41 @@
       <c r="D14" s="47" t="s">
         <v>77</v>
       </c>
-      <c r="E14" s="52" t="n">
+      <c r="E14" s="53" t="n">
         <v>3582910023449</v>
       </c>
-      <c r="F14" s="53" t="n">
-        <v>0</v>
-      </c>
-      <c r="G14" s="53" t="n">
-        <v>0</v>
-      </c>
-      <c r="H14" s="53" t="n">
-        <v>0</v>
-      </c>
-      <c r="I14" s="53" t="n">
-        <v>0</v>
-      </c>
-      <c r="J14" s="53" t="n">
-        <v>0</v>
-      </c>
-      <c r="K14" s="53" t="n">
-        <v>0</v>
-      </c>
-      <c r="L14" s="53" t="n">
-        <v>0</v>
-      </c>
-      <c r="M14" s="53" t="n">
-        <v>0</v>
-      </c>
-      <c r="N14" s="53" t="n">
-        <v>0</v>
-      </c>
-      <c r="O14" s="53" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F14" s="54" t="n">
+        <v>0</v>
+      </c>
+      <c r="G14" s="54" t="n">
+        <v>0</v>
+      </c>
+      <c r="H14" s="54" t="n">
+        <v>0</v>
+      </c>
+      <c r="I14" s="54" t="n">
+        <v>0</v>
+      </c>
+      <c r="J14" s="54" t="n">
+        <v>0</v>
+      </c>
+      <c r="K14" s="54" t="n">
+        <v>0</v>
+      </c>
+      <c r="L14" s="54" t="n">
+        <v>0</v>
+      </c>
+      <c r="M14" s="54" t="n">
+        <v>0</v>
+      </c>
+      <c r="N14" s="54" t="n">
+        <v>0</v>
+      </c>
+      <c r="O14" s="54" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="13.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="50" t="s">
         <v>14</v>
       </c>
@@ -3530,41 +3485,41 @@
       <c r="D15" s="47" t="s">
         <v>78</v>
       </c>
-      <c r="E15" s="52" t="n">
+      <c r="E15" s="53" t="n">
         <v>3582910059264</v>
       </c>
-      <c r="F15" s="53" t="n">
-        <v>0</v>
-      </c>
-      <c r="G15" s="53" t="n">
-        <v>0</v>
-      </c>
-      <c r="H15" s="53" t="n">
-        <v>0</v>
-      </c>
-      <c r="I15" s="53" t="n">
-        <v>0</v>
-      </c>
-      <c r="J15" s="53" t="n">
-        <v>0</v>
-      </c>
-      <c r="K15" s="53" t="n">
-        <v>0</v>
-      </c>
-      <c r="L15" s="53" t="n">
-        <v>0</v>
-      </c>
-      <c r="M15" s="53" t="n">
-        <v>0</v>
-      </c>
-      <c r="N15" s="53" t="n">
-        <v>0</v>
-      </c>
-      <c r="O15" s="53" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F15" s="54" t="n">
+        <v>0</v>
+      </c>
+      <c r="G15" s="54" t="n">
+        <v>0</v>
+      </c>
+      <c r="H15" s="54" t="n">
+        <v>0</v>
+      </c>
+      <c r="I15" s="54" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" s="54" t="n">
+        <v>0</v>
+      </c>
+      <c r="K15" s="54" t="n">
+        <v>0</v>
+      </c>
+      <c r="L15" s="54" t="n">
+        <v>0</v>
+      </c>
+      <c r="M15" s="54" t="n">
+        <v>0</v>
+      </c>
+      <c r="N15" s="54" t="n">
+        <v>0</v>
+      </c>
+      <c r="O15" s="54" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="13.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="50" t="s">
         <v>14</v>
       </c>
@@ -3577,41 +3532,41 @@
       <c r="D16" s="47" t="s">
         <v>55</v>
       </c>
-      <c r="E16" s="52" t="n">
+      <c r="E16" s="53" t="n">
         <v>4030113647256</v>
       </c>
-      <c r="F16" s="53" t="n">
-        <v>0</v>
-      </c>
-      <c r="G16" s="53" t="n">
-        <v>0</v>
-      </c>
-      <c r="H16" s="53" t="n">
-        <v>0</v>
-      </c>
-      <c r="I16" s="53" t="n">
-        <v>0</v>
-      </c>
-      <c r="J16" s="53" t="n">
-        <v>0</v>
-      </c>
-      <c r="K16" s="53" t="n">
-        <v>0</v>
-      </c>
-      <c r="L16" s="53" t="n">
-        <v>0</v>
-      </c>
-      <c r="M16" s="53" t="n">
-        <v>0</v>
-      </c>
-      <c r="N16" s="53" t="n">
-        <v>0</v>
-      </c>
-      <c r="O16" s="53" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F16" s="54" t="n">
+        <v>1</v>
+      </c>
+      <c r="G16" s="54" t="n">
+        <v>1</v>
+      </c>
+      <c r="H16" s="54" t="n">
+        <v>1</v>
+      </c>
+      <c r="I16" s="54" t="n">
+        <v>1</v>
+      </c>
+      <c r="J16" s="54" t="n">
+        <v>1</v>
+      </c>
+      <c r="K16" s="54" t="n">
+        <v>1</v>
+      </c>
+      <c r="L16" s="54" t="n">
+        <v>1</v>
+      </c>
+      <c r="M16" s="54" t="n">
+        <v>1</v>
+      </c>
+      <c r="N16" s="54" t="n">
+        <v>1</v>
+      </c>
+      <c r="O16" s="54" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="13.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="50" t="s">
         <v>14</v>
       </c>
@@ -3624,41 +3579,41 @@
       <c r="D17" s="47" t="s">
         <v>79</v>
       </c>
-      <c r="E17" s="52" t="n">
+      <c r="E17" s="53" t="n">
         <v>4030113647249</v>
       </c>
-      <c r="F17" s="53" t="n">
-        <v>0</v>
-      </c>
-      <c r="G17" s="53" t="n">
-        <v>0</v>
-      </c>
-      <c r="H17" s="53" t="n">
-        <v>0</v>
-      </c>
-      <c r="I17" s="53" t="n">
-        <v>0</v>
-      </c>
-      <c r="J17" s="53" t="n">
-        <v>0</v>
-      </c>
-      <c r="K17" s="53" t="n">
-        <v>0</v>
-      </c>
-      <c r="L17" s="53" t="n">
-        <v>0</v>
-      </c>
-      <c r="M17" s="53" t="n">
-        <v>0</v>
-      </c>
-      <c r="N17" s="53" t="n">
-        <v>0</v>
-      </c>
-      <c r="O17" s="53" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F17" s="54" t="n">
+        <v>0</v>
+      </c>
+      <c r="G17" s="54" t="n">
+        <v>0</v>
+      </c>
+      <c r="H17" s="54" t="n">
+        <v>0</v>
+      </c>
+      <c r="I17" s="54" t="n">
+        <v>0</v>
+      </c>
+      <c r="J17" s="54" t="n">
+        <v>0</v>
+      </c>
+      <c r="K17" s="54" t="n">
+        <v>0</v>
+      </c>
+      <c r="L17" s="54" t="n">
+        <v>0</v>
+      </c>
+      <c r="M17" s="54" t="n">
+        <v>0</v>
+      </c>
+      <c r="N17" s="54" t="n">
+        <v>0</v>
+      </c>
+      <c r="O17" s="54" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="13.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="50" t="s">
         <v>14</v>
       </c>
@@ -3671,41 +3626,41 @@
       <c r="D18" s="47" t="s">
         <v>57</v>
       </c>
-      <c r="E18" s="52" t="n">
+      <c r="E18" s="53" t="n">
         <v>3582910068693</v>
       </c>
-      <c r="F18" s="53" t="n">
-        <v>0</v>
-      </c>
-      <c r="G18" s="53" t="n">
-        <v>0</v>
-      </c>
-      <c r="H18" s="53" t="n">
-        <v>0</v>
-      </c>
-      <c r="I18" s="53" t="n">
-        <v>0</v>
-      </c>
-      <c r="J18" s="53" t="n">
-        <v>0</v>
-      </c>
-      <c r="K18" s="53" t="n">
-        <v>0</v>
-      </c>
-      <c r="L18" s="53" t="n">
-        <v>0</v>
-      </c>
-      <c r="M18" s="53" t="n">
-        <v>0</v>
-      </c>
-      <c r="N18" s="53" t="n">
-        <v>0</v>
-      </c>
-      <c r="O18" s="53" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F18" s="54" t="n">
+        <v>0</v>
+      </c>
+      <c r="G18" s="54" t="n">
+        <v>0</v>
+      </c>
+      <c r="H18" s="54" t="n">
+        <v>0</v>
+      </c>
+      <c r="I18" s="54" t="n">
+        <v>0</v>
+      </c>
+      <c r="J18" s="54" t="n">
+        <v>0</v>
+      </c>
+      <c r="K18" s="54" t="n">
+        <v>0</v>
+      </c>
+      <c r="L18" s="54" t="n">
+        <v>0</v>
+      </c>
+      <c r="M18" s="54" t="n">
+        <v>0</v>
+      </c>
+      <c r="N18" s="54" t="n">
+        <v>0</v>
+      </c>
+      <c r="O18" s="54" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="13.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="50" t="s">
         <v>14</v>
       </c>
@@ -3718,41 +3673,41 @@
       <c r="D19" s="47" t="s">
         <v>81</v>
       </c>
-      <c r="E19" s="52" t="n">
+      <c r="E19" s="53" t="n">
         <v>8584005040985</v>
       </c>
-      <c r="F19" s="53" t="n">
-        <v>0</v>
-      </c>
-      <c r="G19" s="53" t="n">
-        <v>0</v>
-      </c>
-      <c r="H19" s="53" t="n">
-        <v>0</v>
-      </c>
-      <c r="I19" s="53" t="n">
-        <v>0</v>
-      </c>
-      <c r="J19" s="53" t="n">
-        <v>0</v>
-      </c>
-      <c r="K19" s="53" t="n">
-        <v>0</v>
-      </c>
-      <c r="L19" s="53" t="n">
-        <v>0</v>
-      </c>
-      <c r="M19" s="53" t="n">
-        <v>0</v>
-      </c>
-      <c r="N19" s="53" t="n">
-        <v>0</v>
-      </c>
-      <c r="O19" s="53" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F19" s="54" t="n">
+        <v>0</v>
+      </c>
+      <c r="G19" s="54" t="n">
+        <v>0</v>
+      </c>
+      <c r="H19" s="54" t="n">
+        <v>0</v>
+      </c>
+      <c r="I19" s="54" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" s="54" t="n">
+        <v>0</v>
+      </c>
+      <c r="K19" s="54" t="n">
+        <v>0</v>
+      </c>
+      <c r="L19" s="54" t="n">
+        <v>0</v>
+      </c>
+      <c r="M19" s="54" t="n">
+        <v>0</v>
+      </c>
+      <c r="N19" s="54" t="n">
+        <v>0</v>
+      </c>
+      <c r="O19" s="54" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="13.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="50" t="s">
         <v>14</v>
       </c>
@@ -3765,41 +3720,41 @@
       <c r="D20" s="47" t="s">
         <v>83</v>
       </c>
-      <c r="E20" s="52" t="n">
+      <c r="E20" s="53" t="n">
         <v>9006968011431</v>
       </c>
-      <c r="F20" s="53" t="n">
-        <v>0</v>
-      </c>
-      <c r="G20" s="53" t="n">
-        <v>0</v>
-      </c>
-      <c r="H20" s="53" t="n">
-        <v>0</v>
-      </c>
-      <c r="I20" s="53" t="n">
-        <v>0</v>
-      </c>
-      <c r="J20" s="53" t="n">
-        <v>0</v>
-      </c>
-      <c r="K20" s="53" t="n">
-        <v>0</v>
-      </c>
-      <c r="L20" s="53" t="n">
-        <v>0</v>
-      </c>
-      <c r="M20" s="53" t="n">
-        <v>0</v>
-      </c>
-      <c r="N20" s="53" t="n">
-        <v>0</v>
-      </c>
-      <c r="O20" s="53" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F20" s="54" t="n">
+        <v>0</v>
+      </c>
+      <c r="G20" s="54" t="n">
+        <v>0</v>
+      </c>
+      <c r="H20" s="54" t="n">
+        <v>0</v>
+      </c>
+      <c r="I20" s="54" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" s="54" t="n">
+        <v>0</v>
+      </c>
+      <c r="K20" s="54" t="n">
+        <v>0</v>
+      </c>
+      <c r="L20" s="54" t="n">
+        <v>0</v>
+      </c>
+      <c r="M20" s="54" t="n">
+        <v>0</v>
+      </c>
+      <c r="N20" s="54" t="n">
+        <v>0</v>
+      </c>
+      <c r="O20" s="54" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="13.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="50" t="s">
         <v>14</v>
       </c>
@@ -3812,41 +3767,41 @@
       <c r="D21" s="47" t="s">
         <v>58</v>
       </c>
-      <c r="E21" s="52" t="n">
+      <c r="E21" s="53" t="n">
         <v>3582910013525</v>
       </c>
-      <c r="F21" s="53" t="n">
-        <v>0</v>
-      </c>
-      <c r="G21" s="53" t="n">
-        <v>0</v>
-      </c>
-      <c r="H21" s="53" t="n">
-        <v>0</v>
-      </c>
-      <c r="I21" s="53" t="n">
-        <v>0</v>
-      </c>
-      <c r="J21" s="53" t="n">
-        <v>0</v>
-      </c>
-      <c r="K21" s="53" t="n">
-        <v>0</v>
-      </c>
-      <c r="L21" s="53" t="n">
-        <v>0</v>
-      </c>
-      <c r="M21" s="53" t="n">
-        <v>0</v>
-      </c>
-      <c r="N21" s="53" t="n">
-        <v>0</v>
-      </c>
-      <c r="O21" s="53" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F21" s="54" t="n">
+        <v>0</v>
+      </c>
+      <c r="G21" s="54" t="n">
+        <v>0</v>
+      </c>
+      <c r="H21" s="54" t="n">
+        <v>0</v>
+      </c>
+      <c r="I21" s="54" t="n">
+        <v>0</v>
+      </c>
+      <c r="J21" s="54" t="n">
+        <v>0</v>
+      </c>
+      <c r="K21" s="54" t="n">
+        <v>0</v>
+      </c>
+      <c r="L21" s="54" t="n">
+        <v>0</v>
+      </c>
+      <c r="M21" s="54" t="n">
+        <v>0</v>
+      </c>
+      <c r="N21" s="54" t="n">
+        <v>0</v>
+      </c>
+      <c r="O21" s="54" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="13.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="50" t="s">
         <v>14</v>
       </c>
@@ -3859,41 +3814,41 @@
       <c r="D22" s="47" t="s">
         <v>61</v>
       </c>
-      <c r="E22" s="52" t="n">
+      <c r="E22" s="53" t="n">
         <v>3582910052203</v>
       </c>
-      <c r="F22" s="53" t="n">
-        <v>0</v>
-      </c>
-      <c r="G22" s="53" t="n">
-        <v>0</v>
-      </c>
-      <c r="H22" s="53" t="n">
-        <v>0</v>
-      </c>
-      <c r="I22" s="53" t="n">
-        <v>0</v>
-      </c>
-      <c r="J22" s="53" t="n">
-        <v>0</v>
-      </c>
-      <c r="K22" s="53" t="n">
-        <v>0</v>
-      </c>
-      <c r="L22" s="53" t="n">
-        <v>0</v>
-      </c>
-      <c r="M22" s="53" t="n">
-        <v>0</v>
-      </c>
-      <c r="N22" s="53" t="n">
-        <v>0</v>
-      </c>
-      <c r="O22" s="53" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F22" s="54" t="n">
+        <v>0</v>
+      </c>
+      <c r="G22" s="54" t="n">
+        <v>0</v>
+      </c>
+      <c r="H22" s="54" t="n">
+        <v>0</v>
+      </c>
+      <c r="I22" s="54" t="n">
+        <v>0</v>
+      </c>
+      <c r="J22" s="54" t="n">
+        <v>0</v>
+      </c>
+      <c r="K22" s="54" t="n">
+        <v>0</v>
+      </c>
+      <c r="L22" s="54" t="n">
+        <v>0</v>
+      </c>
+      <c r="M22" s="54" t="n">
+        <v>0</v>
+      </c>
+      <c r="N22" s="54" t="n">
+        <v>0</v>
+      </c>
+      <c r="O22" s="54" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="13.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="50" t="s">
         <v>14</v>
       </c>
@@ -3906,41 +3861,41 @@
       <c r="D23" s="47" t="s">
         <v>62</v>
       </c>
-      <c r="E23" s="52" t="n">
+      <c r="E23" s="53" t="n">
         <v>3582910026006</v>
       </c>
-      <c r="F23" s="53" t="n">
-        <v>0</v>
-      </c>
-      <c r="G23" s="53" t="n">
-        <v>0</v>
-      </c>
-      <c r="H23" s="53" t="n">
-        <v>0</v>
-      </c>
-      <c r="I23" s="53" t="n">
-        <v>0</v>
-      </c>
-      <c r="J23" s="53" t="n">
-        <v>0</v>
-      </c>
-      <c r="K23" s="53" t="n">
-        <v>0</v>
-      </c>
-      <c r="L23" s="53" t="n">
-        <v>0</v>
-      </c>
-      <c r="M23" s="53" t="n">
-        <v>0</v>
-      </c>
-      <c r="N23" s="53" t="n">
-        <v>0</v>
-      </c>
-      <c r="O23" s="53" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F23" s="54" t="n">
+        <v>0</v>
+      </c>
+      <c r="G23" s="54" t="n">
+        <v>0</v>
+      </c>
+      <c r="H23" s="54" t="n">
+        <v>0</v>
+      </c>
+      <c r="I23" s="54" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" s="54" t="n">
+        <v>0</v>
+      </c>
+      <c r="K23" s="54" t="n">
+        <v>0</v>
+      </c>
+      <c r="L23" s="54" t="n">
+        <v>0</v>
+      </c>
+      <c r="M23" s="54" t="n">
+        <v>0</v>
+      </c>
+      <c r="N23" s="54" t="n">
+        <v>0</v>
+      </c>
+      <c r="O23" s="54" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="13.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="50" t="s">
         <v>14</v>
       </c>
@@ -3953,41 +3908,41 @@
       <c r="D24" s="47" t="s">
         <v>85</v>
       </c>
-      <c r="E24" s="52" t="n">
+      <c r="E24" s="53" t="n">
         <v>8584005053992</v>
       </c>
-      <c r="F24" s="53" t="n">
-        <v>0</v>
-      </c>
-      <c r="G24" s="53" t="n">
-        <v>0</v>
-      </c>
-      <c r="H24" s="53" t="n">
-        <v>0</v>
-      </c>
-      <c r="I24" s="53" t="n">
-        <v>0</v>
-      </c>
-      <c r="J24" s="53" t="n">
-        <v>0</v>
-      </c>
-      <c r="K24" s="53" t="n">
-        <v>0</v>
-      </c>
-      <c r="L24" s="53" t="n">
-        <v>0</v>
-      </c>
-      <c r="M24" s="53" t="n">
-        <v>0</v>
-      </c>
-      <c r="N24" s="53" t="n">
-        <v>0</v>
-      </c>
-      <c r="O24" s="53" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F24" s="54" t="n">
+        <v>0</v>
+      </c>
+      <c r="G24" s="54" t="n">
+        <v>0</v>
+      </c>
+      <c r="H24" s="54" t="n">
+        <v>0</v>
+      </c>
+      <c r="I24" s="54" t="n">
+        <v>0</v>
+      </c>
+      <c r="J24" s="54" t="n">
+        <v>0</v>
+      </c>
+      <c r="K24" s="54" t="n">
+        <v>0</v>
+      </c>
+      <c r="L24" s="54" t="n">
+        <v>0</v>
+      </c>
+      <c r="M24" s="54" t="n">
+        <v>0</v>
+      </c>
+      <c r="N24" s="54" t="n">
+        <v>0</v>
+      </c>
+      <c r="O24" s="54" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="13.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="50" t="s">
         <v>14</v>
       </c>
@@ -4000,275 +3955,45 @@
       <c r="D25" s="47" t="s">
         <v>63</v>
       </c>
-      <c r="E25" s="52" t="n">
+      <c r="E25" s="53" t="n">
         <v>3582910065432</v>
       </c>
-      <c r="F25" s="53" t="n">
-        <v>1</v>
-      </c>
-      <c r="G25" s="53" t="n">
-        <v>1</v>
-      </c>
-      <c r="H25" s="53" t="n">
-        <v>1</v>
-      </c>
-      <c r="I25" s="53" t="n">
-        <v>1</v>
-      </c>
-      <c r="J25" s="53" t="n">
-        <v>1</v>
-      </c>
-      <c r="K25" s="53" t="n">
-        <v>1</v>
-      </c>
-      <c r="L25" s="53" t="n">
-        <v>1</v>
-      </c>
-      <c r="M25" s="53" t="n">
-        <v>1</v>
-      </c>
-      <c r="N25" s="53" t="n">
-        <v>1</v>
-      </c>
-      <c r="O25" s="53" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="50" t="s">
-        <v>14</v>
-      </c>
-      <c r="B26" s="47" t="s">
-        <v>64</v>
-      </c>
-      <c r="C26" s="47" t="s">
-        <v>65</v>
-      </c>
-      <c r="D26" s="47" t="s">
-        <v>86</v>
-      </c>
-      <c r="E26" s="52" t="n">
-        <v>5997086103280</v>
-      </c>
-      <c r="F26" s="53" t="n">
-        <v>0</v>
-      </c>
-      <c r="G26" s="53" t="n">
-        <v>0</v>
-      </c>
-      <c r="H26" s="53" t="n">
-        <v>0</v>
-      </c>
-      <c r="I26" s="53" t="n">
-        <v>0</v>
-      </c>
-      <c r="J26" s="53" t="n">
-        <v>0</v>
-      </c>
-      <c r="K26" s="53" t="n">
-        <v>0</v>
-      </c>
-      <c r="L26" s="53" t="n">
-        <v>0</v>
-      </c>
-      <c r="M26" s="53" t="n">
-        <v>0</v>
-      </c>
-      <c r="N26" s="53" t="n">
-        <v>0</v>
-      </c>
-      <c r="O26" s="53" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="50" t="s">
-        <v>14</v>
-      </c>
-      <c r="B27" s="47" t="s">
-        <v>64</v>
-      </c>
-      <c r="C27" s="47" t="s">
-        <v>65</v>
-      </c>
-      <c r="D27" s="47" t="s">
-        <v>87</v>
-      </c>
-      <c r="E27" s="52" t="n">
-        <v>5997086105055</v>
-      </c>
-      <c r="F27" s="53" t="n">
-        <v>0</v>
-      </c>
-      <c r="G27" s="53" t="n">
-        <v>0</v>
-      </c>
-      <c r="H27" s="53" t="n">
-        <v>0</v>
-      </c>
-      <c r="I27" s="53" t="n">
-        <v>0</v>
-      </c>
-      <c r="J27" s="53" t="n">
-        <v>0</v>
-      </c>
-      <c r="K27" s="53" t="n">
-        <v>0</v>
-      </c>
-      <c r="L27" s="53" t="n">
-        <v>0</v>
-      </c>
-      <c r="M27" s="53" t="n">
-        <v>0</v>
-      </c>
-      <c r="N27" s="53" t="n">
-        <v>0</v>
-      </c>
-      <c r="O27" s="53" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="50" t="s">
-        <v>14</v>
-      </c>
-      <c r="B28" s="47" t="s">
-        <v>88</v>
-      </c>
-      <c r="C28" s="47" t="s">
-        <v>89</v>
-      </c>
-      <c r="D28" s="47" t="s">
-        <v>90</v>
-      </c>
-      <c r="E28" s="52" t="n">
-        <v>8594739207332</v>
-      </c>
-      <c r="F28" s="53" t="n">
-        <v>0</v>
-      </c>
-      <c r="G28" s="53" t="n">
-        <v>0</v>
-      </c>
-      <c r="H28" s="53" t="n">
-        <v>0</v>
-      </c>
-      <c r="I28" s="53" t="n">
-        <v>0</v>
-      </c>
-      <c r="J28" s="53" t="n">
-        <v>0</v>
-      </c>
-      <c r="K28" s="53" t="n">
-        <v>0</v>
-      </c>
-      <c r="L28" s="53" t="n">
-        <v>0</v>
-      </c>
-      <c r="M28" s="53" t="n">
-        <v>0</v>
-      </c>
-      <c r="N28" s="53" t="n">
-        <v>0</v>
-      </c>
-      <c r="O28" s="53" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="50" t="s">
-        <v>14</v>
-      </c>
-      <c r="B29" s="47" t="s">
-        <v>88</v>
-      </c>
-      <c r="C29" s="47" t="s">
-        <v>89</v>
-      </c>
-      <c r="D29" s="47" t="s">
-        <v>91</v>
-      </c>
-      <c r="E29" s="52" t="n">
-        <v>8594739055155</v>
-      </c>
-      <c r="F29" s="53" t="n">
-        <v>0</v>
-      </c>
-      <c r="G29" s="53" t="n">
-        <v>0</v>
-      </c>
-      <c r="H29" s="53" t="n">
-        <v>0</v>
-      </c>
-      <c r="I29" s="53" t="n">
-        <v>0</v>
-      </c>
-      <c r="J29" s="53" t="n">
-        <v>0</v>
-      </c>
-      <c r="K29" s="53" t="n">
-        <v>0</v>
-      </c>
-      <c r="L29" s="53" t="n">
-        <v>0</v>
-      </c>
-      <c r="M29" s="53" t="n">
-        <v>0</v>
-      </c>
-      <c r="N29" s="53" t="n">
-        <v>0</v>
-      </c>
-      <c r="O29" s="53" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="50" t="s">
-        <v>14</v>
-      </c>
-      <c r="B30" s="47" t="s">
-        <v>88</v>
-      </c>
-      <c r="C30" s="47" t="s">
-        <v>89</v>
-      </c>
-      <c r="D30" s="47" t="s">
-        <v>92</v>
-      </c>
-      <c r="E30" s="52" t="n">
-        <v>8594739207301</v>
-      </c>
-      <c r="F30" s="53" t="n">
-        <v>0</v>
-      </c>
-      <c r="G30" s="53" t="n">
-        <v>0</v>
-      </c>
-      <c r="H30" s="53" t="n">
-        <v>0</v>
-      </c>
-      <c r="I30" s="53" t="n">
-        <v>0</v>
-      </c>
-      <c r="J30" s="53" t="n">
-        <v>0</v>
-      </c>
-      <c r="K30" s="53" t="n">
-        <v>0</v>
-      </c>
-      <c r="L30" s="53" t="n">
-        <v>0</v>
-      </c>
-      <c r="M30" s="53" t="n">
-        <v>0</v>
-      </c>
-      <c r="N30" s="53" t="n">
-        <v>0</v>
-      </c>
-      <c r="O30" s="53" t="n">
-        <v>0</v>
-      </c>
-    </row>
+      <c r="F25" s="54" t="n">
+        <v>1</v>
+      </c>
+      <c r="G25" s="54" t="n">
+        <v>1</v>
+      </c>
+      <c r="H25" s="54" t="n">
+        <v>1</v>
+      </c>
+      <c r="I25" s="54" t="n">
+        <v>1</v>
+      </c>
+      <c r="J25" s="54" t="n">
+        <v>1</v>
+      </c>
+      <c r="K25" s="54" t="n">
+        <v>1</v>
+      </c>
+      <c r="L25" s="54" t="n">
+        <v>1</v>
+      </c>
+      <c r="M25" s="54" t="n">
+        <v>1</v>
+      </c>
+      <c r="N25" s="54" t="n">
+        <v>1</v>
+      </c>
+      <c r="O25" s="54" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1048572" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048573" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048574" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048575" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048576" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="F1:G1"/>
@@ -4289,23 +4014,24 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:O12"/>
+  <dimension ref="A1:O11"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D5" activeCellId="0" sqref="D5"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B28" activeCellId="0" sqref="B28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="40" width="30.2348178137652"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="54" width="34.4008097165992"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="40" width="23.3805668016194"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="54" width="28.0364372469636"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="54" width="20.1943319838057"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="40" width="14.8097165991903"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="40" width="13.0971659919028"/>
-    <col collapsed="false" hidden="false" max="15" min="8" style="40" width="9.30364372469636"/>
-    <col collapsed="false" hidden="false" max="1025" min="16" style="55" width="9.30364372469636"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="40" width="30.9716599190283"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="55" width="35.1336032388664"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="40" width="23.8744939271255"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="55" width="28.6518218623482"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="55" width="20.6882591093117"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="40" width="15.0526315789474"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="40" width="13.3481781376518"/>
+    <col collapsed="false" hidden="false" max="15" min="8" style="40" width="9.4251012145749"/>
+    <col collapsed="false" hidden="false" max="1023" min="16" style="56" width="9.4251012145749"/>
+    <col collapsed="false" hidden="false" max="1025" min="1024" style="0" width="9.4251012145749"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4318,29 +4044,29 @@
         <v>27</v>
       </c>
       <c r="G1" s="31"/>
-      <c r="H1" s="0"/>
-      <c r="I1" s="0"/>
-      <c r="J1" s="0"/>
-      <c r="K1" s="0"/>
-      <c r="L1" s="0"/>
-      <c r="M1" s="0"/>
-      <c r="N1" s="0"/>
-      <c r="O1" s="0"/>
-    </row>
-    <row r="2" customFormat="false" ht="63" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="56" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="56" t="s">
+      <c r="H1" s="31"/>
+      <c r="I1" s="31"/>
+      <c r="J1" s="31"/>
+      <c r="K1" s="31"/>
+      <c r="L1" s="31"/>
+      <c r="M1" s="31"/>
+      <c r="N1" s="31"/>
+      <c r="O1" s="31"/>
+    </row>
+    <row r="2" customFormat="false" ht="56.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="57" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="57" t="s">
         <v>28</v>
       </c>
-      <c r="C2" s="56" t="s">
+      <c r="C2" s="57" t="s">
         <v>29</v>
       </c>
-      <c r="D2" s="56" t="s">
+      <c r="D2" s="57" t="s">
         <v>30</v>
       </c>
-      <c r="E2" s="56" t="s">
+      <c r="E2" s="57" t="s">
         <v>31</v>
       </c>
       <c r="F2" s="42" t="s">
@@ -4374,397 +4100,397 @@
         <v>41</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="57" t="s">
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="58" t="s">
         <v>7</v>
       </c>
       <c r="B3" s="35" t="s">
+        <v>86</v>
+      </c>
+      <c r="C3" s="40" t="s">
+        <v>87</v>
+      </c>
+      <c r="D3" s="59" t="s">
+        <v>88</v>
+      </c>
+      <c r="E3" s="37" t="s">
+        <v>44</v>
+      </c>
+      <c r="F3" s="44" t="n">
+        <v>1</v>
+      </c>
+      <c r="G3" s="44" t="n">
+        <v>1</v>
+      </c>
+      <c r="H3" s="44" t="n">
+        <v>1</v>
+      </c>
+      <c r="I3" s="44" t="n">
+        <v>1</v>
+      </c>
+      <c r="J3" s="44" t="n">
+        <v>1</v>
+      </c>
+      <c r="K3" s="44" t="n">
+        <v>1</v>
+      </c>
+      <c r="L3" s="44" t="n">
+        <v>1</v>
+      </c>
+      <c r="M3" s="44" t="n">
+        <v>1</v>
+      </c>
+      <c r="N3" s="44" t="n">
+        <v>1</v>
+      </c>
+      <c r="O3" s="44" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="58" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="35" t="s">
+        <v>89</v>
+      </c>
+      <c r="C4" s="40" t="s">
+        <v>90</v>
+      </c>
+      <c r="D4" s="60" t="s">
+        <v>91</v>
+      </c>
+      <c r="E4" s="37" t="s">
+        <v>44</v>
+      </c>
+      <c r="F4" s="44" t="n">
+        <v>1</v>
+      </c>
+      <c r="G4" s="44" t="n">
+        <v>1</v>
+      </c>
+      <c r="H4" s="44" t="n">
+        <v>1</v>
+      </c>
+      <c r="I4" s="44" t="n">
+        <v>1</v>
+      </c>
+      <c r="J4" s="44" t="n">
+        <v>1</v>
+      </c>
+      <c r="K4" s="44" t="n">
+        <v>1</v>
+      </c>
+      <c r="L4" s="44" t="n">
+        <v>1</v>
+      </c>
+      <c r="M4" s="44" t="n">
+        <v>1</v>
+      </c>
+      <c r="N4" s="44" t="n">
+        <v>1</v>
+      </c>
+      <c r="O4" s="44" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="58" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="35" t="s">
+        <v>92</v>
+      </c>
+      <c r="C5" s="40" t="s">
         <v>93</v>
       </c>
-      <c r="C3" s="40" t="s">
+      <c r="D5" s="60" t="s">
         <v>94</v>
       </c>
-      <c r="D3" s="58" t="s">
+      <c r="E5" s="60" t="s">
+        <v>65</v>
+      </c>
+      <c r="F5" s="44" t="n">
+        <v>1</v>
+      </c>
+      <c r="G5" s="44" t="n">
+        <v>1</v>
+      </c>
+      <c r="H5" s="44" t="n">
+        <v>1</v>
+      </c>
+      <c r="I5" s="44" t="n">
+        <v>1</v>
+      </c>
+      <c r="J5" s="44" t="n">
+        <v>1</v>
+      </c>
+      <c r="K5" s="44" t="n">
+        <v>1</v>
+      </c>
+      <c r="L5" s="44" t="n">
+        <v>1</v>
+      </c>
+      <c r="M5" s="44" t="n">
+        <v>1</v>
+      </c>
+      <c r="N5" s="44" t="n">
+        <v>1</v>
+      </c>
+      <c r="O5" s="44" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="61" t="s">
+        <v>17</v>
+      </c>
+      <c r="B6" s="35" t="s">
+        <v>86</v>
+      </c>
+      <c r="C6" s="40" t="s">
+        <v>87</v>
+      </c>
+      <c r="D6" s="60" t="s">
+        <v>88</v>
+      </c>
+      <c r="E6" s="37" t="s">
+        <v>44</v>
+      </c>
+      <c r="F6" s="44" t="n">
+        <v>1</v>
+      </c>
+      <c r="G6" s="44" t="n">
+        <v>1</v>
+      </c>
+      <c r="H6" s="44" t="n">
+        <v>1</v>
+      </c>
+      <c r="I6" s="44" t="n">
+        <v>1</v>
+      </c>
+      <c r="J6" s="44" t="n">
+        <v>1</v>
+      </c>
+      <c r="K6" s="44" t="n">
+        <v>1</v>
+      </c>
+      <c r="L6" s="44" t="n">
+        <v>1</v>
+      </c>
+      <c r="M6" s="44" t="n">
+        <v>1</v>
+      </c>
+      <c r="N6" s="44" t="n">
+        <v>1</v>
+      </c>
+      <c r="O6" s="44" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="61" t="s">
+        <v>17</v>
+      </c>
+      <c r="B7" s="35" t="s">
+        <v>89</v>
+      </c>
+      <c r="C7" s="40" t="s">
+        <v>90</v>
+      </c>
+      <c r="D7" s="62" t="s">
+        <v>91</v>
+      </c>
+      <c r="E7" s="37" t="s">
+        <v>44</v>
+      </c>
+      <c r="F7" s="44" t="n">
+        <v>1</v>
+      </c>
+      <c r="G7" s="44" t="n">
+        <v>1</v>
+      </c>
+      <c r="H7" s="44" t="n">
+        <v>1</v>
+      </c>
+      <c r="I7" s="44" t="n">
+        <v>1</v>
+      </c>
+      <c r="J7" s="44" t="n">
+        <v>1</v>
+      </c>
+      <c r="K7" s="44" t="n">
+        <v>1</v>
+      </c>
+      <c r="L7" s="44" t="n">
+        <v>1</v>
+      </c>
+      <c r="M7" s="44" t="n">
+        <v>1</v>
+      </c>
+      <c r="N7" s="44" t="n">
+        <v>1</v>
+      </c>
+      <c r="O7" s="44" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="61" t="s">
+        <v>17</v>
+      </c>
+      <c r="B8" s="35" t="s">
         <v>95</v>
       </c>
-      <c r="E3" s="59" t="s">
+      <c r="C8" s="40" t="s">
         <v>96</v>
       </c>
-      <c r="F3" s="44" t="n">
-        <v>1</v>
-      </c>
-      <c r="G3" s="44" t="n">
-        <v>1</v>
-      </c>
-      <c r="H3" s="44" t="n">
-        <v>1</v>
-      </c>
-      <c r="I3" s="44" t="n">
-        <v>1</v>
-      </c>
-      <c r="J3" s="44" t="n">
-        <v>1</v>
-      </c>
-      <c r="K3" s="44" t="n">
-        <v>1</v>
-      </c>
-      <c r="L3" s="44" t="n">
-        <v>1</v>
-      </c>
-      <c r="M3" s="44" t="n">
-        <v>1</v>
-      </c>
-      <c r="N3" s="44" t="n">
-        <v>1</v>
-      </c>
-      <c r="O3" s="44" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="57" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" s="35" t="s">
+      <c r="D8" s="62" t="s">
+        <v>48</v>
+      </c>
+      <c r="E8" s="60" t="s">
+        <v>49</v>
+      </c>
+      <c r="F8" s="44" t="n">
+        <v>1</v>
+      </c>
+      <c r="G8" s="44" t="n">
+        <v>1</v>
+      </c>
+      <c r="H8" s="44" t="n">
+        <v>1</v>
+      </c>
+      <c r="I8" s="44" t="n">
+        <v>1</v>
+      </c>
+      <c r="J8" s="44" t="n">
+        <v>1</v>
+      </c>
+      <c r="K8" s="44" t="n">
+        <v>1</v>
+      </c>
+      <c r="L8" s="44" t="n">
+        <v>1</v>
+      </c>
+      <c r="M8" s="44" t="n">
+        <v>1</v>
+      </c>
+      <c r="N8" s="44" t="n">
+        <v>1</v>
+      </c>
+      <c r="O8" s="44" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="61" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9" s="35" t="s">
         <v>97</v>
       </c>
-      <c r="C4" s="40" t="s">
+      <c r="C9" s="40" t="s">
         <v>98</v>
       </c>
-      <c r="D4" s="59" t="s">
-        <v>52</v>
-      </c>
-      <c r="E4" s="59" t="s">
-        <v>96</v>
-      </c>
-      <c r="F4" s="44" t="n">
-        <v>1</v>
-      </c>
-      <c r="G4" s="44" t="n">
-        <v>1</v>
-      </c>
-      <c r="H4" s="44" t="n">
-        <v>1</v>
-      </c>
-      <c r="I4" s="44" t="n">
-        <v>1</v>
-      </c>
-      <c r="J4" s="44" t="n">
-        <v>1</v>
-      </c>
-      <c r="K4" s="44" t="n">
-        <v>1</v>
-      </c>
-      <c r="L4" s="44" t="n">
-        <v>1</v>
-      </c>
-      <c r="M4" s="44" t="n">
-        <v>1</v>
-      </c>
-      <c r="N4" s="44" t="n">
-        <v>1</v>
-      </c>
-      <c r="O4" s="44" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="57" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5" s="35" t="s">
+      <c r="D9" s="62" t="s">
         <v>99</v>
       </c>
-      <c r="C5" s="40" t="s">
+      <c r="E9" s="60" t="s">
+        <v>49</v>
+      </c>
+      <c r="F9" s="44" t="n">
+        <v>1</v>
+      </c>
+      <c r="G9" s="44" t="n">
+        <v>1</v>
+      </c>
+      <c r="H9" s="44" t="n">
+        <v>1</v>
+      </c>
+      <c r="I9" s="44" t="n">
+        <v>1</v>
+      </c>
+      <c r="J9" s="44" t="n">
+        <v>1</v>
+      </c>
+      <c r="K9" s="44" t="n">
+        <v>1</v>
+      </c>
+      <c r="L9" s="44" t="n">
+        <v>1</v>
+      </c>
+      <c r="M9" s="44" t="n">
+        <v>1</v>
+      </c>
+      <c r="N9" s="44" t="n">
+        <v>1</v>
+      </c>
+      <c r="O9" s="44" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="61" t="s">
+        <v>17</v>
+      </c>
+      <c r="B10" s="55" t="s">
         <v>100</v>
       </c>
-      <c r="D5" s="59" t="s">
-        <v>64</v>
-      </c>
-      <c r="E5" s="59" t="s">
-        <v>65</v>
-      </c>
-      <c r="F5" s="44" t="n">
-        <v>1</v>
-      </c>
-      <c r="G5" s="44" t="n">
-        <v>1</v>
-      </c>
-      <c r="H5" s="44" t="n">
-        <v>1</v>
-      </c>
-      <c r="I5" s="44" t="n">
-        <v>1</v>
-      </c>
-      <c r="J5" s="44" t="n">
-        <v>1</v>
-      </c>
-      <c r="K5" s="44" t="n">
-        <v>1</v>
-      </c>
-      <c r="L5" s="44" t="n">
-        <v>1</v>
-      </c>
-      <c r="M5" s="44" t="n">
-        <v>1</v>
-      </c>
-      <c r="N5" s="44" t="n">
-        <v>1</v>
-      </c>
-      <c r="O5" s="44" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="57" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6" s="35" t="s">
+      <c r="C10" s="40" t="s">
         <v>101</v>
       </c>
-      <c r="C6" s="40" t="s">
+      <c r="D10" s="55" t="s">
         <v>102</v>
       </c>
-      <c r="D6" s="59" t="s">
+      <c r="E10" s="55" t="s">
+        <v>60</v>
+      </c>
+      <c r="F10" s="44" t="n">
+        <v>1</v>
+      </c>
+      <c r="G10" s="44" t="n">
+        <v>1</v>
+      </c>
+      <c r="H10" s="44" t="n">
+        <v>1</v>
+      </c>
+      <c r="I10" s="44" t="n">
+        <v>1</v>
+      </c>
+      <c r="J10" s="44" t="n">
+        <v>1</v>
+      </c>
+      <c r="K10" s="44" t="n">
+        <v>1</v>
+      </c>
+      <c r="L10" s="44" t="n">
+        <v>1</v>
+      </c>
+      <c r="M10" s="44" t="n">
+        <v>1</v>
+      </c>
+      <c r="N10" s="44" t="n">
+        <v>1</v>
+      </c>
+      <c r="O10" s="44" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="61" t="s">
+        <v>17</v>
+      </c>
+      <c r="B11" s="55" t="s">
+        <v>103</v>
+      </c>
+      <c r="C11" s="40" t="s">
+        <v>104</v>
+      </c>
+      <c r="D11" s="55" t="s">
         <v>54</v>
       </c>
-      <c r="E6" s="59" t="s">
-        <v>96</v>
-      </c>
-      <c r="F6" s="44" t="n">
-        <v>0</v>
-      </c>
-      <c r="G6" s="44" t="n">
-        <v>0</v>
-      </c>
-      <c r="H6" s="44" t="n">
-        <v>0</v>
-      </c>
-      <c r="I6" s="44" t="n">
-        <v>1</v>
-      </c>
-      <c r="J6" s="44" t="n">
-        <v>1</v>
-      </c>
-      <c r="K6" s="44" t="n">
-        <v>1</v>
-      </c>
-      <c r="L6" s="44" t="n">
-        <v>0</v>
-      </c>
-      <c r="M6" s="44" t="n">
-        <v>0</v>
-      </c>
-      <c r="N6" s="44" t="n">
-        <v>0</v>
-      </c>
-      <c r="O6" s="44" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="60" t="s">
-        <v>17</v>
-      </c>
-      <c r="B7" s="35" t="s">
-        <v>103</v>
-      </c>
-      <c r="C7" s="40" t="s">
-        <v>104</v>
-      </c>
-      <c r="D7" s="59" t="s">
-        <v>105</v>
-      </c>
-      <c r="E7" s="59" t="s">
-        <v>106</v>
-      </c>
-      <c r="F7" s="44" t="n">
-        <v>1</v>
-      </c>
-      <c r="G7" s="44" t="n">
-        <v>1</v>
-      </c>
-      <c r="H7" s="44" t="n">
-        <v>1</v>
-      </c>
-      <c r="I7" s="44" t="n">
-        <v>1</v>
-      </c>
-      <c r="J7" s="44" t="n">
-        <v>1</v>
-      </c>
-      <c r="K7" s="44" t="n">
-        <v>1</v>
-      </c>
-      <c r="L7" s="44" t="n">
-        <v>1</v>
-      </c>
-      <c r="M7" s="44" t="n">
-        <v>1</v>
-      </c>
-      <c r="N7" s="44" t="n">
-        <v>1</v>
-      </c>
-      <c r="O7" s="44" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="60" t="s">
-        <v>17</v>
-      </c>
-      <c r="B8" s="35" t="s">
-        <v>107</v>
-      </c>
-      <c r="C8" s="40" t="s">
-        <v>108</v>
-      </c>
-      <c r="D8" s="61" t="s">
-        <v>109</v>
-      </c>
-      <c r="E8" s="59" t="s">
-        <v>106</v>
-      </c>
-      <c r="F8" s="44" t="n">
-        <v>1</v>
-      </c>
-      <c r="G8" s="44" t="n">
-        <v>1</v>
-      </c>
-      <c r="H8" s="44" t="n">
-        <v>1</v>
-      </c>
-      <c r="I8" s="44" t="n">
-        <v>1</v>
-      </c>
-      <c r="J8" s="44" t="n">
-        <v>1</v>
-      </c>
-      <c r="K8" s="44" t="n">
-        <v>1</v>
-      </c>
-      <c r="L8" s="44" t="n">
-        <v>1</v>
-      </c>
-      <c r="M8" s="44" t="n">
-        <v>1</v>
-      </c>
-      <c r="N8" s="44" t="n">
-        <v>1</v>
-      </c>
-      <c r="O8" s="44" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="60" t="s">
-        <v>17</v>
-      </c>
-      <c r="B9" s="35" t="s">
-        <v>93</v>
-      </c>
-      <c r="C9" s="40" t="s">
-        <v>94</v>
-      </c>
-      <c r="D9" s="61" t="s">
-        <v>48</v>
-      </c>
-      <c r="E9" s="59" t="s">
-        <v>96</v>
-      </c>
-      <c r="F9" s="44" t="n">
-        <v>1</v>
-      </c>
-      <c r="G9" s="44" t="n">
-        <v>1</v>
-      </c>
-      <c r="H9" s="44" t="n">
-        <v>1</v>
-      </c>
-      <c r="I9" s="44" t="n">
-        <v>1</v>
-      </c>
-      <c r="J9" s="44" t="n">
-        <v>1</v>
-      </c>
-      <c r="K9" s="44" t="n">
-        <v>1</v>
-      </c>
-      <c r="L9" s="44" t="n">
-        <v>1</v>
-      </c>
-      <c r="M9" s="44" t="n">
-        <v>1</v>
-      </c>
-      <c r="N9" s="44" t="n">
-        <v>1</v>
-      </c>
-      <c r="O9" s="44" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="60" t="s">
-        <v>17</v>
-      </c>
-      <c r="B10" s="35" t="s">
-        <v>97</v>
-      </c>
-      <c r="C10" s="40" t="s">
-        <v>98</v>
-      </c>
-      <c r="D10" s="61" t="s">
-        <v>110</v>
-      </c>
-      <c r="E10" s="59" t="s">
-        <v>96</v>
-      </c>
-      <c r="F10" s="44" t="n">
-        <v>1</v>
-      </c>
-      <c r="G10" s="44" t="n">
-        <v>1</v>
-      </c>
-      <c r="H10" s="44" t="n">
-        <v>1</v>
-      </c>
-      <c r="I10" s="44" t="n">
-        <v>1</v>
-      </c>
-      <c r="J10" s="44" t="n">
-        <v>1</v>
-      </c>
-      <c r="K10" s="44" t="n">
-        <v>1</v>
-      </c>
-      <c r="L10" s="44" t="n">
-        <v>1</v>
-      </c>
-      <c r="M10" s="44" t="n">
-        <v>1</v>
-      </c>
-      <c r="N10" s="44" t="n">
-        <v>1</v>
-      </c>
-      <c r="O10" s="44" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="60" t="s">
-        <v>17</v>
-      </c>
-      <c r="B11" s="54" t="s">
-        <v>111</v>
-      </c>
-      <c r="C11" s="40" t="s">
-        <v>112</v>
-      </c>
-      <c r="D11" s="54" t="s">
-        <v>113</v>
-      </c>
-      <c r="E11" s="54" t="s">
-        <v>60</v>
+      <c r="E11" s="55" t="s">
+        <v>49</v>
       </c>
       <c r="F11" s="44" t="n">
         <v>1</v>
@@ -4794,59 +4520,12 @@
         <v>1</v>
       </c>
       <c r="O11" s="44" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="60" t="s">
-        <v>17</v>
-      </c>
-      <c r="B12" s="54" t="s">
-        <v>101</v>
-      </c>
-      <c r="C12" s="40" t="s">
-        <v>102</v>
-      </c>
-      <c r="D12" s="54" t="s">
-        <v>54</v>
-      </c>
-      <c r="E12" s="54" t="s">
-        <v>96</v>
-      </c>
-      <c r="F12" s="44" t="n">
-        <v>1</v>
-      </c>
-      <c r="G12" s="44" t="n">
-        <v>1</v>
-      </c>
-      <c r="H12" s="44" t="n">
-        <v>1</v>
-      </c>
-      <c r="I12" s="44" t="n">
-        <v>1</v>
-      </c>
-      <c r="J12" s="44" t="n">
-        <v>1</v>
-      </c>
-      <c r="K12" s="44" t="n">
-        <v>1</v>
-      </c>
-      <c r="L12" s="44" t="n">
-        <v>1</v>
-      </c>
-      <c r="M12" s="44" t="n">
-        <v>1</v>
-      </c>
-      <c r="N12" s="44" t="n">
-        <v>1</v>
-      </c>
-      <c r="O12" s="44" t="n">
         <v>1</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="F1:O1"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
@@ -4864,23 +4543,23 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:O18"/>
+  <dimension ref="A1:O65536"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="E1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B11" activeCellId="0" sqref="B11"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E15" activeCellId="0" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="62" width="33.1781376518219"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="62" width="45.7813765182186"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="62" width="20.0728744939271"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="62" width="18.6113360323887"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="62" width="17.502024291498"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="62" width="11.5060728744939"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="62" width="11.6315789473684"/>
-    <col collapsed="false" hidden="false" max="15" min="8" style="62" width="9.30364372469636"/>
-    <col collapsed="false" hidden="false" max="1025" min="16" style="63" width="9.30364372469636"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="63" width="33.914979757085"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="63" width="46.8906882591093"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="63" width="20.5668016194332"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="63" width="19.0971659919028"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="63" width="17.8744939271255"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="63" width="11.753036437247"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="63" width="11.8744939271255"/>
+    <col collapsed="false" hidden="false" max="15" min="8" style="63" width="9.4251012145749"/>
+    <col collapsed="false" hidden="false" max="1025" min="16" style="64" width="9.4251012145749"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4902,20 +4581,20 @@
       <c r="N1" s="0"/>
       <c r="O1" s="0"/>
     </row>
-    <row r="2" customFormat="false" ht="63" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="56" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="56" t="s">
+    <row r="2" customFormat="false" ht="56.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="57" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="57" t="s">
         <v>28</v>
       </c>
-      <c r="C2" s="56" t="s">
+      <c r="C2" s="57" t="s">
         <v>29</v>
       </c>
-      <c r="D2" s="56" t="s">
+      <c r="D2" s="57" t="s">
         <v>30</v>
       </c>
-      <c r="E2" s="56" t="s">
+      <c r="E2" s="57" t="s">
         <v>31</v>
       </c>
       <c r="F2" s="42" t="s">
@@ -4949,758 +4628,712 @@
         <v>41</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="25.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="57" t="s">
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="58" t="s">
         <v>19</v>
       </c>
-      <c r="B3" s="64" t="s">
+      <c r="B3" s="65" t="s">
         <v>42</v>
       </c>
-      <c r="C3" s="65" t="n">
+      <c r="C3" s="66" t="n">
         <v>9006968006093</v>
       </c>
-      <c r="D3" s="66" t="s">
+      <c r="D3" s="67" t="s">
         <v>43</v>
       </c>
-      <c r="E3" s="66" t="s">
+      <c r="E3" s="67" t="s">
         <v>44</v>
       </c>
-      <c r="F3" s="67" t="n">
+      <c r="F3" s="68" t="n">
         <v>3</v>
       </c>
-      <c r="G3" s="67" t="n">
+      <c r="G3" s="68" t="n">
         <v>3</v>
       </c>
-      <c r="H3" s="67" t="n">
-        <v>1</v>
-      </c>
-      <c r="I3" s="67" t="n">
+      <c r="H3" s="68" t="n">
+        <v>1</v>
+      </c>
+      <c r="I3" s="68" t="n">
         <v>2</v>
       </c>
-      <c r="J3" s="67" t="n">
+      <c r="J3" s="68" t="n">
         <v>2</v>
       </c>
-      <c r="K3" s="67" t="n">
-        <v>1</v>
-      </c>
-      <c r="L3" s="67" t="n">
+      <c r="K3" s="68" t="n">
+        <v>1</v>
+      </c>
+      <c r="L3" s="68" t="n">
         <v>2</v>
       </c>
-      <c r="M3" s="67" t="n">
+      <c r="M3" s="68" t="n">
         <v>2</v>
       </c>
-      <c r="N3" s="67" t="n">
-        <v>1</v>
-      </c>
-      <c r="O3" s="67" t="n">
+      <c r="N3" s="68" t="n">
+        <v>1</v>
+      </c>
+      <c r="O3" s="68" t="n">
         <v>2</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="25.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="57" t="s">
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="58" t="s">
         <v>19</v>
       </c>
-      <c r="B4" s="64" t="s">
+      <c r="B4" s="65" t="s">
         <v>45</v>
       </c>
-      <c r="C4" s="65" t="n">
+      <c r="C4" s="66" t="n">
         <v>9006968011905</v>
       </c>
-      <c r="D4" s="66" t="s">
+      <c r="D4" s="67" t="s">
         <v>43</v>
       </c>
-      <c r="E4" s="66" t="s">
+      <c r="E4" s="67" t="s">
         <v>44</v>
       </c>
-      <c r="F4" s="67" t="n">
+      <c r="F4" s="68" t="n">
         <v>2</v>
       </c>
-      <c r="G4" s="67" t="n">
+      <c r="G4" s="68" t="n">
         <v>2</v>
       </c>
-      <c r="H4" s="67" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" s="67" t="n">
+      <c r="H4" s="68" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" s="68" t="n">
         <v>2</v>
       </c>
-      <c r="J4" s="67" t="n">
+      <c r="J4" s="68" t="n">
         <v>2</v>
       </c>
-      <c r="K4" s="67" t="n">
-        <v>0</v>
-      </c>
-      <c r="L4" s="67" t="n">
-        <v>1</v>
-      </c>
-      <c r="M4" s="67" t="n">
-        <v>1</v>
-      </c>
-      <c r="N4" s="67" t="n">
-        <v>0</v>
-      </c>
-      <c r="O4" s="67" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="25.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="57" t="s">
+      <c r="K4" s="68" t="n">
+        <v>0</v>
+      </c>
+      <c r="L4" s="68" t="n">
+        <v>1</v>
+      </c>
+      <c r="M4" s="68" t="n">
+        <v>1</v>
+      </c>
+      <c r="N4" s="68" t="n">
+        <v>0</v>
+      </c>
+      <c r="O4" s="68" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="58" t="s">
         <v>19</v>
       </c>
-      <c r="B5" s="62" t="s">
+      <c r="B5" s="63" t="s">
         <v>46</v>
       </c>
-      <c r="C5" s="68" t="n">
+      <c r="C5" s="69" t="n">
         <v>9006968007793</v>
       </c>
-      <c r="D5" s="62" t="s">
+      <c r="D5" s="63" t="s">
         <v>43</v>
       </c>
-      <c r="E5" s="62" t="s">
+      <c r="E5" s="67" t="s">
         <v>44</v>
       </c>
-      <c r="F5" s="67" t="n">
+      <c r="F5" s="68" t="n">
         <v>3</v>
       </c>
-      <c r="G5" s="67" t="n">
+      <c r="G5" s="68" t="n">
         <v>3</v>
       </c>
-      <c r="H5" s="67" t="n">
-        <v>1</v>
-      </c>
-      <c r="I5" s="67" t="n">
+      <c r="H5" s="68" t="n">
+        <v>1</v>
+      </c>
+      <c r="I5" s="68" t="n">
         <v>2</v>
       </c>
-      <c r="J5" s="67" t="n">
+      <c r="J5" s="68" t="n">
         <v>2</v>
       </c>
-      <c r="K5" s="67" t="n">
-        <v>1</v>
-      </c>
-      <c r="L5" s="67" t="n">
+      <c r="K5" s="68" t="n">
+        <v>1</v>
+      </c>
+      <c r="L5" s="68" t="n">
         <v>2</v>
       </c>
-      <c r="M5" s="67" t="n">
+      <c r="M5" s="68" t="n">
         <v>2</v>
       </c>
-      <c r="N5" s="67" t="n">
-        <v>1</v>
-      </c>
-      <c r="O5" s="67" t="n">
+      <c r="N5" s="68" t="n">
+        <v>1</v>
+      </c>
+      <c r="O5" s="68" t="n">
         <v>2</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="25.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="57" t="s">
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="58" t="s">
         <v>19</v>
       </c>
-      <c r="B6" s="62" t="s">
+      <c r="B6" s="63" t="s">
         <v>47</v>
       </c>
-      <c r="C6" s="68" t="n">
+      <c r="C6" s="69" t="n">
         <v>3582910031185</v>
       </c>
-      <c r="D6" s="62" t="s">
+      <c r="D6" s="63" t="s">
         <v>48</v>
       </c>
-      <c r="E6" s="62" t="s">
+      <c r="E6" s="63" t="s">
         <v>49</v>
       </c>
-      <c r="F6" s="67" t="n">
+      <c r="F6" s="68" t="n">
         <v>2</v>
       </c>
-      <c r="G6" s="67" t="n">
+      <c r="G6" s="68" t="n">
         <v>2</v>
       </c>
-      <c r="H6" s="67" t="n">
-        <v>1</v>
-      </c>
-      <c r="I6" s="67" t="n">
+      <c r="H6" s="68" t="n">
+        <v>1</v>
+      </c>
+      <c r="I6" s="68" t="n">
         <v>2</v>
       </c>
-      <c r="J6" s="67" t="n">
+      <c r="J6" s="68" t="n">
         <v>2</v>
       </c>
-      <c r="K6" s="67" t="n">
-        <v>1</v>
-      </c>
-      <c r="L6" s="67" t="n">
-        <v>1</v>
-      </c>
-      <c r="M6" s="67" t="n">
-        <v>1</v>
-      </c>
-      <c r="N6" s="67" t="n">
-        <v>1</v>
-      </c>
-      <c r="O6" s="67" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="25.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="57" t="s">
+      <c r="K6" s="68" t="n">
+        <v>1</v>
+      </c>
+      <c r="L6" s="68" t="n">
+        <v>1</v>
+      </c>
+      <c r="M6" s="68" t="n">
+        <v>1</v>
+      </c>
+      <c r="N6" s="68" t="n">
+        <v>1</v>
+      </c>
+      <c r="O6" s="68" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="58" t="s">
         <v>19</v>
       </c>
-      <c r="B7" s="62" t="s">
+      <c r="B7" s="63" t="s">
         <v>50</v>
       </c>
-      <c r="C7" s="68" t="n">
+      <c r="C7" s="69" t="n">
         <v>3582910079149</v>
       </c>
-      <c r="D7" s="62" t="s">
+      <c r="D7" s="63" t="s">
         <v>48</v>
       </c>
-      <c r="E7" s="62" t="s">
+      <c r="E7" s="63" t="s">
         <v>49</v>
       </c>
-      <c r="F7" s="67" t="n">
+      <c r="F7" s="68" t="n">
         <v>2</v>
       </c>
-      <c r="G7" s="67" t="n">
+      <c r="G7" s="68" t="n">
         <v>2</v>
       </c>
-      <c r="H7" s="67" t="n">
-        <v>0</v>
-      </c>
-      <c r="I7" s="67" t="n">
+      <c r="H7" s="68" t="n">
+        <v>0</v>
+      </c>
+      <c r="I7" s="68" t="n">
         <v>2</v>
       </c>
-      <c r="J7" s="67" t="n">
+      <c r="J7" s="68" t="n">
         <v>2</v>
       </c>
-      <c r="K7" s="67" t="n">
-        <v>0</v>
-      </c>
-      <c r="L7" s="67" t="n">
-        <v>1</v>
-      </c>
-      <c r="M7" s="67" t="n">
-        <v>1</v>
-      </c>
-      <c r="N7" s="67" t="n">
-        <v>0</v>
-      </c>
-      <c r="O7" s="67" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="25.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="57" t="s">
+      <c r="K7" s="68" t="n">
+        <v>0</v>
+      </c>
+      <c r="L7" s="68" t="n">
+        <v>1</v>
+      </c>
+      <c r="M7" s="68" t="n">
+        <v>1</v>
+      </c>
+      <c r="N7" s="68" t="n">
+        <v>0</v>
+      </c>
+      <c r="O7" s="68" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="58" t="s">
         <v>19</v>
       </c>
-      <c r="B8" s="62" t="s">
+      <c r="B8" s="63" t="s">
         <v>51</v>
       </c>
-      <c r="C8" s="68" t="n">
+      <c r="C8" s="69" t="n">
         <v>4030113618119</v>
       </c>
-      <c r="D8" s="62" t="s">
+      <c r="D8" s="63" t="s">
         <v>52</v>
       </c>
-      <c r="E8" s="62" t="s">
+      <c r="E8" s="63" t="s">
         <v>49</v>
       </c>
-      <c r="F8" s="67" t="n">
+      <c r="F8" s="68" t="n">
         <v>6</v>
       </c>
-      <c r="G8" s="67" t="n">
+      <c r="G8" s="68" t="n">
         <v>6</v>
       </c>
-      <c r="H8" s="67" t="n">
+      <c r="H8" s="68" t="n">
         <v>4</v>
       </c>
-      <c r="I8" s="67" t="n">
+      <c r="I8" s="68" t="n">
         <v>2</v>
       </c>
-      <c r="J8" s="67" t="n">
+      <c r="J8" s="68" t="n">
         <v>2</v>
       </c>
-      <c r="K8" s="67" t="n">
-        <v>1</v>
-      </c>
-      <c r="L8" s="67" t="n">
+      <c r="K8" s="68" t="n">
+        <v>1</v>
+      </c>
+      <c r="L8" s="68" t="n">
         <v>4</v>
       </c>
-      <c r="M8" s="67" t="n">
+      <c r="M8" s="68" t="n">
         <v>4</v>
       </c>
-      <c r="N8" s="67" t="n">
-        <v>1</v>
-      </c>
-      <c r="O8" s="67" t="n">
+      <c r="N8" s="68" t="n">
+        <v>1</v>
+      </c>
+      <c r="O8" s="68" t="n">
         <v>2</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="25.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="57" t="s">
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="58" t="s">
         <v>19</v>
       </c>
-      <c r="B9" s="62" t="s">
+      <c r="B9" s="63" t="s">
         <v>53</v>
       </c>
-      <c r="C9" s="68" t="n">
+      <c r="C9" s="69" t="n">
         <v>8901083000470</v>
       </c>
-      <c r="D9" s="62" t="s">
+      <c r="D9" s="63" t="s">
         <v>54</v>
       </c>
-      <c r="E9" s="62" t="s">
+      <c r="E9" s="63" t="s">
         <v>49</v>
       </c>
-      <c r="F9" s="67" t="n">
+      <c r="F9" s="68" t="n">
         <v>4</v>
       </c>
-      <c r="G9" s="67" t="n">
+      <c r="G9" s="68" t="n">
         <v>4</v>
       </c>
-      <c r="H9" s="67" t="n">
+      <c r="H9" s="68" t="n">
         <v>2</v>
       </c>
-      <c r="I9" s="67" t="n">
+      <c r="I9" s="68" t="n">
         <v>2</v>
       </c>
-      <c r="J9" s="67" t="n">
+      <c r="J9" s="68" t="n">
         <v>2</v>
       </c>
-      <c r="K9" s="67" t="n">
-        <v>1</v>
-      </c>
-      <c r="L9" s="67" t="n">
-        <v>1</v>
-      </c>
-      <c r="M9" s="67" t="n">
-        <v>1</v>
-      </c>
-      <c r="N9" s="67" t="n">
-        <v>1</v>
-      </c>
-      <c r="O9" s="67" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="25.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="57" t="s">
+      <c r="K9" s="68" t="n">
+        <v>1</v>
+      </c>
+      <c r="L9" s="68" t="n">
+        <v>1</v>
+      </c>
+      <c r="M9" s="68" t="n">
+        <v>1</v>
+      </c>
+      <c r="N9" s="68" t="n">
+        <v>1</v>
+      </c>
+      <c r="O9" s="68" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="58" t="s">
         <v>19</v>
       </c>
-      <c r="B10" s="62" t="s">
+      <c r="B10" s="63" t="s">
         <v>55</v>
       </c>
-      <c r="C10" s="68" t="n">
+      <c r="C10" s="69" t="n">
         <v>4030113647256</v>
       </c>
-      <c r="D10" s="62" t="s">
+      <c r="D10" s="63" t="s">
         <v>56</v>
       </c>
-      <c r="E10" s="62" t="s">
+      <c r="E10" s="63" t="s">
         <v>44</v>
       </c>
-      <c r="F10" s="67" t="n">
+      <c r="F10" s="68" t="n">
         <v>3</v>
       </c>
-      <c r="G10" s="67" t="n">
+      <c r="G10" s="68" t="n">
         <v>3</v>
       </c>
-      <c r="H10" s="67" t="n">
-        <v>1</v>
-      </c>
-      <c r="I10" s="67" t="n">
+      <c r="H10" s="68" t="n">
+        <v>1</v>
+      </c>
+      <c r="I10" s="68" t="n">
         <v>2</v>
       </c>
-      <c r="J10" s="67" t="n">
+      <c r="J10" s="68" t="n">
         <v>2</v>
       </c>
-      <c r="K10" s="67" t="n">
-        <v>1</v>
-      </c>
-      <c r="L10" s="67" t="n">
+      <c r="K10" s="68" t="n">
+        <v>1</v>
+      </c>
+      <c r="L10" s="68" t="n">
         <v>2</v>
       </c>
-      <c r="M10" s="67" t="n">
+      <c r="M10" s="68" t="n">
         <v>2</v>
       </c>
-      <c r="N10" s="67" t="n">
-        <v>1</v>
-      </c>
-      <c r="O10" s="67" t="n">
+      <c r="N10" s="68" t="n">
+        <v>1</v>
+      </c>
+      <c r="O10" s="68" t="n">
         <v>2</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="25.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="57" t="s">
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="58" t="s">
         <v>19</v>
       </c>
-      <c r="B11" s="62" t="s">
+      <c r="B11" s="63" t="s">
         <v>57</v>
       </c>
-      <c r="C11" s="68" t="n">
+      <c r="C11" s="69" t="n">
         <v>3582910068693</v>
       </c>
-      <c r="D11" s="62" t="s">
+      <c r="D11" s="63" t="s">
         <v>56</v>
       </c>
-      <c r="E11" s="62" t="s">
+      <c r="E11" s="63" t="s">
         <v>44</v>
       </c>
-      <c r="F11" s="67" t="n">
+      <c r="F11" s="68" t="n">
         <v>3</v>
       </c>
-      <c r="G11" s="67" t="n">
+      <c r="G11" s="68" t="n">
         <v>3</v>
       </c>
-      <c r="H11" s="67" t="n">
-        <v>1</v>
-      </c>
-      <c r="I11" s="67" t="n">
+      <c r="H11" s="68" t="n">
+        <v>1</v>
+      </c>
+      <c r="I11" s="68" t="n">
         <v>2</v>
       </c>
-      <c r="J11" s="67" t="n">
+      <c r="J11" s="68" t="n">
         <v>2</v>
       </c>
-      <c r="K11" s="67" t="n">
-        <v>1</v>
-      </c>
-      <c r="L11" s="67" t="n">
+      <c r="K11" s="68" t="n">
+        <v>1</v>
+      </c>
+      <c r="L11" s="68" t="n">
         <v>2</v>
       </c>
-      <c r="M11" s="67" t="n">
+      <c r="M11" s="68" t="n">
         <v>2</v>
       </c>
-      <c r="N11" s="67" t="n">
-        <v>1</v>
-      </c>
-      <c r="O11" s="67" t="n">
+      <c r="N11" s="68" t="n">
+        <v>1</v>
+      </c>
+      <c r="O11" s="68" t="n">
         <v>2</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="25.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="57" t="s">
+    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="58" t="s">
         <v>19</v>
       </c>
-      <c r="B12" s="62" t="s">
+      <c r="B12" s="63" t="s">
         <v>58</v>
       </c>
-      <c r="C12" s="68" t="n">
+      <c r="C12" s="69" t="n">
         <v>3582910013525</v>
       </c>
-      <c r="D12" s="62" t="s">
+      <c r="D12" s="63" t="s">
         <v>59</v>
       </c>
-      <c r="E12" s="62" t="s">
+      <c r="E12" s="63" t="s">
         <v>60</v>
       </c>
-      <c r="F12" s="67" t="n">
+      <c r="F12" s="68" t="n">
         <v>4</v>
       </c>
-      <c r="G12" s="67" t="n">
+      <c r="G12" s="68" t="n">
         <v>4</v>
       </c>
-      <c r="H12" s="67" t="n">
+      <c r="H12" s="68" t="n">
         <v>2</v>
       </c>
-      <c r="I12" s="67" t="n">
+      <c r="I12" s="68" t="n">
         <v>2</v>
       </c>
-      <c r="J12" s="67" t="n">
+      <c r="J12" s="68" t="n">
         <v>2</v>
       </c>
-      <c r="K12" s="67" t="n">
-        <v>1</v>
-      </c>
-      <c r="L12" s="67" t="n">
+      <c r="K12" s="68" t="n">
+        <v>1</v>
+      </c>
+      <c r="L12" s="68" t="n">
         <v>2</v>
       </c>
-      <c r="M12" s="67" t="n">
+      <c r="M12" s="68" t="n">
         <v>2</v>
       </c>
-      <c r="N12" s="67" t="n">
-        <v>1</v>
-      </c>
-      <c r="O12" s="67" t="n">
+      <c r="N12" s="68" t="n">
+        <v>1</v>
+      </c>
+      <c r="O12" s="68" t="n">
         <v>2</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="25.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="57" t="s">
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="58" t="s">
         <v>19</v>
       </c>
-      <c r="B13" s="62" t="s">
+      <c r="B13" s="63" t="s">
         <v>61</v>
       </c>
-      <c r="C13" s="68" t="n">
+      <c r="C13" s="69" t="n">
         <v>3582910052203</v>
       </c>
-      <c r="D13" s="62" t="s">
+      <c r="D13" s="63" t="s">
         <v>59</v>
       </c>
-      <c r="E13" s="62" t="s">
+      <c r="E13" s="63" t="s">
         <v>60</v>
       </c>
-      <c r="F13" s="67" t="n">
+      <c r="F13" s="68" t="n">
         <v>2</v>
       </c>
-      <c r="G13" s="67" t="n">
+      <c r="G13" s="68" t="n">
         <v>2</v>
       </c>
-      <c r="H13" s="67" t="n">
-        <v>0</v>
-      </c>
-      <c r="I13" s="67" t="n">
+      <c r="H13" s="68" t="n">
+        <v>0</v>
+      </c>
+      <c r="I13" s="68" t="n">
         <v>2</v>
       </c>
-      <c r="J13" s="67" t="n">
+      <c r="J13" s="68" t="n">
         <v>2</v>
       </c>
-      <c r="K13" s="67" t="n">
-        <v>0</v>
-      </c>
-      <c r="L13" s="67" t="n">
-        <v>1</v>
-      </c>
-      <c r="M13" s="67" t="n">
-        <v>1</v>
-      </c>
-      <c r="N13" s="67" t="n">
-        <v>0</v>
-      </c>
-      <c r="O13" s="67" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="25.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="57" t="s">
+      <c r="K13" s="68" t="n">
+        <v>0</v>
+      </c>
+      <c r="L13" s="68" t="n">
+        <v>1</v>
+      </c>
+      <c r="M13" s="68" t="n">
+        <v>1</v>
+      </c>
+      <c r="N13" s="68" t="n">
+        <v>0</v>
+      </c>
+      <c r="O13" s="68" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="58" t="s">
         <v>19</v>
       </c>
-      <c r="B14" s="62" t="s">
+      <c r="B14" s="63" t="s">
         <v>62</v>
       </c>
-      <c r="C14" s="68" t="n">
+      <c r="C14" s="69" t="n">
         <v>3582910026006</v>
       </c>
-      <c r="D14" s="62" t="s">
+      <c r="D14" s="63" t="s">
         <v>59</v>
       </c>
-      <c r="E14" s="62" t="s">
+      <c r="E14" s="63" t="s">
         <v>60</v>
       </c>
-      <c r="F14" s="67" t="n">
+      <c r="F14" s="68" t="n">
         <v>2</v>
       </c>
-      <c r="G14" s="67" t="n">
+      <c r="G14" s="68" t="n">
         <v>2</v>
       </c>
-      <c r="H14" s="67" t="n">
-        <v>0</v>
-      </c>
-      <c r="I14" s="67" t="n">
+      <c r="H14" s="68" t="n">
+        <v>0</v>
+      </c>
+      <c r="I14" s="68" t="n">
         <v>2</v>
       </c>
-      <c r="J14" s="67" t="n">
+      <c r="J14" s="68" t="n">
         <v>2</v>
       </c>
-      <c r="K14" s="67" t="n">
-        <v>0</v>
-      </c>
-      <c r="L14" s="67" t="n">
-        <v>1</v>
-      </c>
-      <c r="M14" s="67" t="n">
-        <v>1</v>
-      </c>
-      <c r="N14" s="67" t="n">
-        <v>0</v>
-      </c>
-      <c r="O14" s="67" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="69" t="s">
+      <c r="K14" s="68" t="n">
+        <v>0</v>
+      </c>
+      <c r="L14" s="68" t="n">
+        <v>1</v>
+      </c>
+      <c r="M14" s="68" t="n">
+        <v>1</v>
+      </c>
+      <c r="N14" s="68" t="n">
+        <v>0</v>
+      </c>
+      <c r="O14" s="68" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="70" t="s">
         <v>12</v>
       </c>
-      <c r="B15" s="62" t="s">
-        <v>114</v>
-      </c>
-      <c r="C15" s="68" t="n">
-        <v>3582910079149</v>
-      </c>
-      <c r="D15" s="62" t="s">
-        <v>48</v>
-      </c>
-      <c r="E15" s="62" t="s">
-        <v>49</v>
-      </c>
-      <c r="F15" s="67" t="n">
+      <c r="B15" s="71" t="s">
+        <v>42</v>
+      </c>
+      <c r="C15" s="71" t="n">
+        <v>9006968006093</v>
+      </c>
+      <c r="D15" s="69" t="s">
+        <v>43</v>
+      </c>
+      <c r="E15" s="63" t="s">
+        <v>44</v>
+      </c>
+      <c r="F15" s="68" t="n">
+        <v>6</v>
+      </c>
+      <c r="G15" s="68" t="n">
+        <v>6</v>
+      </c>
+      <c r="H15" s="68" t="n">
+        <v>5</v>
+      </c>
+      <c r="I15" s="68" t="n">
+        <v>6</v>
+      </c>
+      <c r="J15" s="68" t="n">
+        <v>6</v>
+      </c>
+      <c r="K15" s="68" t="n">
+        <v>5</v>
+      </c>
+      <c r="L15" s="68" t="n">
         <v>4</v>
       </c>
-      <c r="G15" s="67" t="n">
+      <c r="M15" s="68" t="n">
         <v>4</v>
       </c>
-      <c r="H15" s="67" t="n">
-        <v>2</v>
-      </c>
-      <c r="I15" s="67" t="n">
+      <c r="N15" s="68" t="n">
+        <v>3</v>
+      </c>
+      <c r="O15" s="68" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="70" t="s">
+        <v>12</v>
+      </c>
+      <c r="B16" s="71" t="s">
+        <v>55</v>
+      </c>
+      <c r="C16" s="71" t="n">
+        <v>4030113647256</v>
+      </c>
+      <c r="D16" s="69" t="s">
+        <v>56</v>
+      </c>
+      <c r="E16" s="72" t="s">
+        <v>44</v>
+      </c>
+      <c r="F16" s="68" t="n">
+        <v>6</v>
+      </c>
+      <c r="G16" s="68" t="n">
+        <v>6</v>
+      </c>
+      <c r="H16" s="68" t="n">
+        <v>5</v>
+      </c>
+      <c r="I16" s="68" t="n">
+        <v>6</v>
+      </c>
+      <c r="J16" s="68" t="n">
+        <v>6</v>
+      </c>
+      <c r="K16" s="68" t="n">
+        <v>5</v>
+      </c>
+      <c r="L16" s="68" t="n">
         <v>4</v>
       </c>
-      <c r="J15" s="67" t="n">
+      <c r="M16" s="68" t="n">
         <v>4</v>
       </c>
-      <c r="K15" s="67" t="n">
-        <v>2</v>
-      </c>
-      <c r="L15" s="67" t="n">
-        <v>2</v>
-      </c>
-      <c r="M15" s="67" t="n">
-        <v>2</v>
-      </c>
-      <c r="N15" s="67" t="n">
-        <v>2</v>
-      </c>
-      <c r="O15" s="67" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="69" t="s">
+      <c r="N16" s="68" t="n">
+        <v>3</v>
+      </c>
+      <c r="O16" s="68" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="70" t="s">
         <v>12</v>
       </c>
-      <c r="B16" s="62" t="s">
-        <v>51</v>
-      </c>
-      <c r="C16" s="68" t="n">
-        <v>4030113618119</v>
-      </c>
-      <c r="D16" s="62" t="s">
-        <v>52</v>
-      </c>
-      <c r="E16" s="62" t="s">
-        <v>49</v>
-      </c>
-      <c r="F16" s="67" t="n">
-        <v>8</v>
-      </c>
-      <c r="G16" s="67" t="n">
-        <v>8</v>
-      </c>
-      <c r="H16" s="67" t="n">
+      <c r="B17" s="71" t="s">
+        <v>105</v>
+      </c>
+      <c r="C17" s="71" t="n">
+        <v>3582910065432</v>
+      </c>
+      <c r="D17" s="71" t="s">
+        <v>94</v>
+      </c>
+      <c r="E17" s="63" t="s">
+        <v>65</v>
+      </c>
+      <c r="F17" s="68" t="n">
         <v>4</v>
       </c>
-      <c r="I16" s="67" t="n">
-        <v>8</v>
-      </c>
-      <c r="J16" s="67" t="n">
-        <v>8</v>
-      </c>
-      <c r="K16" s="67" t="n">
+      <c r="G17" s="68" t="n">
         <v>4</v>
       </c>
-      <c r="L16" s="67" t="n">
-        <v>6</v>
-      </c>
-      <c r="M16" s="67" t="n">
-        <v>6</v>
-      </c>
-      <c r="N16" s="67" t="n">
+      <c r="H17" s="68" t="n">
         <v>4</v>
       </c>
-      <c r="O16" s="67" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="69" t="s">
-        <v>12</v>
-      </c>
-      <c r="B17" s="62" t="s">
-        <v>53</v>
-      </c>
-      <c r="C17" s="68" t="n">
-        <v>8901083000470</v>
-      </c>
-      <c r="D17" s="62" t="s">
-        <v>54</v>
-      </c>
-      <c r="E17" s="62" t="s">
-        <v>49</v>
-      </c>
-      <c r="F17" s="67" t="n">
-        <v>0</v>
-      </c>
-      <c r="G17" s="67" t="n">
-        <v>0</v>
-      </c>
-      <c r="H17" s="67" t="n">
-        <v>0</v>
-      </c>
-      <c r="I17" s="67" t="n">
+      <c r="I17" s="68" t="n">
         <v>4</v>
       </c>
-      <c r="J17" s="67" t="n">
+      <c r="J17" s="68" t="n">
         <v>4</v>
       </c>
-      <c r="K17" s="67" t="n">
-        <v>2</v>
-      </c>
-      <c r="L17" s="67" t="n">
-        <v>0</v>
-      </c>
-      <c r="M17" s="67" t="n">
-        <v>0</v>
-      </c>
-      <c r="N17" s="67" t="n">
-        <v>0</v>
-      </c>
-      <c r="O17" s="67" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="69" t="s">
-        <v>12</v>
-      </c>
-      <c r="B18" s="62" t="s">
-        <v>63</v>
-      </c>
-      <c r="C18" s="68" t="n">
-        <v>3582910065432</v>
-      </c>
-      <c r="D18" s="62" t="s">
-        <v>64</v>
-      </c>
-      <c r="E18" s="62" t="s">
-        <v>65</v>
-      </c>
-      <c r="F18" s="67" t="n">
+      <c r="K17" s="68" t="n">
         <v>4</v>
       </c>
-      <c r="G18" s="67" t="n">
-        <v>4</v>
-      </c>
-      <c r="H18" s="67" t="n">
-        <v>4</v>
-      </c>
-      <c r="I18" s="67" t="n">
-        <v>4</v>
-      </c>
-      <c r="J18" s="67" t="n">
-        <v>4</v>
-      </c>
-      <c r="K18" s="67" t="n">
-        <v>4</v>
-      </c>
-      <c r="L18" s="67" t="n">
+      <c r="L17" s="68" t="n">
         <v>3</v>
       </c>
-      <c r="M18" s="67" t="n">
+      <c r="M17" s="68" t="n">
         <v>3</v>
       </c>
-      <c r="N18" s="67" t="n">
+      <c r="N17" s="68" t="n">
         <v>3</v>
       </c>
-      <c r="O18" s="67" t="n">
+      <c r="O17" s="68" t="n">
         <v>3</v>
       </c>
     </row>
+    <row r="1048576" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="F1:G1"/>

--- a/Projects/SANOFIKZ/Data/Template.xlsx
+++ b/Projects/SANOFIKZ/Data/Template.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="1" activeTab="4"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="1" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="KPIs" sheetId="1" state="hidden" r:id="rId2"/>
@@ -518,7 +518,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="373" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="465" uniqueCount="110">
   <si>
     <t xml:space="preserve">KPI Name</t>
   </si>
@@ -742,6 +742,60 @@
     <t xml:space="preserve">BTC  B</t>
   </si>
   <si>
+    <t xml:space="preserve">Lasolvan syrup 30 MG/100ML</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lasolvan tabs #20 30mg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Enterogermina capsule #12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dulcolax</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dulcolax Pico 7,5mg 30ml</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dulcolax Pico 7,5mg 15ml</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Maalox</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Maalox suspension  15ml #30</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Maalox 400 mg #20</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bronchicum elixir 5mg/100ml </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pinosol</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pinosol drops 3,7mg/10ml</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lasorin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lasorin nasal spray 1,18mg/10ml</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vitamin E</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vitamin E 400mg tabs.#30</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No-Spa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No-spa 40 tabs. #24</t>
+  </si>
+  <si>
     <t xml:space="preserve">Lasolvan Shelf Talker</t>
   </si>
   <si>
@@ -764,9 +818,6 @@
   </si>
   <si>
     <t xml:space="preserve">KA-STS-03</t>
-  </si>
-  <si>
-    <t xml:space="preserve">No-Spa</t>
   </si>
   <si>
     <t xml:space="preserve">Enterogermina Shelf Talker</t>
@@ -1142,7 +1193,7 @@
       <protection locked="true" hidden="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="72">
+  <cellXfs count="76">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1364,6 +1415,22 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="166" fontId="8" fillId="6" borderId="5" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="9" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="9" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -3179,13 +3246,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:Q2"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D10" activeCellId="0" sqref="D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8"/>
+  <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
     <col collapsed="false" hidden="false" max="3" min="1" style="53" width="20.6720647773279"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="53" width="36.9554655870445"/>
@@ -3266,6 +3333,1225 @@
       </c>
       <c r="Q2" s="33" t="s">
         <v>46</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="56" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" s="37" t="s">
+        <v>48</v>
+      </c>
+      <c r="C3" s="38" t="s">
+        <v>49</v>
+      </c>
+      <c r="D3" s="57" t="s">
+        <v>47</v>
+      </c>
+      <c r="E3" s="58" t="n">
+        <v>9006968006093</v>
+      </c>
+      <c r="F3" s="59" t="n">
+        <v>1</v>
+      </c>
+      <c r="G3" s="59" t="n">
+        <v>1</v>
+      </c>
+      <c r="H3" s="59" t="n">
+        <v>1</v>
+      </c>
+      <c r="I3" s="59" t="n">
+        <v>1</v>
+      </c>
+      <c r="J3" s="59" t="n">
+        <v>1</v>
+      </c>
+      <c r="K3" s="59" t="n">
+        <v>1</v>
+      </c>
+      <c r="L3" s="59" t="n">
+        <v>1</v>
+      </c>
+      <c r="M3" s="59" t="n">
+        <v>1</v>
+      </c>
+      <c r="N3" s="59" t="n">
+        <v>1</v>
+      </c>
+      <c r="O3" s="59" t="n">
+        <v>1</v>
+      </c>
+      <c r="P3" s="59" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q3" s="59" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="56" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" s="37" t="s">
+        <v>48</v>
+      </c>
+      <c r="C4" s="38" t="s">
+        <v>49</v>
+      </c>
+      <c r="D4" s="57" t="s">
+        <v>74</v>
+      </c>
+      <c r="E4" s="58" t="n">
+        <v>9006968006109</v>
+      </c>
+      <c r="F4" s="59" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" s="59" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" s="59" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" s="59" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" s="59" t="n">
+        <v>0</v>
+      </c>
+      <c r="K4" s="59" t="n">
+        <v>0</v>
+      </c>
+      <c r="L4" s="59" t="n">
+        <v>0</v>
+      </c>
+      <c r="M4" s="59" t="n">
+        <v>0</v>
+      </c>
+      <c r="N4" s="59" t="n">
+        <v>0</v>
+      </c>
+      <c r="O4" s="59" t="n">
+        <v>0</v>
+      </c>
+      <c r="P4" s="59" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q4" s="59" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="56" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" s="37" t="s">
+        <v>48</v>
+      </c>
+      <c r="C5" s="38" t="s">
+        <v>49</v>
+      </c>
+      <c r="D5" s="57" t="s">
+        <v>51</v>
+      </c>
+      <c r="E5" s="58" t="n">
+        <v>9006968007793</v>
+      </c>
+      <c r="F5" s="59" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" s="59" t="n">
+        <v>0</v>
+      </c>
+      <c r="H5" s="59" t="n">
+        <v>0</v>
+      </c>
+      <c r="I5" s="59" t="n">
+        <v>0</v>
+      </c>
+      <c r="J5" s="59" t="n">
+        <v>0</v>
+      </c>
+      <c r="K5" s="59" t="n">
+        <v>0</v>
+      </c>
+      <c r="L5" s="59" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" s="59" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" s="59" t="n">
+        <v>0</v>
+      </c>
+      <c r="O5" s="59" t="n">
+        <v>0</v>
+      </c>
+      <c r="P5" s="59" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q5" s="59" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="56" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" s="37" t="s">
+        <v>48</v>
+      </c>
+      <c r="C6" s="38" t="s">
+        <v>49</v>
+      </c>
+      <c r="D6" s="57" t="s">
+        <v>75</v>
+      </c>
+      <c r="E6" s="58" t="n">
+        <v>9006968005874</v>
+      </c>
+      <c r="F6" s="59" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" s="59" t="n">
+        <v>0</v>
+      </c>
+      <c r="H6" s="59" t="n">
+        <v>0</v>
+      </c>
+      <c r="I6" s="59" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" s="59" t="n">
+        <v>0</v>
+      </c>
+      <c r="K6" s="59" t="n">
+        <v>0</v>
+      </c>
+      <c r="L6" s="59" t="n">
+        <v>0</v>
+      </c>
+      <c r="M6" s="59" t="n">
+        <v>0</v>
+      </c>
+      <c r="N6" s="59" t="n">
+        <v>0</v>
+      </c>
+      <c r="O6" s="59" t="n">
+        <v>0</v>
+      </c>
+      <c r="P6" s="59" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q6" s="59" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="56" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" s="37" t="s">
+        <v>53</v>
+      </c>
+      <c r="C7" s="37" t="s">
+        <v>54</v>
+      </c>
+      <c r="D7" s="57" t="s">
+        <v>52</v>
+      </c>
+      <c r="E7" s="58" t="n">
+        <v>3582910031185</v>
+      </c>
+      <c r="F7" s="59" t="n">
+        <v>0</v>
+      </c>
+      <c r="G7" s="59" t="n">
+        <v>0</v>
+      </c>
+      <c r="H7" s="59" t="n">
+        <v>0</v>
+      </c>
+      <c r="I7" s="59" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" s="59" t="n">
+        <v>0</v>
+      </c>
+      <c r="K7" s="59" t="n">
+        <v>0</v>
+      </c>
+      <c r="L7" s="59" t="n">
+        <v>0</v>
+      </c>
+      <c r="M7" s="59" t="n">
+        <v>0</v>
+      </c>
+      <c r="N7" s="59" t="n">
+        <v>0</v>
+      </c>
+      <c r="O7" s="59" t="n">
+        <v>0</v>
+      </c>
+      <c r="P7" s="59" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q7" s="59" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="56" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" s="37" t="s">
+        <v>53</v>
+      </c>
+      <c r="C8" s="37" t="s">
+        <v>54</v>
+      </c>
+      <c r="D8" s="37" t="s">
+        <v>55</v>
+      </c>
+      <c r="E8" s="58" t="n">
+        <v>3582910079149</v>
+      </c>
+      <c r="F8" s="59" t="n">
+        <v>0</v>
+      </c>
+      <c r="G8" s="59" t="n">
+        <v>0</v>
+      </c>
+      <c r="H8" s="59" t="n">
+        <v>0</v>
+      </c>
+      <c r="I8" s="59" t="n">
+        <v>0</v>
+      </c>
+      <c r="J8" s="59" t="n">
+        <v>0</v>
+      </c>
+      <c r="K8" s="59" t="n">
+        <v>0</v>
+      </c>
+      <c r="L8" s="59" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" s="59" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" s="59" t="n">
+        <v>0</v>
+      </c>
+      <c r="O8" s="59" t="n">
+        <v>0</v>
+      </c>
+      <c r="P8" s="59" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="59" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="56" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9" s="37" t="s">
+        <v>53</v>
+      </c>
+      <c r="C9" s="37" t="s">
+        <v>54</v>
+      </c>
+      <c r="D9" s="37" t="s">
+        <v>76</v>
+      </c>
+      <c r="E9" s="58" t="n">
+        <v>3582910037132</v>
+      </c>
+      <c r="F9" s="59" t="n">
+        <v>0</v>
+      </c>
+      <c r="G9" s="59" t="n">
+        <v>0</v>
+      </c>
+      <c r="H9" s="59" t="n">
+        <v>0</v>
+      </c>
+      <c r="I9" s="59" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" s="59" t="n">
+        <v>0</v>
+      </c>
+      <c r="K9" s="59" t="n">
+        <v>0</v>
+      </c>
+      <c r="L9" s="59" t="n">
+        <v>0</v>
+      </c>
+      <c r="M9" s="59" t="n">
+        <v>0</v>
+      </c>
+      <c r="N9" s="59" t="n">
+        <v>0</v>
+      </c>
+      <c r="O9" s="59" t="n">
+        <v>0</v>
+      </c>
+      <c r="P9" s="59" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q9" s="59" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="56" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10" s="53" t="s">
+        <v>57</v>
+      </c>
+      <c r="C10" s="53" t="s">
+        <v>54</v>
+      </c>
+      <c r="D10" s="53" t="s">
+        <v>56</v>
+      </c>
+      <c r="E10" s="58" t="n">
+        <v>4030113618119</v>
+      </c>
+      <c r="F10" s="59" t="n">
+        <v>0</v>
+      </c>
+      <c r="G10" s="59" t="n">
+        <v>0</v>
+      </c>
+      <c r="H10" s="59" t="n">
+        <v>0</v>
+      </c>
+      <c r="I10" s="59" t="n">
+        <v>0</v>
+      </c>
+      <c r="J10" s="59" t="n">
+        <v>0</v>
+      </c>
+      <c r="K10" s="59" t="n">
+        <v>0</v>
+      </c>
+      <c r="L10" s="59" t="n">
+        <v>0</v>
+      </c>
+      <c r="M10" s="59" t="n">
+        <v>0</v>
+      </c>
+      <c r="N10" s="59" t="n">
+        <v>0</v>
+      </c>
+      <c r="O10" s="59" t="n">
+        <v>0</v>
+      </c>
+      <c r="P10" s="59" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q10" s="59" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="56" t="s">
+        <v>14</v>
+      </c>
+      <c r="B11" s="53" t="s">
+        <v>59</v>
+      </c>
+      <c r="C11" s="53" t="s">
+        <v>54</v>
+      </c>
+      <c r="D11" s="53" t="s">
+        <v>58</v>
+      </c>
+      <c r="E11" s="58" t="n">
+        <v>8901083000470</v>
+      </c>
+      <c r="F11" s="59" t="n">
+        <v>0</v>
+      </c>
+      <c r="G11" s="59" t="n">
+        <v>0</v>
+      </c>
+      <c r="H11" s="59" t="n">
+        <v>0</v>
+      </c>
+      <c r="I11" s="59" t="n">
+        <v>0</v>
+      </c>
+      <c r="J11" s="59" t="n">
+        <v>0</v>
+      </c>
+      <c r="K11" s="59" t="n">
+        <v>0</v>
+      </c>
+      <c r="L11" s="59" t="n">
+        <v>0</v>
+      </c>
+      <c r="M11" s="59" t="n">
+        <v>0</v>
+      </c>
+      <c r="N11" s="59" t="n">
+        <v>0</v>
+      </c>
+      <c r="O11" s="59" t="n">
+        <v>0</v>
+      </c>
+      <c r="P11" s="59" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q11" s="59" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="56" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12" s="53" t="s">
+        <v>77</v>
+      </c>
+      <c r="C12" s="53" t="s">
+        <v>54</v>
+      </c>
+      <c r="D12" s="53" t="s">
+        <v>78</v>
+      </c>
+      <c r="E12" s="58" t="n">
+        <v>9006968007212</v>
+      </c>
+      <c r="F12" s="59" t="n">
+        <v>0</v>
+      </c>
+      <c r="G12" s="59" t="n">
+        <v>0</v>
+      </c>
+      <c r="H12" s="59" t="n">
+        <v>0</v>
+      </c>
+      <c r="I12" s="59" t="n">
+        <v>0</v>
+      </c>
+      <c r="J12" s="59" t="n">
+        <v>0</v>
+      </c>
+      <c r="K12" s="59" t="n">
+        <v>0</v>
+      </c>
+      <c r="L12" s="59" t="n">
+        <v>0</v>
+      </c>
+      <c r="M12" s="59" t="n">
+        <v>0</v>
+      </c>
+      <c r="N12" s="59" t="n">
+        <v>0</v>
+      </c>
+      <c r="O12" s="59" t="n">
+        <v>0</v>
+      </c>
+      <c r="P12" s="59" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q12" s="59" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="56" t="s">
+        <v>14</v>
+      </c>
+      <c r="B13" s="53" t="s">
+        <v>77</v>
+      </c>
+      <c r="C13" s="53" t="s">
+        <v>54</v>
+      </c>
+      <c r="D13" s="53" t="s">
+        <v>79</v>
+      </c>
+      <c r="E13" s="58" t="n">
+        <v>9006968007229</v>
+      </c>
+      <c r="F13" s="59" t="n">
+        <v>0</v>
+      </c>
+      <c r="G13" s="59" t="n">
+        <v>0</v>
+      </c>
+      <c r="H13" s="59" t="n">
+        <v>0</v>
+      </c>
+      <c r="I13" s="59" t="n">
+        <v>0</v>
+      </c>
+      <c r="J13" s="59" t="n">
+        <v>0</v>
+      </c>
+      <c r="K13" s="59" t="n">
+        <v>0</v>
+      </c>
+      <c r="L13" s="59" t="n">
+        <v>0</v>
+      </c>
+      <c r="M13" s="59" t="n">
+        <v>0</v>
+      </c>
+      <c r="N13" s="59" t="n">
+        <v>0</v>
+      </c>
+      <c r="O13" s="59" t="n">
+        <v>0</v>
+      </c>
+      <c r="P13" s="59" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q13" s="59" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="56" t="s">
+        <v>14</v>
+      </c>
+      <c r="B14" s="53" t="s">
+        <v>80</v>
+      </c>
+      <c r="C14" s="53" t="s">
+        <v>54</v>
+      </c>
+      <c r="D14" s="53" t="s">
+        <v>81</v>
+      </c>
+      <c r="E14" s="58" t="n">
+        <v>3582910023449</v>
+      </c>
+      <c r="F14" s="59" t="n">
+        <v>0</v>
+      </c>
+      <c r="G14" s="59" t="n">
+        <v>0</v>
+      </c>
+      <c r="H14" s="59" t="n">
+        <v>0</v>
+      </c>
+      <c r="I14" s="59" t="n">
+        <v>0</v>
+      </c>
+      <c r="J14" s="59" t="n">
+        <v>0</v>
+      </c>
+      <c r="K14" s="59" t="n">
+        <v>0</v>
+      </c>
+      <c r="L14" s="59" t="n">
+        <v>0</v>
+      </c>
+      <c r="M14" s="59" t="n">
+        <v>0</v>
+      </c>
+      <c r="N14" s="59" t="n">
+        <v>0</v>
+      </c>
+      <c r="O14" s="59" t="n">
+        <v>0</v>
+      </c>
+      <c r="P14" s="59" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="59" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="56" t="s">
+        <v>14</v>
+      </c>
+      <c r="B15" s="53" t="s">
+        <v>80</v>
+      </c>
+      <c r="C15" s="53" t="s">
+        <v>54</v>
+      </c>
+      <c r="D15" s="53" t="s">
+        <v>82</v>
+      </c>
+      <c r="E15" s="58" t="n">
+        <v>3582910059264</v>
+      </c>
+      <c r="F15" s="59" t="n">
+        <v>0</v>
+      </c>
+      <c r="G15" s="59" t="n">
+        <v>0</v>
+      </c>
+      <c r="H15" s="59" t="n">
+        <v>0</v>
+      </c>
+      <c r="I15" s="59" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" s="59" t="n">
+        <v>0</v>
+      </c>
+      <c r="K15" s="59" t="n">
+        <v>0</v>
+      </c>
+      <c r="L15" s="59" t="n">
+        <v>0</v>
+      </c>
+      <c r="M15" s="59" t="n">
+        <v>0</v>
+      </c>
+      <c r="N15" s="59" t="n">
+        <v>0</v>
+      </c>
+      <c r="O15" s="59" t="n">
+        <v>0</v>
+      </c>
+      <c r="P15" s="59" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q15" s="59" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="56" t="s">
+        <v>14</v>
+      </c>
+      <c r="B16" s="53" t="s">
+        <v>61</v>
+      </c>
+      <c r="C16" s="38" t="s">
+        <v>49</v>
+      </c>
+      <c r="D16" s="53" t="s">
+        <v>60</v>
+      </c>
+      <c r="E16" s="58" t="n">
+        <v>4030113647256</v>
+      </c>
+      <c r="F16" s="59" t="n">
+        <v>1</v>
+      </c>
+      <c r="G16" s="59" t="n">
+        <v>1</v>
+      </c>
+      <c r="H16" s="59" t="n">
+        <v>1</v>
+      </c>
+      <c r="I16" s="59" t="n">
+        <v>1</v>
+      </c>
+      <c r="J16" s="59" t="n">
+        <v>1</v>
+      </c>
+      <c r="K16" s="59" t="n">
+        <v>1</v>
+      </c>
+      <c r="L16" s="59" t="n">
+        <v>1</v>
+      </c>
+      <c r="M16" s="59" t="n">
+        <v>1</v>
+      </c>
+      <c r="N16" s="59" t="n">
+        <v>1</v>
+      </c>
+      <c r="O16" s="59" t="n">
+        <v>1</v>
+      </c>
+      <c r="P16" s="59" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q16" s="59" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="56" t="s">
+        <v>14</v>
+      </c>
+      <c r="B17" s="53" t="s">
+        <v>61</v>
+      </c>
+      <c r="C17" s="38" t="s">
+        <v>49</v>
+      </c>
+      <c r="D17" s="53" t="s">
+        <v>83</v>
+      </c>
+      <c r="E17" s="58" t="n">
+        <v>4030113647249</v>
+      </c>
+      <c r="F17" s="59" t="n">
+        <v>0</v>
+      </c>
+      <c r="G17" s="59" t="n">
+        <v>0</v>
+      </c>
+      <c r="H17" s="59" t="n">
+        <v>0</v>
+      </c>
+      <c r="I17" s="59" t="n">
+        <v>0</v>
+      </c>
+      <c r="J17" s="59" t="n">
+        <v>0</v>
+      </c>
+      <c r="K17" s="59" t="n">
+        <v>0</v>
+      </c>
+      <c r="L17" s="59" t="n">
+        <v>0</v>
+      </c>
+      <c r="M17" s="59" t="n">
+        <v>0</v>
+      </c>
+      <c r="N17" s="59" t="n">
+        <v>0</v>
+      </c>
+      <c r="O17" s="59" t="n">
+        <v>0</v>
+      </c>
+      <c r="P17" s="59" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q17" s="59" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="56" t="s">
+        <v>14</v>
+      </c>
+      <c r="B18" s="53" t="s">
+        <v>61</v>
+      </c>
+      <c r="C18" s="38" t="s">
+        <v>49</v>
+      </c>
+      <c r="D18" s="53" t="s">
+        <v>62</v>
+      </c>
+      <c r="E18" s="58" t="n">
+        <v>3582910068693</v>
+      </c>
+      <c r="F18" s="59" t="n">
+        <v>0</v>
+      </c>
+      <c r="G18" s="59" t="n">
+        <v>0</v>
+      </c>
+      <c r="H18" s="59" t="n">
+        <v>0</v>
+      </c>
+      <c r="I18" s="59" t="n">
+        <v>0</v>
+      </c>
+      <c r="J18" s="59" t="n">
+        <v>0</v>
+      </c>
+      <c r="K18" s="59" t="n">
+        <v>0</v>
+      </c>
+      <c r="L18" s="59" t="n">
+        <v>0</v>
+      </c>
+      <c r="M18" s="59" t="n">
+        <v>0</v>
+      </c>
+      <c r="N18" s="59" t="n">
+        <v>0</v>
+      </c>
+      <c r="O18" s="59" t="n">
+        <v>0</v>
+      </c>
+      <c r="P18" s="59" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q18" s="59" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="56" t="s">
+        <v>14</v>
+      </c>
+      <c r="B19" s="53" t="s">
+        <v>84</v>
+      </c>
+      <c r="C19" s="38" t="s">
+        <v>49</v>
+      </c>
+      <c r="D19" s="53" t="s">
+        <v>85</v>
+      </c>
+      <c r="E19" s="58" t="n">
+        <v>8584005040985</v>
+      </c>
+      <c r="F19" s="59" t="n">
+        <v>0</v>
+      </c>
+      <c r="G19" s="59" t="n">
+        <v>0</v>
+      </c>
+      <c r="H19" s="59" t="n">
+        <v>0</v>
+      </c>
+      <c r="I19" s="59" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" s="59" t="n">
+        <v>0</v>
+      </c>
+      <c r="K19" s="59" t="n">
+        <v>0</v>
+      </c>
+      <c r="L19" s="59" t="n">
+        <v>0</v>
+      </c>
+      <c r="M19" s="59" t="n">
+        <v>0</v>
+      </c>
+      <c r="N19" s="59" t="n">
+        <v>0</v>
+      </c>
+      <c r="O19" s="59" t="n">
+        <v>0</v>
+      </c>
+      <c r="P19" s="59" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q19" s="59" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="56" t="s">
+        <v>14</v>
+      </c>
+      <c r="B20" s="53" t="s">
+        <v>86</v>
+      </c>
+      <c r="C20" s="38" t="s">
+        <v>49</v>
+      </c>
+      <c r="D20" s="53" t="s">
+        <v>87</v>
+      </c>
+      <c r="E20" s="58" t="n">
+        <v>9006968011431</v>
+      </c>
+      <c r="F20" s="59" t="n">
+        <v>0</v>
+      </c>
+      <c r="G20" s="59" t="n">
+        <v>0</v>
+      </c>
+      <c r="H20" s="59" t="n">
+        <v>0</v>
+      </c>
+      <c r="I20" s="59" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" s="59" t="n">
+        <v>0</v>
+      </c>
+      <c r="K20" s="59" t="n">
+        <v>0</v>
+      </c>
+      <c r="L20" s="59" t="n">
+        <v>0</v>
+      </c>
+      <c r="M20" s="59" t="n">
+        <v>0</v>
+      </c>
+      <c r="N20" s="59" t="n">
+        <v>0</v>
+      </c>
+      <c r="O20" s="59" t="n">
+        <v>0</v>
+      </c>
+      <c r="P20" s="59" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q20" s="59" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="56" t="s">
+        <v>14</v>
+      </c>
+      <c r="B21" s="53" t="s">
+        <v>64</v>
+      </c>
+      <c r="C21" s="37" t="s">
+        <v>65</v>
+      </c>
+      <c r="D21" s="53" t="s">
+        <v>63</v>
+      </c>
+      <c r="E21" s="58" t="n">
+        <v>3582910013525</v>
+      </c>
+      <c r="F21" s="59" t="n">
+        <v>0</v>
+      </c>
+      <c r="G21" s="59" t="n">
+        <v>0</v>
+      </c>
+      <c r="H21" s="59" t="n">
+        <v>0</v>
+      </c>
+      <c r="I21" s="59" t="n">
+        <v>0</v>
+      </c>
+      <c r="J21" s="59" t="n">
+        <v>0</v>
+      </c>
+      <c r="K21" s="59" t="n">
+        <v>0</v>
+      </c>
+      <c r="L21" s="59" t="n">
+        <v>0</v>
+      </c>
+      <c r="M21" s="59" t="n">
+        <v>0</v>
+      </c>
+      <c r="N21" s="59" t="n">
+        <v>0</v>
+      </c>
+      <c r="O21" s="59" t="n">
+        <v>0</v>
+      </c>
+      <c r="P21" s="59" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q21" s="59" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="56" t="s">
+        <v>14</v>
+      </c>
+      <c r="B22" s="53" t="s">
+        <v>64</v>
+      </c>
+      <c r="C22" s="37" t="s">
+        <v>65</v>
+      </c>
+      <c r="D22" s="53" t="s">
+        <v>66</v>
+      </c>
+      <c r="E22" s="58" t="n">
+        <v>3582910052203</v>
+      </c>
+      <c r="F22" s="59" t="n">
+        <v>0</v>
+      </c>
+      <c r="G22" s="59" t="n">
+        <v>0</v>
+      </c>
+      <c r="H22" s="59" t="n">
+        <v>0</v>
+      </c>
+      <c r="I22" s="59" t="n">
+        <v>0</v>
+      </c>
+      <c r="J22" s="59" t="n">
+        <v>0</v>
+      </c>
+      <c r="K22" s="59" t="n">
+        <v>0</v>
+      </c>
+      <c r="L22" s="59" t="n">
+        <v>0</v>
+      </c>
+      <c r="M22" s="59" t="n">
+        <v>0</v>
+      </c>
+      <c r="N22" s="59" t="n">
+        <v>0</v>
+      </c>
+      <c r="O22" s="59" t="n">
+        <v>0</v>
+      </c>
+      <c r="P22" s="59" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q22" s="59" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="56" t="s">
+        <v>14</v>
+      </c>
+      <c r="B23" s="53" t="s">
+        <v>64</v>
+      </c>
+      <c r="C23" s="37" t="s">
+        <v>65</v>
+      </c>
+      <c r="D23" s="53" t="s">
+        <v>67</v>
+      </c>
+      <c r="E23" s="58" t="n">
+        <v>3582910026006</v>
+      </c>
+      <c r="F23" s="59" t="n">
+        <v>0</v>
+      </c>
+      <c r="G23" s="59" t="n">
+        <v>0</v>
+      </c>
+      <c r="H23" s="59" t="n">
+        <v>0</v>
+      </c>
+      <c r="I23" s="59" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" s="59" t="n">
+        <v>0</v>
+      </c>
+      <c r="K23" s="59" t="n">
+        <v>0</v>
+      </c>
+      <c r="L23" s="59" t="n">
+        <v>0</v>
+      </c>
+      <c r="M23" s="59" t="n">
+        <v>0</v>
+      </c>
+      <c r="N23" s="59" t="n">
+        <v>0</v>
+      </c>
+      <c r="O23" s="59" t="n">
+        <v>0</v>
+      </c>
+      <c r="P23" s="59" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q23" s="59" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="56" t="s">
+        <v>14</v>
+      </c>
+      <c r="B24" s="53" t="s">
+        <v>88</v>
+      </c>
+      <c r="C24" s="37" t="s">
+        <v>65</v>
+      </c>
+      <c r="D24" s="53" t="s">
+        <v>89</v>
+      </c>
+      <c r="E24" s="58" t="n">
+        <v>8584005053992</v>
+      </c>
+      <c r="F24" s="59" t="n">
+        <v>0</v>
+      </c>
+      <c r="G24" s="59" t="n">
+        <v>0</v>
+      </c>
+      <c r="H24" s="59" t="n">
+        <v>0</v>
+      </c>
+      <c r="I24" s="59" t="n">
+        <v>0</v>
+      </c>
+      <c r="J24" s="59" t="n">
+        <v>0</v>
+      </c>
+      <c r="K24" s="59" t="n">
+        <v>0</v>
+      </c>
+      <c r="L24" s="59" t="n">
+        <v>0</v>
+      </c>
+      <c r="M24" s="59" t="n">
+        <v>0</v>
+      </c>
+      <c r="N24" s="59" t="n">
+        <v>0</v>
+      </c>
+      <c r="O24" s="59" t="n">
+        <v>0</v>
+      </c>
+      <c r="P24" s="59" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q24" s="59" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="56" t="s">
+        <v>14</v>
+      </c>
+      <c r="B25" s="53" t="s">
+        <v>90</v>
+      </c>
+      <c r="C25" s="53" t="s">
+        <v>70</v>
+      </c>
+      <c r="D25" s="53" t="s">
+        <v>91</v>
+      </c>
+      <c r="E25" s="58" t="n">
+        <v>3582910065432</v>
+      </c>
+      <c r="F25" s="59" t="n">
+        <v>1</v>
+      </c>
+      <c r="G25" s="59" t="n">
+        <v>1</v>
+      </c>
+      <c r="H25" s="59" t="n">
+        <v>1</v>
+      </c>
+      <c r="I25" s="59" t="n">
+        <v>1</v>
+      </c>
+      <c r="J25" s="59" t="n">
+        <v>1</v>
+      </c>
+      <c r="K25" s="59" t="n">
+        <v>1</v>
+      </c>
+      <c r="L25" s="59" t="n">
+        <v>1</v>
+      </c>
+      <c r="M25" s="59" t="n">
+        <v>1</v>
+      </c>
+      <c r="N25" s="59" t="n">
+        <v>1</v>
+      </c>
+      <c r="O25" s="59" t="n">
+        <v>1</v>
+      </c>
+      <c r="P25" s="59" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q25" s="59" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -3291,23 +4577,23 @@
   <dimension ref="A1:Q11"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B3" activeCellId="0" sqref="B3"/>
+      <selection pane="topLeft" activeCell="D3" activeCellId="0" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="56" width="28.2793522267206"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="60" width="28.2793522267206"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="38" width="32.1376518218623"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="56" width="21.8542510121457"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="60" width="21.8542510121457"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="38" width="26.1376518218623"/>
     <col collapsed="false" hidden="false" max="5" min="5" style="38" width="18.7449392712551"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="56" width="13.7125506072874"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="56" width="12.4251012145749"/>
-    <col collapsed="false" hidden="false" max="14" min="8" style="56" width="8.89068825910931"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="56" width="10.3886639676113"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="56" width="11.4615384615385"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="56" width="10.3886639676113"/>
-    <col collapsed="false" hidden="false" max="1025" min="18" style="57" width="8.89068825910931"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="60" width="13.7125506072874"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="60" width="12.4251012145749"/>
+    <col collapsed="false" hidden="false" max="14" min="8" style="60" width="8.89068825910931"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="60" width="10.3886639676113"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="60" width="11.4615384615385"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="60" width="10.3886639676113"/>
+    <col collapsed="false" hidden="false" max="1025" min="18" style="61" width="8.89068825910931"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3332,19 +4618,19 @@
       <c r="Q1" s="47"/>
     </row>
     <row r="2" customFormat="false" ht="63" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="58" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="58" t="s">
+      <c r="A2" s="62" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="62" t="s">
         <v>31</v>
       </c>
-      <c r="C2" s="58" t="s">
+      <c r="C2" s="62" t="s">
         <v>32</v>
       </c>
-      <c r="D2" s="58" t="s">
+      <c r="D2" s="62" t="s">
         <v>33</v>
       </c>
-      <c r="E2" s="58" t="s">
+      <c r="E2" s="62" t="s">
         <v>34</v>
       </c>
       <c r="F2" s="48" t="s">
@@ -3385,17 +4671,17 @@
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="59" t="s">
+      <c r="A3" s="63" t="s">
         <v>7</v>
       </c>
       <c r="B3" s="35" t="s">
-        <v>74</v>
-      </c>
-      <c r="C3" s="56" t="s">
-        <v>75</v>
-      </c>
-      <c r="D3" s="60" t="s">
-        <v>76</v>
+        <v>92</v>
+      </c>
+      <c r="C3" s="60" t="s">
+        <v>93</v>
+      </c>
+      <c r="D3" s="64" t="s">
+        <v>94</v>
       </c>
       <c r="E3" s="38" t="s">
         <v>49</v>
@@ -3438,17 +4724,17 @@
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="59" t="s">
+      <c r="A4" s="63" t="s">
         <v>7</v>
       </c>
       <c r="B4" s="35" t="s">
-        <v>77</v>
-      </c>
-      <c r="C4" s="56" t="s">
-        <v>78</v>
-      </c>
-      <c r="D4" s="61" t="s">
-        <v>79</v>
+        <v>95</v>
+      </c>
+      <c r="C4" s="60" t="s">
+        <v>96</v>
+      </c>
+      <c r="D4" s="65" t="s">
+        <v>97</v>
       </c>
       <c r="E4" s="38" t="s">
         <v>49</v>
@@ -3491,17 +4777,17 @@
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="59" t="s">
+      <c r="A5" s="63" t="s">
         <v>7</v>
       </c>
       <c r="B5" s="35" t="s">
-        <v>80</v>
-      </c>
-      <c r="C5" s="56" t="s">
-        <v>81</v>
-      </c>
-      <c r="D5" s="61" t="s">
-        <v>82</v>
+        <v>98</v>
+      </c>
+      <c r="C5" s="60" t="s">
+        <v>99</v>
+      </c>
+      <c r="D5" s="65" t="s">
+        <v>90</v>
       </c>
       <c r="E5" s="38" t="s">
         <v>70</v>
@@ -3544,17 +4830,17 @@
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="62" t="s">
+      <c r="A6" s="66" t="s">
         <v>17</v>
       </c>
       <c r="B6" s="35" t="s">
-        <v>74</v>
-      </c>
-      <c r="C6" s="56" t="s">
-        <v>75</v>
-      </c>
-      <c r="D6" s="61" t="s">
-        <v>76</v>
+        <v>92</v>
+      </c>
+      <c r="C6" s="60" t="s">
+        <v>93</v>
+      </c>
+      <c r="D6" s="65" t="s">
+        <v>94</v>
       </c>
       <c r="E6" s="38" t="s">
         <v>49</v>
@@ -3597,17 +4883,17 @@
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="62" t="s">
+      <c r="A7" s="66" t="s">
         <v>17</v>
       </c>
       <c r="B7" s="35" t="s">
-        <v>77</v>
-      </c>
-      <c r="C7" s="56" t="s">
-        <v>78</v>
-      </c>
-      <c r="D7" s="63" t="s">
-        <v>79</v>
+        <v>95</v>
+      </c>
+      <c r="C7" s="60" t="s">
+        <v>96</v>
+      </c>
+      <c r="D7" s="67" t="s">
+        <v>97</v>
       </c>
       <c r="E7" s="38" t="s">
         <v>49</v>
@@ -3650,19 +4936,19 @@
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="62" t="s">
+      <c r="A8" s="66" t="s">
         <v>17</v>
       </c>
       <c r="B8" s="35" t="s">
-        <v>83</v>
-      </c>
-      <c r="C8" s="56" t="s">
-        <v>84</v>
-      </c>
-      <c r="D8" s="63" t="s">
+        <v>100</v>
+      </c>
+      <c r="C8" s="60" t="s">
+        <v>101</v>
+      </c>
+      <c r="D8" s="67" t="s">
         <v>53</v>
       </c>
-      <c r="E8" s="61" t="s">
+      <c r="E8" s="65" t="s">
         <v>54</v>
       </c>
       <c r="F8" s="50" t="n">
@@ -3703,19 +4989,19 @@
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="62" t="s">
+      <c r="A9" s="66" t="s">
         <v>17</v>
       </c>
       <c r="B9" s="35" t="s">
-        <v>85</v>
-      </c>
-      <c r="C9" s="56" t="s">
-        <v>86</v>
-      </c>
-      <c r="D9" s="63" t="s">
-        <v>87</v>
-      </c>
-      <c r="E9" s="61" t="s">
+        <v>102</v>
+      </c>
+      <c r="C9" s="60" t="s">
+        <v>103</v>
+      </c>
+      <c r="D9" s="67" t="s">
+        <v>104</v>
+      </c>
+      <c r="E9" s="65" t="s">
         <v>54</v>
       </c>
       <c r="F9" s="50" t="n">
@@ -3756,17 +5042,17 @@
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="62" t="s">
+      <c r="A10" s="66" t="s">
         <v>17</v>
       </c>
       <c r="B10" s="38" t="s">
-        <v>88</v>
-      </c>
-      <c r="C10" s="56" t="s">
-        <v>89</v>
+        <v>105</v>
+      </c>
+      <c r="C10" s="60" t="s">
+        <v>106</v>
       </c>
       <c r="D10" s="38" t="s">
-        <v>90</v>
+        <v>107</v>
       </c>
       <c r="E10" s="38" t="s">
         <v>65</v>
@@ -3809,14 +5095,14 @@
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="62" t="s">
+      <c r="A11" s="66" t="s">
         <v>17</v>
       </c>
       <c r="B11" s="38" t="s">
-        <v>91</v>
-      </c>
-      <c r="C11" s="56" t="s">
-        <v>92</v>
+        <v>108</v>
+      </c>
+      <c r="C11" s="60" t="s">
+        <v>109</v>
       </c>
       <c r="D11" s="38" t="s">
         <v>59</v>
@@ -3883,32 +5169,32 @@
   </sheetPr>
   <dimension ref="A1:Q17"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A18" activeCellId="0" sqref="A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="64" width="30.8502024291498"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="64" width="42.6315789473684"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="64" width="18.6396761133603"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="64" width="17.4615384615385"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="64" width="16.3886639676113"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="64" width="10.7125506072875"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="64" width="10.9271255060729"/>
-    <col collapsed="false" hidden="false" max="14" min="8" style="64" width="8.89068825910931"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="64" width="10.3886639676113"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="64" width="11.5708502024291"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="64" width="8.89068825910931"/>
-    <col collapsed="false" hidden="false" max="1025" min="18" style="65" width="8.89068825910931"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="68" width="30.8502024291498"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="68" width="42.6315789473684"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="68" width="18.6396761133603"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="68" width="17.4615384615385"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="68" width="16.3886639676113"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="68" width="10.7125506072875"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="68" width="10.9271255060729"/>
+    <col collapsed="false" hidden="false" max="14" min="8" style="68" width="8.89068825910931"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="68" width="10.3886639676113"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="68" width="11.5708502024291"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="68" width="8.89068825910931"/>
+    <col collapsed="false" hidden="false" max="1025" min="18" style="69" width="8.89068825910931"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="66"/>
-      <c r="B1" s="66"/>
-      <c r="C1" s="66"/>
-      <c r="D1" s="66"/>
-      <c r="E1" s="66"/>
+      <c r="A1" s="70"/>
+      <c r="B1" s="70"/>
+      <c r="C1" s="70"/>
+      <c r="D1" s="70"/>
+      <c r="E1" s="70"/>
       <c r="F1" s="47" t="s">
         <v>30</v>
       </c>
@@ -3925,19 +5211,19 @@
       <c r="Q1" s="47"/>
     </row>
     <row r="2" customFormat="false" ht="63" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="67" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="67" t="s">
+      <c r="A2" s="71" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="71" t="s">
         <v>31</v>
       </c>
-      <c r="C2" s="67" t="s">
+      <c r="C2" s="71" t="s">
         <v>32</v>
       </c>
-      <c r="D2" s="58" t="s">
+      <c r="D2" s="62" t="s">
         <v>33</v>
       </c>
-      <c r="E2" s="58" t="s">
+      <c r="E2" s="62" t="s">
         <v>34</v>
       </c>
       <c r="F2" s="48" t="s">
@@ -3978,797 +5264,797 @@
       </c>
     </row>
     <row r="3" customFormat="false" ht="25.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="68" t="s">
+      <c r="A3" s="72" t="s">
         <v>29</v>
       </c>
-      <c r="B3" s="69" t="s">
+      <c r="B3" s="73" t="s">
         <v>47</v>
       </c>
-      <c r="C3" s="69" t="n">
+      <c r="C3" s="73" t="n">
         <v>9006968006093</v>
       </c>
-      <c r="D3" s="69" t="s">
+      <c r="D3" s="73" t="s">
         <v>48</v>
       </c>
-      <c r="E3" s="64" t="s">
+      <c r="E3" s="68" t="s">
         <v>49</v>
       </c>
-      <c r="F3" s="70" t="n">
+      <c r="F3" s="74" t="n">
         <v>3</v>
       </c>
-      <c r="G3" s="70" t="n">
+      <c r="G3" s="74" t="n">
         <v>3</v>
       </c>
-      <c r="H3" s="70" t="n">
-        <v>1</v>
-      </c>
-      <c r="I3" s="70" t="n">
-        <v>2</v>
-      </c>
-      <c r="J3" s="70" t="n">
-        <v>2</v>
-      </c>
-      <c r="K3" s="70" t="n">
-        <v>1</v>
-      </c>
-      <c r="L3" s="70" t="n">
-        <v>2</v>
-      </c>
-      <c r="M3" s="70" t="n">
-        <v>2</v>
-      </c>
-      <c r="N3" s="70" t="n">
-        <v>1</v>
-      </c>
-      <c r="O3" s="70" t="n">
-        <v>2</v>
-      </c>
-      <c r="P3" s="70" t="n">
+      <c r="H3" s="74" t="n">
+        <v>1</v>
+      </c>
+      <c r="I3" s="74" t="n">
+        <v>2</v>
+      </c>
+      <c r="J3" s="74" t="n">
+        <v>2</v>
+      </c>
+      <c r="K3" s="74" t="n">
+        <v>1</v>
+      </c>
+      <c r="L3" s="74" t="n">
+        <v>2</v>
+      </c>
+      <c r="M3" s="74" t="n">
+        <v>2</v>
+      </c>
+      <c r="N3" s="74" t="n">
+        <v>1</v>
+      </c>
+      <c r="O3" s="74" t="n">
+        <v>2</v>
+      </c>
+      <c r="P3" s="74" t="n">
         <v>3</v>
       </c>
-      <c r="Q3" s="70" t="n">
+      <c r="Q3" s="74" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="25.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="68" t="s">
+      <c r="A4" s="72" t="s">
         <v>29</v>
       </c>
-      <c r="B4" s="69" t="s">
+      <c r="B4" s="73" t="s">
         <v>50</v>
       </c>
-      <c r="C4" s="69" t="n">
+      <c r="C4" s="73" t="n">
         <v>9006968011905</v>
       </c>
-      <c r="D4" s="69" t="s">
+      <c r="D4" s="73" t="s">
         <v>48</v>
       </c>
-      <c r="E4" s="64" t="s">
+      <c r="E4" s="68" t="s">
         <v>49</v>
       </c>
-      <c r="F4" s="70" t="n">
-        <v>2</v>
-      </c>
-      <c r="G4" s="70" t="n">
-        <v>2</v>
-      </c>
-      <c r="H4" s="70" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" s="70" t="n">
-        <v>2</v>
-      </c>
-      <c r="J4" s="70" t="n">
-        <v>2</v>
-      </c>
-      <c r="K4" s="70" t="n">
-        <v>0</v>
-      </c>
-      <c r="L4" s="70" t="n">
-        <v>1</v>
-      </c>
-      <c r="M4" s="70" t="n">
-        <v>1</v>
-      </c>
-      <c r="N4" s="70" t="n">
-        <v>0</v>
-      </c>
-      <c r="O4" s="70" t="n">
-        <v>1</v>
-      </c>
-      <c r="P4" s="70" t="n">
-        <v>2</v>
-      </c>
-      <c r="Q4" s="70" t="n">
+      <c r="F4" s="74" t="n">
+        <v>2</v>
+      </c>
+      <c r="G4" s="74" t="n">
+        <v>2</v>
+      </c>
+      <c r="H4" s="74" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" s="74" t="n">
+        <v>2</v>
+      </c>
+      <c r="J4" s="74" t="n">
+        <v>2</v>
+      </c>
+      <c r="K4" s="74" t="n">
+        <v>0</v>
+      </c>
+      <c r="L4" s="74" t="n">
+        <v>1</v>
+      </c>
+      <c r="M4" s="74" t="n">
+        <v>1</v>
+      </c>
+      <c r="N4" s="74" t="n">
+        <v>0</v>
+      </c>
+      <c r="O4" s="74" t="n">
+        <v>1</v>
+      </c>
+      <c r="P4" s="74" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q4" s="74" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="25.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="68" t="s">
+      <c r="A5" s="72" t="s">
         <v>29</v>
       </c>
-      <c r="B5" s="69" t="s">
+      <c r="B5" s="73" t="s">
         <v>51</v>
       </c>
-      <c r="C5" s="69" t="n">
+      <c r="C5" s="73" t="n">
         <v>9006968007793</v>
       </c>
-      <c r="D5" s="69" t="s">
+      <c r="D5" s="73" t="s">
         <v>48</v>
       </c>
-      <c r="E5" s="64" t="s">
+      <c r="E5" s="68" t="s">
         <v>49</v>
       </c>
-      <c r="F5" s="70" t="n">
+      <c r="F5" s="74" t="n">
         <v>3</v>
       </c>
-      <c r="G5" s="70" t="n">
+      <c r="G5" s="74" t="n">
         <v>3</v>
       </c>
-      <c r="H5" s="70" t="n">
-        <v>1</v>
-      </c>
-      <c r="I5" s="70" t="n">
-        <v>2</v>
-      </c>
-      <c r="J5" s="70" t="n">
-        <v>2</v>
-      </c>
-      <c r="K5" s="70" t="n">
-        <v>1</v>
-      </c>
-      <c r="L5" s="70" t="n">
-        <v>2</v>
-      </c>
-      <c r="M5" s="70" t="n">
-        <v>2</v>
-      </c>
-      <c r="N5" s="70" t="n">
-        <v>1</v>
-      </c>
-      <c r="O5" s="70" t="n">
-        <v>2</v>
-      </c>
-      <c r="P5" s="70" t="n">
+      <c r="H5" s="74" t="n">
+        <v>1</v>
+      </c>
+      <c r="I5" s="74" t="n">
+        <v>2</v>
+      </c>
+      <c r="J5" s="74" t="n">
+        <v>2</v>
+      </c>
+      <c r="K5" s="74" t="n">
+        <v>1</v>
+      </c>
+      <c r="L5" s="74" t="n">
+        <v>2</v>
+      </c>
+      <c r="M5" s="74" t="n">
+        <v>2</v>
+      </c>
+      <c r="N5" s="74" t="n">
+        <v>1</v>
+      </c>
+      <c r="O5" s="74" t="n">
+        <v>2</v>
+      </c>
+      <c r="P5" s="74" t="n">
         <v>3</v>
       </c>
-      <c r="Q5" s="70" t="n">
+      <c r="Q5" s="74" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="25.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="68" t="s">
+      <c r="A6" s="72" t="s">
         <v>29</v>
       </c>
-      <c r="B6" s="69" t="s">
+      <c r="B6" s="73" t="s">
         <v>52</v>
       </c>
-      <c r="C6" s="69" t="n">
+      <c r="C6" s="73" t="n">
         <v>3582910031185</v>
       </c>
-      <c r="D6" s="69" t="s">
+      <c r="D6" s="73" t="s">
         <v>53</v>
       </c>
-      <c r="E6" s="64" t="s">
+      <c r="E6" s="68" t="s">
         <v>54</v>
       </c>
-      <c r="F6" s="70" t="n">
-        <v>2</v>
-      </c>
-      <c r="G6" s="70" t="n">
-        <v>2</v>
-      </c>
-      <c r="H6" s="70" t="n">
-        <v>1</v>
-      </c>
-      <c r="I6" s="70" t="n">
-        <v>2</v>
-      </c>
-      <c r="J6" s="70" t="n">
-        <v>2</v>
-      </c>
-      <c r="K6" s="70" t="n">
-        <v>1</v>
-      </c>
-      <c r="L6" s="70" t="n">
-        <v>1</v>
-      </c>
-      <c r="M6" s="70" t="n">
-        <v>1</v>
-      </c>
-      <c r="N6" s="70" t="n">
-        <v>1</v>
-      </c>
-      <c r="O6" s="70" t="n">
-        <v>1</v>
-      </c>
-      <c r="P6" s="70" t="n">
-        <v>2</v>
-      </c>
-      <c r="Q6" s="70" t="n">
+      <c r="F6" s="74" t="n">
+        <v>2</v>
+      </c>
+      <c r="G6" s="74" t="n">
+        <v>2</v>
+      </c>
+      <c r="H6" s="74" t="n">
+        <v>1</v>
+      </c>
+      <c r="I6" s="74" t="n">
+        <v>2</v>
+      </c>
+      <c r="J6" s="74" t="n">
+        <v>2</v>
+      </c>
+      <c r="K6" s="74" t="n">
+        <v>1</v>
+      </c>
+      <c r="L6" s="74" t="n">
+        <v>1</v>
+      </c>
+      <c r="M6" s="74" t="n">
+        <v>1</v>
+      </c>
+      <c r="N6" s="74" t="n">
+        <v>1</v>
+      </c>
+      <c r="O6" s="74" t="n">
+        <v>1</v>
+      </c>
+      <c r="P6" s="74" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q6" s="74" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="25.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="68" t="s">
+      <c r="A7" s="72" t="s">
         <v>29</v>
       </c>
-      <c r="B7" s="69" t="s">
+      <c r="B7" s="73" t="s">
         <v>55</v>
       </c>
-      <c r="C7" s="69" t="n">
+      <c r="C7" s="73" t="n">
         <v>3582910079149</v>
       </c>
-      <c r="D7" s="69" t="s">
+      <c r="D7" s="73" t="s">
         <v>53</v>
       </c>
-      <c r="E7" s="64" t="s">
+      <c r="E7" s="68" t="s">
         <v>54</v>
       </c>
-      <c r="F7" s="70" t="n">
-        <v>2</v>
-      </c>
-      <c r="G7" s="70" t="n">
-        <v>2</v>
-      </c>
-      <c r="H7" s="70" t="n">
-        <v>0</v>
-      </c>
-      <c r="I7" s="70" t="n">
-        <v>2</v>
-      </c>
-      <c r="J7" s="70" t="n">
-        <v>2</v>
-      </c>
-      <c r="K7" s="70" t="n">
-        <v>0</v>
-      </c>
-      <c r="L7" s="70" t="n">
-        <v>1</v>
-      </c>
-      <c r="M7" s="70" t="n">
-        <v>1</v>
-      </c>
-      <c r="N7" s="70" t="n">
-        <v>0</v>
-      </c>
-      <c r="O7" s="70" t="n">
-        <v>1</v>
-      </c>
-      <c r="P7" s="70" t="n">
-        <v>2</v>
-      </c>
-      <c r="Q7" s="70" t="n">
+      <c r="F7" s="74" t="n">
+        <v>2</v>
+      </c>
+      <c r="G7" s="74" t="n">
+        <v>2</v>
+      </c>
+      <c r="H7" s="74" t="n">
+        <v>0</v>
+      </c>
+      <c r="I7" s="74" t="n">
+        <v>2</v>
+      </c>
+      <c r="J7" s="74" t="n">
+        <v>2</v>
+      </c>
+      <c r="K7" s="74" t="n">
+        <v>0</v>
+      </c>
+      <c r="L7" s="74" t="n">
+        <v>1</v>
+      </c>
+      <c r="M7" s="74" t="n">
+        <v>1</v>
+      </c>
+      <c r="N7" s="74" t="n">
+        <v>0</v>
+      </c>
+      <c r="O7" s="74" t="n">
+        <v>1</v>
+      </c>
+      <c r="P7" s="74" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q7" s="74" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="25.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="68" t="s">
+      <c r="A8" s="72" t="s">
         <v>29</v>
       </c>
-      <c r="B8" s="69" t="s">
+      <c r="B8" s="73" t="s">
         <v>56</v>
       </c>
-      <c r="C8" s="69" t="n">
+      <c r="C8" s="73" t="n">
         <v>4030113618119</v>
       </c>
-      <c r="D8" s="69" t="s">
+      <c r="D8" s="73" t="s">
         <v>57</v>
       </c>
-      <c r="E8" s="64" t="s">
+      <c r="E8" s="68" t="s">
         <v>54</v>
       </c>
-      <c r="F8" s="70" t="n">
+      <c r="F8" s="74" t="n">
         <v>6</v>
       </c>
-      <c r="G8" s="70" t="n">
+      <c r="G8" s="74" t="n">
         <v>6</v>
       </c>
-      <c r="H8" s="70" t="n">
+      <c r="H8" s="74" t="n">
         <v>4</v>
       </c>
-      <c r="I8" s="70" t="n">
-        <v>2</v>
-      </c>
-      <c r="J8" s="70" t="n">
-        <v>2</v>
-      </c>
-      <c r="K8" s="70" t="n">
-        <v>1</v>
-      </c>
-      <c r="L8" s="70" t="n">
+      <c r="I8" s="74" t="n">
+        <v>2</v>
+      </c>
+      <c r="J8" s="74" t="n">
+        <v>2</v>
+      </c>
+      <c r="K8" s="74" t="n">
+        <v>1</v>
+      </c>
+      <c r="L8" s="74" t="n">
         <v>4</v>
       </c>
-      <c r="M8" s="70" t="n">
+      <c r="M8" s="74" t="n">
         <v>4</v>
       </c>
-      <c r="N8" s="70" t="n">
-        <v>1</v>
-      </c>
-      <c r="O8" s="70" t="n">
-        <v>2</v>
-      </c>
-      <c r="P8" s="70" t="n">
+      <c r="N8" s="74" t="n">
+        <v>1</v>
+      </c>
+      <c r="O8" s="74" t="n">
+        <v>2</v>
+      </c>
+      <c r="P8" s="74" t="n">
         <v>6</v>
       </c>
-      <c r="Q8" s="70" t="n">
+      <c r="Q8" s="74" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="25.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="68" t="s">
+      <c r="A9" s="72" t="s">
         <v>29</v>
       </c>
-      <c r="B9" s="69" t="s">
+      <c r="B9" s="73" t="s">
         <v>58</v>
       </c>
-      <c r="C9" s="69" t="n">
+      <c r="C9" s="73" t="n">
         <v>8901083000470</v>
       </c>
-      <c r="D9" s="69" t="s">
+      <c r="D9" s="73" t="s">
         <v>59</v>
       </c>
-      <c r="E9" s="64" t="s">
+      <c r="E9" s="68" t="s">
         <v>54</v>
       </c>
-      <c r="F9" s="70" t="n">
+      <c r="F9" s="74" t="n">
         <v>4</v>
       </c>
-      <c r="G9" s="70" t="n">
+      <c r="G9" s="74" t="n">
         <v>4</v>
       </c>
-      <c r="H9" s="70" t="n">
-        <v>2</v>
-      </c>
-      <c r="I9" s="70" t="n">
-        <v>2</v>
-      </c>
-      <c r="J9" s="70" t="n">
-        <v>2</v>
-      </c>
-      <c r="K9" s="70" t="n">
-        <v>1</v>
-      </c>
-      <c r="L9" s="70" t="n">
-        <v>1</v>
-      </c>
-      <c r="M9" s="70" t="n">
-        <v>1</v>
-      </c>
-      <c r="N9" s="70" t="n">
-        <v>1</v>
-      </c>
-      <c r="O9" s="70" t="n">
-        <v>1</v>
-      </c>
-      <c r="P9" s="70" t="n">
+      <c r="H9" s="74" t="n">
+        <v>2</v>
+      </c>
+      <c r="I9" s="74" t="n">
+        <v>2</v>
+      </c>
+      <c r="J9" s="74" t="n">
+        <v>2</v>
+      </c>
+      <c r="K9" s="74" t="n">
+        <v>1</v>
+      </c>
+      <c r="L9" s="74" t="n">
+        <v>1</v>
+      </c>
+      <c r="M9" s="74" t="n">
+        <v>1</v>
+      </c>
+      <c r="N9" s="74" t="n">
+        <v>1</v>
+      </c>
+      <c r="O9" s="74" t="n">
+        <v>1</v>
+      </c>
+      <c r="P9" s="74" t="n">
         <v>4</v>
       </c>
-      <c r="Q9" s="70" t="n">
+      <c r="Q9" s="74" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="25.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="68" t="s">
+      <c r="A10" s="72" t="s">
         <v>29</v>
       </c>
-      <c r="B10" s="69" t="s">
+      <c r="B10" s="73" t="s">
         <v>60</v>
       </c>
-      <c r="C10" s="69" t="n">
+      <c r="C10" s="73" t="n">
         <v>4030113647256</v>
       </c>
-      <c r="D10" s="69" t="s">
+      <c r="D10" s="73" t="s">
         <v>61</v>
       </c>
-      <c r="E10" s="64" t="s">
+      <c r="E10" s="68" t="s">
         <v>49</v>
       </c>
-      <c r="F10" s="70" t="n">
+      <c r="F10" s="74" t="n">
         <v>3</v>
       </c>
-      <c r="G10" s="70" t="n">
+      <c r="G10" s="74" t="n">
         <v>3</v>
       </c>
-      <c r="H10" s="70" t="n">
-        <v>1</v>
-      </c>
-      <c r="I10" s="70" t="n">
-        <v>2</v>
-      </c>
-      <c r="J10" s="70" t="n">
-        <v>2</v>
-      </c>
-      <c r="K10" s="70" t="n">
-        <v>1</v>
-      </c>
-      <c r="L10" s="70" t="n">
-        <v>2</v>
-      </c>
-      <c r="M10" s="70" t="n">
-        <v>2</v>
-      </c>
-      <c r="N10" s="70" t="n">
-        <v>1</v>
-      </c>
-      <c r="O10" s="70" t="n">
-        <v>2</v>
-      </c>
-      <c r="P10" s="70" t="n">
+      <c r="H10" s="74" t="n">
+        <v>1</v>
+      </c>
+      <c r="I10" s="74" t="n">
+        <v>2</v>
+      </c>
+      <c r="J10" s="74" t="n">
+        <v>2</v>
+      </c>
+      <c r="K10" s="74" t="n">
+        <v>1</v>
+      </c>
+      <c r="L10" s="74" t="n">
+        <v>2</v>
+      </c>
+      <c r="M10" s="74" t="n">
+        <v>2</v>
+      </c>
+      <c r="N10" s="74" t="n">
+        <v>1</v>
+      </c>
+      <c r="O10" s="74" t="n">
+        <v>2</v>
+      </c>
+      <c r="P10" s="74" t="n">
         <v>3</v>
       </c>
-      <c r="Q10" s="70" t="n">
+      <c r="Q10" s="74" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="25.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="68" t="s">
+      <c r="A11" s="72" t="s">
         <v>29</v>
       </c>
-      <c r="B11" s="69" t="s">
+      <c r="B11" s="73" t="s">
         <v>62</v>
       </c>
-      <c r="C11" s="69" t="n">
+      <c r="C11" s="73" t="n">
         <v>3582910068693</v>
       </c>
-      <c r="D11" s="69" t="s">
+      <c r="D11" s="73" t="s">
         <v>61</v>
       </c>
-      <c r="E11" s="64" t="s">
+      <c r="E11" s="68" t="s">
         <v>49</v>
       </c>
-      <c r="F11" s="70" t="n">
+      <c r="F11" s="74" t="n">
         <v>3</v>
       </c>
-      <c r="G11" s="70" t="n">
+      <c r="G11" s="74" t="n">
         <v>3</v>
       </c>
-      <c r="H11" s="70" t="n">
-        <v>1</v>
-      </c>
-      <c r="I11" s="70" t="n">
-        <v>2</v>
-      </c>
-      <c r="J11" s="70" t="n">
-        <v>2</v>
-      </c>
-      <c r="K11" s="70" t="n">
-        <v>1</v>
-      </c>
-      <c r="L11" s="70" t="n">
-        <v>2</v>
-      </c>
-      <c r="M11" s="70" t="n">
-        <v>2</v>
-      </c>
-      <c r="N11" s="70" t="n">
-        <v>1</v>
-      </c>
-      <c r="O11" s="70" t="n">
-        <v>2</v>
-      </c>
-      <c r="P11" s="70" t="n">
+      <c r="H11" s="74" t="n">
+        <v>1</v>
+      </c>
+      <c r="I11" s="74" t="n">
+        <v>2</v>
+      </c>
+      <c r="J11" s="74" t="n">
+        <v>2</v>
+      </c>
+      <c r="K11" s="74" t="n">
+        <v>1</v>
+      </c>
+      <c r="L11" s="74" t="n">
+        <v>2</v>
+      </c>
+      <c r="M11" s="74" t="n">
+        <v>2</v>
+      </c>
+      <c r="N11" s="74" t="n">
+        <v>1</v>
+      </c>
+      <c r="O11" s="74" t="n">
+        <v>2</v>
+      </c>
+      <c r="P11" s="74" t="n">
         <v>3</v>
       </c>
-      <c r="Q11" s="70" t="n">
+      <c r="Q11" s="74" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="25.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="68" t="s">
+      <c r="A12" s="72" t="s">
         <v>29</v>
       </c>
-      <c r="B12" s="69" t="s">
+      <c r="B12" s="73" t="s">
         <v>63</v>
       </c>
-      <c r="C12" s="69" t="n">
+      <c r="C12" s="73" t="n">
         <v>3582910013525</v>
       </c>
-      <c r="D12" s="69" t="s">
+      <c r="D12" s="73" t="s">
         <v>64</v>
       </c>
-      <c r="E12" s="64" t="s">
+      <c r="E12" s="68" t="s">
         <v>65</v>
       </c>
-      <c r="F12" s="70" t="n">
+      <c r="F12" s="74" t="n">
         <v>4</v>
       </c>
-      <c r="G12" s="70" t="n">
+      <c r="G12" s="74" t="n">
         <v>4</v>
       </c>
-      <c r="H12" s="70" t="n">
-        <v>2</v>
-      </c>
-      <c r="I12" s="70" t="n">
-        <v>2</v>
-      </c>
-      <c r="J12" s="70" t="n">
-        <v>2</v>
-      </c>
-      <c r="K12" s="70" t="n">
-        <v>1</v>
-      </c>
-      <c r="L12" s="70" t="n">
-        <v>2</v>
-      </c>
-      <c r="M12" s="70" t="n">
-        <v>2</v>
-      </c>
-      <c r="N12" s="70" t="n">
-        <v>1</v>
-      </c>
-      <c r="O12" s="70" t="n">
-        <v>2</v>
-      </c>
-      <c r="P12" s="70" t="n">
+      <c r="H12" s="74" t="n">
+        <v>2</v>
+      </c>
+      <c r="I12" s="74" t="n">
+        <v>2</v>
+      </c>
+      <c r="J12" s="74" t="n">
+        <v>2</v>
+      </c>
+      <c r="K12" s="74" t="n">
+        <v>1</v>
+      </c>
+      <c r="L12" s="74" t="n">
+        <v>2</v>
+      </c>
+      <c r="M12" s="74" t="n">
+        <v>2</v>
+      </c>
+      <c r="N12" s="74" t="n">
+        <v>1</v>
+      </c>
+      <c r="O12" s="74" t="n">
+        <v>2</v>
+      </c>
+      <c r="P12" s="74" t="n">
         <v>4</v>
       </c>
-      <c r="Q12" s="70" t="n">
+      <c r="Q12" s="74" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="25.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="68" t="s">
+      <c r="A13" s="72" t="s">
         <v>29</v>
       </c>
-      <c r="B13" s="69" t="s">
+      <c r="B13" s="73" t="s">
         <v>66</v>
       </c>
-      <c r="C13" s="69" t="n">
+      <c r="C13" s="73" t="n">
         <v>3582910052203</v>
       </c>
-      <c r="D13" s="69" t="s">
+      <c r="D13" s="73" t="s">
         <v>64</v>
       </c>
-      <c r="E13" s="64" t="s">
+      <c r="E13" s="68" t="s">
         <v>65</v>
       </c>
-      <c r="F13" s="70" t="n">
-        <v>2</v>
-      </c>
-      <c r="G13" s="70" t="n">
-        <v>2</v>
-      </c>
-      <c r="H13" s="70" t="n">
-        <v>0</v>
-      </c>
-      <c r="I13" s="70" t="n">
-        <v>2</v>
-      </c>
-      <c r="J13" s="70" t="n">
-        <v>2</v>
-      </c>
-      <c r="K13" s="70" t="n">
-        <v>0</v>
-      </c>
-      <c r="L13" s="70" t="n">
-        <v>1</v>
-      </c>
-      <c r="M13" s="70" t="n">
-        <v>1</v>
-      </c>
-      <c r="N13" s="70" t="n">
-        <v>0</v>
-      </c>
-      <c r="O13" s="70" t="n">
-        <v>1</v>
-      </c>
-      <c r="P13" s="70" t="n">
-        <v>2</v>
-      </c>
-      <c r="Q13" s="70" t="n">
+      <c r="F13" s="74" t="n">
+        <v>2</v>
+      </c>
+      <c r="G13" s="74" t="n">
+        <v>2</v>
+      </c>
+      <c r="H13" s="74" t="n">
+        <v>0</v>
+      </c>
+      <c r="I13" s="74" t="n">
+        <v>2</v>
+      </c>
+      <c r="J13" s="74" t="n">
+        <v>2</v>
+      </c>
+      <c r="K13" s="74" t="n">
+        <v>0</v>
+      </c>
+      <c r="L13" s="74" t="n">
+        <v>1</v>
+      </c>
+      <c r="M13" s="74" t="n">
+        <v>1</v>
+      </c>
+      <c r="N13" s="74" t="n">
+        <v>0</v>
+      </c>
+      <c r="O13" s="74" t="n">
+        <v>1</v>
+      </c>
+      <c r="P13" s="74" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q13" s="74" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="25.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="68" t="s">
+      <c r="A14" s="72" t="s">
         <v>29</v>
       </c>
-      <c r="B14" s="69" t="s">
+      <c r="B14" s="73" t="s">
         <v>67</v>
       </c>
-      <c r="C14" s="69" t="n">
+      <c r="C14" s="73" t="n">
         <v>3582910026006</v>
       </c>
-      <c r="D14" s="69" t="s">
+      <c r="D14" s="73" t="s">
         <v>64</v>
       </c>
-      <c r="E14" s="64" t="s">
+      <c r="E14" s="68" t="s">
         <v>65</v>
       </c>
-      <c r="F14" s="70" t="n">
-        <v>2</v>
-      </c>
-      <c r="G14" s="70" t="n">
-        <v>2</v>
-      </c>
-      <c r="H14" s="70" t="n">
-        <v>0</v>
-      </c>
-      <c r="I14" s="70" t="n">
-        <v>2</v>
-      </c>
-      <c r="J14" s="70" t="n">
-        <v>2</v>
-      </c>
-      <c r="K14" s="70" t="n">
-        <v>0</v>
-      </c>
-      <c r="L14" s="70" t="n">
-        <v>1</v>
-      </c>
-      <c r="M14" s="70" t="n">
-        <v>1</v>
-      </c>
-      <c r="N14" s="70" t="n">
-        <v>0</v>
-      </c>
-      <c r="O14" s="70" t="n">
-        <v>1</v>
-      </c>
-      <c r="P14" s="70" t="n">
-        <v>2</v>
-      </c>
-      <c r="Q14" s="70" t="n">
+      <c r="F14" s="74" t="n">
+        <v>2</v>
+      </c>
+      <c r="G14" s="74" t="n">
+        <v>2</v>
+      </c>
+      <c r="H14" s="74" t="n">
+        <v>0</v>
+      </c>
+      <c r="I14" s="74" t="n">
+        <v>2</v>
+      </c>
+      <c r="J14" s="74" t="n">
+        <v>2</v>
+      </c>
+      <c r="K14" s="74" t="n">
+        <v>0</v>
+      </c>
+      <c r="L14" s="74" t="n">
+        <v>1</v>
+      </c>
+      <c r="M14" s="74" t="n">
+        <v>1</v>
+      </c>
+      <c r="N14" s="74" t="n">
+        <v>0</v>
+      </c>
+      <c r="O14" s="74" t="n">
+        <v>1</v>
+      </c>
+      <c r="P14" s="74" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q14" s="74" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="71" t="s">
+      <c r="A15" s="75" t="s">
         <v>12</v>
       </c>
-      <c r="B15" s="69" t="s">
+      <c r="B15" s="73" t="s">
         <v>47</v>
       </c>
-      <c r="C15" s="69" t="n">
+      <c r="C15" s="73" t="n">
         <v>9006968006093</v>
       </c>
-      <c r="D15" s="69" t="s">
+      <c r="D15" s="73" t="s">
         <v>48</v>
       </c>
-      <c r="E15" s="64" t="s">
+      <c r="E15" s="68" t="s">
         <v>49</v>
       </c>
-      <c r="F15" s="70" t="n">
+      <c r="F15" s="74" t="n">
         <v>6</v>
       </c>
-      <c r="G15" s="70" t="n">
+      <c r="G15" s="74" t="n">
         <v>6</v>
       </c>
-      <c r="H15" s="70" t="n">
+      <c r="H15" s="74" t="n">
         <v>5</v>
       </c>
-      <c r="I15" s="70" t="n">
+      <c r="I15" s="74" t="n">
         <v>6</v>
       </c>
-      <c r="J15" s="70" t="n">
+      <c r="J15" s="74" t="n">
         <v>6</v>
       </c>
-      <c r="K15" s="70" t="n">
+      <c r="K15" s="74" t="n">
         <v>5</v>
       </c>
-      <c r="L15" s="70" t="n">
+      <c r="L15" s="74" t="n">
         <v>4</v>
       </c>
-      <c r="M15" s="70" t="n">
+      <c r="M15" s="74" t="n">
         <v>4</v>
       </c>
-      <c r="N15" s="70" t="n">
+      <c r="N15" s="74" t="n">
         <v>3</v>
       </c>
-      <c r="O15" s="70" t="n">
+      <c r="O15" s="74" t="n">
         <v>3</v>
       </c>
-      <c r="P15" s="70" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q15" s="70" t="n">
+      <c r="P15" s="74" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q15" s="74" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="71" t="s">
+      <c r="A16" s="75" t="s">
         <v>12</v>
       </c>
-      <c r="B16" s="69" t="s">
+      <c r="B16" s="73" t="s">
         <v>60</v>
       </c>
-      <c r="C16" s="69" t="n">
+      <c r="C16" s="73" t="n">
         <v>4030113647256</v>
       </c>
-      <c r="D16" s="69" t="s">
+      <c r="D16" s="73" t="s">
         <v>61</v>
       </c>
-      <c r="E16" s="64" t="s">
+      <c r="E16" s="68" t="s">
         <v>49</v>
       </c>
-      <c r="F16" s="70" t="n">
+      <c r="F16" s="74" t="n">
         <v>6</v>
       </c>
-      <c r="G16" s="70" t="n">
+      <c r="G16" s="74" t="n">
         <v>6</v>
       </c>
-      <c r="H16" s="70" t="n">
+      <c r="H16" s="74" t="n">
         <v>5</v>
       </c>
-      <c r="I16" s="70" t="n">
+      <c r="I16" s="74" t="n">
         <v>6</v>
       </c>
-      <c r="J16" s="70" t="n">
+      <c r="J16" s="74" t="n">
         <v>6</v>
       </c>
-      <c r="K16" s="70" t="n">
+      <c r="K16" s="74" t="n">
         <v>5</v>
       </c>
-      <c r="L16" s="70" t="n">
+      <c r="L16" s="74" t="n">
         <v>4</v>
       </c>
-      <c r="M16" s="70" t="n">
+      <c r="M16" s="74" t="n">
         <v>4</v>
       </c>
-      <c r="N16" s="70" t="n">
+      <c r="N16" s="74" t="n">
         <v>3</v>
       </c>
-      <c r="O16" s="70" t="n">
+      <c r="O16" s="74" t="n">
         <v>3</v>
       </c>
-      <c r="P16" s="70" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q16" s="70" t="n">
+      <c r="P16" s="74" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q16" s="74" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="71" t="s">
+      <c r="A17" s="75" t="s">
         <v>12</v>
       </c>
-      <c r="B17" s="69" t="s">
+      <c r="B17" s="73" t="s">
         <v>68</v>
       </c>
-      <c r="C17" s="69" t="n">
+      <c r="C17" s="73" t="n">
         <v>3582910065432</v>
       </c>
-      <c r="D17" s="69" t="s">
-        <v>82</v>
-      </c>
-      <c r="E17" s="64" t="s">
+      <c r="D17" s="73" t="s">
+        <v>90</v>
+      </c>
+      <c r="E17" s="68" t="s">
         <v>70</v>
       </c>
-      <c r="F17" s="70" t="n">
+      <c r="F17" s="74" t="n">
         <v>4</v>
       </c>
-      <c r="G17" s="70" t="n">
+      <c r="G17" s="74" t="n">
         <v>4</v>
       </c>
-      <c r="H17" s="70" t="n">
+      <c r="H17" s="74" t="n">
         <v>4</v>
       </c>
-      <c r="I17" s="70" t="n">
+      <c r="I17" s="74" t="n">
         <v>4</v>
       </c>
-      <c r="J17" s="70" t="n">
+      <c r="J17" s="74" t="n">
         <v>4</v>
       </c>
-      <c r="K17" s="70" t="n">
+      <c r="K17" s="74" t="n">
         <v>4</v>
       </c>
-      <c r="L17" s="70" t="n">
+      <c r="L17" s="74" t="n">
         <v>3</v>
       </c>
-      <c r="M17" s="70" t="n">
+      <c r="M17" s="74" t="n">
         <v>3</v>
       </c>
-      <c r="N17" s="70" t="n">
+      <c r="N17" s="74" t="n">
         <v>3</v>
       </c>
-      <c r="O17" s="70" t="n">
+      <c r="O17" s="74" t="n">
         <v>3</v>
       </c>
-      <c r="P17" s="70" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q17" s="70" t="n">
+      <c r="P17" s="74" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q17" s="74" t="n">
         <v>0</v>
       </c>
     </row>

--- a/Projects/SANOFIKZ/Data/Template.xlsx
+++ b/Projects/SANOFIKZ/Data/Template.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="1" activeTab="6"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="1" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="KPIs" sheetId="1" state="hidden" r:id="rId2"/>
@@ -518,7 +518,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="465" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="373" uniqueCount="93">
   <si>
     <t xml:space="preserve">KPI Name</t>
   </si>
@@ -742,82 +742,31 @@
     <t xml:space="preserve">BTC  B</t>
   </si>
   <si>
-    <t xml:space="preserve">Lasolvan syrup 30 MG/100ML</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lasolvan tabs #20 30mg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Enterogermina capsule #12</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dulcolax</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dulcolax Pico 7,5mg 30ml</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dulcolax Pico 7,5mg 15ml</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Maalox</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Maalox suspension  15ml #30</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Maalox 400 mg #20</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bronchicum elixir 5mg/100ml </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pinosol</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pinosol drops 3,7mg/10ml</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lasorin</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lasorin nasal spray 1,18mg/10ml</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Vitamin E</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Vitamin E 400mg tabs.#30</t>
+    <t xml:space="preserve">Lasolvan Shelf Talker</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KA-STS-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lasolvan </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bronchicum Shelf Talker</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KA-STS-02</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bronchicum </t>
+  </si>
+  <si>
+    <t xml:space="preserve">No-Spa Shelf Talker</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KA-STS-03</t>
   </si>
   <si>
     <t xml:space="preserve">No-Spa</t>
-  </si>
-  <si>
-    <t xml:space="preserve">No-spa 40 tabs. #24</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lasolvan Shelf Talker</t>
-  </si>
-  <si>
-    <t xml:space="preserve">KA-STS-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lasolvan </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bronchicum Shelf Talker</t>
-  </si>
-  <si>
-    <t xml:space="preserve">KA-STS-02</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bronchicum </t>
-  </si>
-  <si>
-    <t xml:space="preserve">No-Spa Shelf Talker</t>
-  </si>
-  <si>
-    <t xml:space="preserve">KA-STS-03</t>
   </si>
   <si>
     <t xml:space="preserve">Enterogermina Shelf Talker</t>
@@ -1193,7 +1142,7 @@
       <protection locked="true" hidden="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="76">
+  <cellXfs count="72">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1415,22 +1364,6 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="166" fontId="8" fillId="6" borderId="5" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="9" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="167" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="9" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -3246,13 +3179,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:Q2"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D10" activeCellId="0" sqref="D10"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
     <col collapsed="false" hidden="false" max="3" min="1" style="53" width="20.6720647773279"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="53" width="36.9554655870445"/>
@@ -3333,1225 +3266,6 @@
       </c>
       <c r="Q2" s="33" t="s">
         <v>46</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="56" t="s">
-        <v>14</v>
-      </c>
-      <c r="B3" s="37" t="s">
-        <v>48</v>
-      </c>
-      <c r="C3" s="38" t="s">
-        <v>49</v>
-      </c>
-      <c r="D3" s="57" t="s">
-        <v>47</v>
-      </c>
-      <c r="E3" s="58" t="n">
-        <v>9006968006093</v>
-      </c>
-      <c r="F3" s="59" t="n">
-        <v>1</v>
-      </c>
-      <c r="G3" s="59" t="n">
-        <v>1</v>
-      </c>
-      <c r="H3" s="59" t="n">
-        <v>1</v>
-      </c>
-      <c r="I3" s="59" t="n">
-        <v>1</v>
-      </c>
-      <c r="J3" s="59" t="n">
-        <v>1</v>
-      </c>
-      <c r="K3" s="59" t="n">
-        <v>1</v>
-      </c>
-      <c r="L3" s="59" t="n">
-        <v>1</v>
-      </c>
-      <c r="M3" s="59" t="n">
-        <v>1</v>
-      </c>
-      <c r="N3" s="59" t="n">
-        <v>1</v>
-      </c>
-      <c r="O3" s="59" t="n">
-        <v>1</v>
-      </c>
-      <c r="P3" s="59" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q3" s="59" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="56" t="s">
-        <v>14</v>
-      </c>
-      <c r="B4" s="37" t="s">
-        <v>48</v>
-      </c>
-      <c r="C4" s="38" t="s">
-        <v>49</v>
-      </c>
-      <c r="D4" s="57" t="s">
-        <v>74</v>
-      </c>
-      <c r="E4" s="58" t="n">
-        <v>9006968006109</v>
-      </c>
-      <c r="F4" s="59" t="n">
-        <v>0</v>
-      </c>
-      <c r="G4" s="59" t="n">
-        <v>0</v>
-      </c>
-      <c r="H4" s="59" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" s="59" t="n">
-        <v>0</v>
-      </c>
-      <c r="J4" s="59" t="n">
-        <v>0</v>
-      </c>
-      <c r="K4" s="59" t="n">
-        <v>0</v>
-      </c>
-      <c r="L4" s="59" t="n">
-        <v>0</v>
-      </c>
-      <c r="M4" s="59" t="n">
-        <v>0</v>
-      </c>
-      <c r="N4" s="59" t="n">
-        <v>0</v>
-      </c>
-      <c r="O4" s="59" t="n">
-        <v>0</v>
-      </c>
-      <c r="P4" s="59" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q4" s="59" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="56" t="s">
-        <v>14</v>
-      </c>
-      <c r="B5" s="37" t="s">
-        <v>48</v>
-      </c>
-      <c r="C5" s="38" t="s">
-        <v>49</v>
-      </c>
-      <c r="D5" s="57" t="s">
-        <v>51</v>
-      </c>
-      <c r="E5" s="58" t="n">
-        <v>9006968007793</v>
-      </c>
-      <c r="F5" s="59" t="n">
-        <v>0</v>
-      </c>
-      <c r="G5" s="59" t="n">
-        <v>0</v>
-      </c>
-      <c r="H5" s="59" t="n">
-        <v>0</v>
-      </c>
-      <c r="I5" s="59" t="n">
-        <v>0</v>
-      </c>
-      <c r="J5" s="59" t="n">
-        <v>0</v>
-      </c>
-      <c r="K5" s="59" t="n">
-        <v>0</v>
-      </c>
-      <c r="L5" s="59" t="n">
-        <v>0</v>
-      </c>
-      <c r="M5" s="59" t="n">
-        <v>0</v>
-      </c>
-      <c r="N5" s="59" t="n">
-        <v>0</v>
-      </c>
-      <c r="O5" s="59" t="n">
-        <v>0</v>
-      </c>
-      <c r="P5" s="59" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q5" s="59" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="56" t="s">
-        <v>14</v>
-      </c>
-      <c r="B6" s="37" t="s">
-        <v>48</v>
-      </c>
-      <c r="C6" s="38" t="s">
-        <v>49</v>
-      </c>
-      <c r="D6" s="57" t="s">
-        <v>75</v>
-      </c>
-      <c r="E6" s="58" t="n">
-        <v>9006968005874</v>
-      </c>
-      <c r="F6" s="59" t="n">
-        <v>0</v>
-      </c>
-      <c r="G6" s="59" t="n">
-        <v>0</v>
-      </c>
-      <c r="H6" s="59" t="n">
-        <v>0</v>
-      </c>
-      <c r="I6" s="59" t="n">
-        <v>0</v>
-      </c>
-      <c r="J6" s="59" t="n">
-        <v>0</v>
-      </c>
-      <c r="K6" s="59" t="n">
-        <v>0</v>
-      </c>
-      <c r="L6" s="59" t="n">
-        <v>0</v>
-      </c>
-      <c r="M6" s="59" t="n">
-        <v>0</v>
-      </c>
-      <c r="N6" s="59" t="n">
-        <v>0</v>
-      </c>
-      <c r="O6" s="59" t="n">
-        <v>0</v>
-      </c>
-      <c r="P6" s="59" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q6" s="59" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="56" t="s">
-        <v>14</v>
-      </c>
-      <c r="B7" s="37" t="s">
-        <v>53</v>
-      </c>
-      <c r="C7" s="37" t="s">
-        <v>54</v>
-      </c>
-      <c r="D7" s="57" t="s">
-        <v>52</v>
-      </c>
-      <c r="E7" s="58" t="n">
-        <v>3582910031185</v>
-      </c>
-      <c r="F7" s="59" t="n">
-        <v>0</v>
-      </c>
-      <c r="G7" s="59" t="n">
-        <v>0</v>
-      </c>
-      <c r="H7" s="59" t="n">
-        <v>0</v>
-      </c>
-      <c r="I7" s="59" t="n">
-        <v>0</v>
-      </c>
-      <c r="J7" s="59" t="n">
-        <v>0</v>
-      </c>
-      <c r="K7" s="59" t="n">
-        <v>0</v>
-      </c>
-      <c r="L7" s="59" t="n">
-        <v>0</v>
-      </c>
-      <c r="M7" s="59" t="n">
-        <v>0</v>
-      </c>
-      <c r="N7" s="59" t="n">
-        <v>0</v>
-      </c>
-      <c r="O7" s="59" t="n">
-        <v>0</v>
-      </c>
-      <c r="P7" s="59" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q7" s="59" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="56" t="s">
-        <v>14</v>
-      </c>
-      <c r="B8" s="37" t="s">
-        <v>53</v>
-      </c>
-      <c r="C8" s="37" t="s">
-        <v>54</v>
-      </c>
-      <c r="D8" s="37" t="s">
-        <v>55</v>
-      </c>
-      <c r="E8" s="58" t="n">
-        <v>3582910079149</v>
-      </c>
-      <c r="F8" s="59" t="n">
-        <v>0</v>
-      </c>
-      <c r="G8" s="59" t="n">
-        <v>0</v>
-      </c>
-      <c r="H8" s="59" t="n">
-        <v>0</v>
-      </c>
-      <c r="I8" s="59" t="n">
-        <v>0</v>
-      </c>
-      <c r="J8" s="59" t="n">
-        <v>0</v>
-      </c>
-      <c r="K8" s="59" t="n">
-        <v>0</v>
-      </c>
-      <c r="L8" s="59" t="n">
-        <v>0</v>
-      </c>
-      <c r="M8" s="59" t="n">
-        <v>0</v>
-      </c>
-      <c r="N8" s="59" t="n">
-        <v>0</v>
-      </c>
-      <c r="O8" s="59" t="n">
-        <v>0</v>
-      </c>
-      <c r="P8" s="59" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q8" s="59" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="56" t="s">
-        <v>14</v>
-      </c>
-      <c r="B9" s="37" t="s">
-        <v>53</v>
-      </c>
-      <c r="C9" s="37" t="s">
-        <v>54</v>
-      </c>
-      <c r="D9" s="37" t="s">
-        <v>76</v>
-      </c>
-      <c r="E9" s="58" t="n">
-        <v>3582910037132</v>
-      </c>
-      <c r="F9" s="59" t="n">
-        <v>0</v>
-      </c>
-      <c r="G9" s="59" t="n">
-        <v>0</v>
-      </c>
-      <c r="H9" s="59" t="n">
-        <v>0</v>
-      </c>
-      <c r="I9" s="59" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" s="59" t="n">
-        <v>0</v>
-      </c>
-      <c r="K9" s="59" t="n">
-        <v>0</v>
-      </c>
-      <c r="L9" s="59" t="n">
-        <v>0</v>
-      </c>
-      <c r="M9" s="59" t="n">
-        <v>0</v>
-      </c>
-      <c r="N9" s="59" t="n">
-        <v>0</v>
-      </c>
-      <c r="O9" s="59" t="n">
-        <v>0</v>
-      </c>
-      <c r="P9" s="59" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q9" s="59" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="56" t="s">
-        <v>14</v>
-      </c>
-      <c r="B10" s="53" t="s">
-        <v>57</v>
-      </c>
-      <c r="C10" s="53" t="s">
-        <v>54</v>
-      </c>
-      <c r="D10" s="53" t="s">
-        <v>56</v>
-      </c>
-      <c r="E10" s="58" t="n">
-        <v>4030113618119</v>
-      </c>
-      <c r="F10" s="59" t="n">
-        <v>0</v>
-      </c>
-      <c r="G10" s="59" t="n">
-        <v>0</v>
-      </c>
-      <c r="H10" s="59" t="n">
-        <v>0</v>
-      </c>
-      <c r="I10" s="59" t="n">
-        <v>0</v>
-      </c>
-      <c r="J10" s="59" t="n">
-        <v>0</v>
-      </c>
-      <c r="K10" s="59" t="n">
-        <v>0</v>
-      </c>
-      <c r="L10" s="59" t="n">
-        <v>0</v>
-      </c>
-      <c r="M10" s="59" t="n">
-        <v>0</v>
-      </c>
-      <c r="N10" s="59" t="n">
-        <v>0</v>
-      </c>
-      <c r="O10" s="59" t="n">
-        <v>0</v>
-      </c>
-      <c r="P10" s="59" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q10" s="59" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="56" t="s">
-        <v>14</v>
-      </c>
-      <c r="B11" s="53" t="s">
-        <v>59</v>
-      </c>
-      <c r="C11" s="53" t="s">
-        <v>54</v>
-      </c>
-      <c r="D11" s="53" t="s">
-        <v>58</v>
-      </c>
-      <c r="E11" s="58" t="n">
-        <v>8901083000470</v>
-      </c>
-      <c r="F11" s="59" t="n">
-        <v>0</v>
-      </c>
-      <c r="G11" s="59" t="n">
-        <v>0</v>
-      </c>
-      <c r="H11" s="59" t="n">
-        <v>0</v>
-      </c>
-      <c r="I11" s="59" t="n">
-        <v>0</v>
-      </c>
-      <c r="J11" s="59" t="n">
-        <v>0</v>
-      </c>
-      <c r="K11" s="59" t="n">
-        <v>0</v>
-      </c>
-      <c r="L11" s="59" t="n">
-        <v>0</v>
-      </c>
-      <c r="M11" s="59" t="n">
-        <v>0</v>
-      </c>
-      <c r="N11" s="59" t="n">
-        <v>0</v>
-      </c>
-      <c r="O11" s="59" t="n">
-        <v>0</v>
-      </c>
-      <c r="P11" s="59" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q11" s="59" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="56" t="s">
-        <v>14</v>
-      </c>
-      <c r="B12" s="53" t="s">
-        <v>77</v>
-      </c>
-      <c r="C12" s="53" t="s">
-        <v>54</v>
-      </c>
-      <c r="D12" s="53" t="s">
-        <v>78</v>
-      </c>
-      <c r="E12" s="58" t="n">
-        <v>9006968007212</v>
-      </c>
-      <c r="F12" s="59" t="n">
-        <v>0</v>
-      </c>
-      <c r="G12" s="59" t="n">
-        <v>0</v>
-      </c>
-      <c r="H12" s="59" t="n">
-        <v>0</v>
-      </c>
-      <c r="I12" s="59" t="n">
-        <v>0</v>
-      </c>
-      <c r="J12" s="59" t="n">
-        <v>0</v>
-      </c>
-      <c r="K12" s="59" t="n">
-        <v>0</v>
-      </c>
-      <c r="L12" s="59" t="n">
-        <v>0</v>
-      </c>
-      <c r="M12" s="59" t="n">
-        <v>0</v>
-      </c>
-      <c r="N12" s="59" t="n">
-        <v>0</v>
-      </c>
-      <c r="O12" s="59" t="n">
-        <v>0</v>
-      </c>
-      <c r="P12" s="59" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q12" s="59" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="56" t="s">
-        <v>14</v>
-      </c>
-      <c r="B13" s="53" t="s">
-        <v>77</v>
-      </c>
-      <c r="C13" s="53" t="s">
-        <v>54</v>
-      </c>
-      <c r="D13" s="53" t="s">
-        <v>79</v>
-      </c>
-      <c r="E13" s="58" t="n">
-        <v>9006968007229</v>
-      </c>
-      <c r="F13" s="59" t="n">
-        <v>0</v>
-      </c>
-      <c r="G13" s="59" t="n">
-        <v>0</v>
-      </c>
-      <c r="H13" s="59" t="n">
-        <v>0</v>
-      </c>
-      <c r="I13" s="59" t="n">
-        <v>0</v>
-      </c>
-      <c r="J13" s="59" t="n">
-        <v>0</v>
-      </c>
-      <c r="K13" s="59" t="n">
-        <v>0</v>
-      </c>
-      <c r="L13" s="59" t="n">
-        <v>0</v>
-      </c>
-      <c r="M13" s="59" t="n">
-        <v>0</v>
-      </c>
-      <c r="N13" s="59" t="n">
-        <v>0</v>
-      </c>
-      <c r="O13" s="59" t="n">
-        <v>0</v>
-      </c>
-      <c r="P13" s="59" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q13" s="59" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="56" t="s">
-        <v>14</v>
-      </c>
-      <c r="B14" s="53" t="s">
-        <v>80</v>
-      </c>
-      <c r="C14" s="53" t="s">
-        <v>54</v>
-      </c>
-      <c r="D14" s="53" t="s">
-        <v>81</v>
-      </c>
-      <c r="E14" s="58" t="n">
-        <v>3582910023449</v>
-      </c>
-      <c r="F14" s="59" t="n">
-        <v>0</v>
-      </c>
-      <c r="G14" s="59" t="n">
-        <v>0</v>
-      </c>
-      <c r="H14" s="59" t="n">
-        <v>0</v>
-      </c>
-      <c r="I14" s="59" t="n">
-        <v>0</v>
-      </c>
-      <c r="J14" s="59" t="n">
-        <v>0</v>
-      </c>
-      <c r="K14" s="59" t="n">
-        <v>0</v>
-      </c>
-      <c r="L14" s="59" t="n">
-        <v>0</v>
-      </c>
-      <c r="M14" s="59" t="n">
-        <v>0</v>
-      </c>
-      <c r="N14" s="59" t="n">
-        <v>0</v>
-      </c>
-      <c r="O14" s="59" t="n">
-        <v>0</v>
-      </c>
-      <c r="P14" s="59" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q14" s="59" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="56" t="s">
-        <v>14</v>
-      </c>
-      <c r="B15" s="53" t="s">
-        <v>80</v>
-      </c>
-      <c r="C15" s="53" t="s">
-        <v>54</v>
-      </c>
-      <c r="D15" s="53" t="s">
-        <v>82</v>
-      </c>
-      <c r="E15" s="58" t="n">
-        <v>3582910059264</v>
-      </c>
-      <c r="F15" s="59" t="n">
-        <v>0</v>
-      </c>
-      <c r="G15" s="59" t="n">
-        <v>0</v>
-      </c>
-      <c r="H15" s="59" t="n">
-        <v>0</v>
-      </c>
-      <c r="I15" s="59" t="n">
-        <v>0</v>
-      </c>
-      <c r="J15" s="59" t="n">
-        <v>0</v>
-      </c>
-      <c r="K15" s="59" t="n">
-        <v>0</v>
-      </c>
-      <c r="L15" s="59" t="n">
-        <v>0</v>
-      </c>
-      <c r="M15" s="59" t="n">
-        <v>0</v>
-      </c>
-      <c r="N15" s="59" t="n">
-        <v>0</v>
-      </c>
-      <c r="O15" s="59" t="n">
-        <v>0</v>
-      </c>
-      <c r="P15" s="59" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q15" s="59" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="56" t="s">
-        <v>14</v>
-      </c>
-      <c r="B16" s="53" t="s">
-        <v>61</v>
-      </c>
-      <c r="C16" s="38" t="s">
-        <v>49</v>
-      </c>
-      <c r="D16" s="53" t="s">
-        <v>60</v>
-      </c>
-      <c r="E16" s="58" t="n">
-        <v>4030113647256</v>
-      </c>
-      <c r="F16" s="59" t="n">
-        <v>1</v>
-      </c>
-      <c r="G16" s="59" t="n">
-        <v>1</v>
-      </c>
-      <c r="H16" s="59" t="n">
-        <v>1</v>
-      </c>
-      <c r="I16" s="59" t="n">
-        <v>1</v>
-      </c>
-      <c r="J16" s="59" t="n">
-        <v>1</v>
-      </c>
-      <c r="K16" s="59" t="n">
-        <v>1</v>
-      </c>
-      <c r="L16" s="59" t="n">
-        <v>1</v>
-      </c>
-      <c r="M16" s="59" t="n">
-        <v>1</v>
-      </c>
-      <c r="N16" s="59" t="n">
-        <v>1</v>
-      </c>
-      <c r="O16" s="59" t="n">
-        <v>1</v>
-      </c>
-      <c r="P16" s="59" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q16" s="59" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="56" t="s">
-        <v>14</v>
-      </c>
-      <c r="B17" s="53" t="s">
-        <v>61</v>
-      </c>
-      <c r="C17" s="38" t="s">
-        <v>49</v>
-      </c>
-      <c r="D17" s="53" t="s">
-        <v>83</v>
-      </c>
-      <c r="E17" s="58" t="n">
-        <v>4030113647249</v>
-      </c>
-      <c r="F17" s="59" t="n">
-        <v>0</v>
-      </c>
-      <c r="G17" s="59" t="n">
-        <v>0</v>
-      </c>
-      <c r="H17" s="59" t="n">
-        <v>0</v>
-      </c>
-      <c r="I17" s="59" t="n">
-        <v>0</v>
-      </c>
-      <c r="J17" s="59" t="n">
-        <v>0</v>
-      </c>
-      <c r="K17" s="59" t="n">
-        <v>0</v>
-      </c>
-      <c r="L17" s="59" t="n">
-        <v>0</v>
-      </c>
-      <c r="M17" s="59" t="n">
-        <v>0</v>
-      </c>
-      <c r="N17" s="59" t="n">
-        <v>0</v>
-      </c>
-      <c r="O17" s="59" t="n">
-        <v>0</v>
-      </c>
-      <c r="P17" s="59" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q17" s="59" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="56" t="s">
-        <v>14</v>
-      </c>
-      <c r="B18" s="53" t="s">
-        <v>61</v>
-      </c>
-      <c r="C18" s="38" t="s">
-        <v>49</v>
-      </c>
-      <c r="D18" s="53" t="s">
-        <v>62</v>
-      </c>
-      <c r="E18" s="58" t="n">
-        <v>3582910068693</v>
-      </c>
-      <c r="F18" s="59" t="n">
-        <v>0</v>
-      </c>
-      <c r="G18" s="59" t="n">
-        <v>0</v>
-      </c>
-      <c r="H18" s="59" t="n">
-        <v>0</v>
-      </c>
-      <c r="I18" s="59" t="n">
-        <v>0</v>
-      </c>
-      <c r="J18" s="59" t="n">
-        <v>0</v>
-      </c>
-      <c r="K18" s="59" t="n">
-        <v>0</v>
-      </c>
-      <c r="L18" s="59" t="n">
-        <v>0</v>
-      </c>
-      <c r="M18" s="59" t="n">
-        <v>0</v>
-      </c>
-      <c r="N18" s="59" t="n">
-        <v>0</v>
-      </c>
-      <c r="O18" s="59" t="n">
-        <v>0</v>
-      </c>
-      <c r="P18" s="59" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q18" s="59" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="56" t="s">
-        <v>14</v>
-      </c>
-      <c r="B19" s="53" t="s">
-        <v>84</v>
-      </c>
-      <c r="C19" s="38" t="s">
-        <v>49</v>
-      </c>
-      <c r="D19" s="53" t="s">
-        <v>85</v>
-      </c>
-      <c r="E19" s="58" t="n">
-        <v>8584005040985</v>
-      </c>
-      <c r="F19" s="59" t="n">
-        <v>0</v>
-      </c>
-      <c r="G19" s="59" t="n">
-        <v>0</v>
-      </c>
-      <c r="H19" s="59" t="n">
-        <v>0</v>
-      </c>
-      <c r="I19" s="59" t="n">
-        <v>0</v>
-      </c>
-      <c r="J19" s="59" t="n">
-        <v>0</v>
-      </c>
-      <c r="K19" s="59" t="n">
-        <v>0</v>
-      </c>
-      <c r="L19" s="59" t="n">
-        <v>0</v>
-      </c>
-      <c r="M19" s="59" t="n">
-        <v>0</v>
-      </c>
-      <c r="N19" s="59" t="n">
-        <v>0</v>
-      </c>
-      <c r="O19" s="59" t="n">
-        <v>0</v>
-      </c>
-      <c r="P19" s="59" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q19" s="59" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="56" t="s">
-        <v>14</v>
-      </c>
-      <c r="B20" s="53" t="s">
-        <v>86</v>
-      </c>
-      <c r="C20" s="38" t="s">
-        <v>49</v>
-      </c>
-      <c r="D20" s="53" t="s">
-        <v>87</v>
-      </c>
-      <c r="E20" s="58" t="n">
-        <v>9006968011431</v>
-      </c>
-      <c r="F20" s="59" t="n">
-        <v>0</v>
-      </c>
-      <c r="G20" s="59" t="n">
-        <v>0</v>
-      </c>
-      <c r="H20" s="59" t="n">
-        <v>0</v>
-      </c>
-      <c r="I20" s="59" t="n">
-        <v>0</v>
-      </c>
-      <c r="J20" s="59" t="n">
-        <v>0</v>
-      </c>
-      <c r="K20" s="59" t="n">
-        <v>0</v>
-      </c>
-      <c r="L20" s="59" t="n">
-        <v>0</v>
-      </c>
-      <c r="M20" s="59" t="n">
-        <v>0</v>
-      </c>
-      <c r="N20" s="59" t="n">
-        <v>0</v>
-      </c>
-      <c r="O20" s="59" t="n">
-        <v>0</v>
-      </c>
-      <c r="P20" s="59" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q20" s="59" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="56" t="s">
-        <v>14</v>
-      </c>
-      <c r="B21" s="53" t="s">
-        <v>64</v>
-      </c>
-      <c r="C21" s="37" t="s">
-        <v>65</v>
-      </c>
-      <c r="D21" s="53" t="s">
-        <v>63</v>
-      </c>
-      <c r="E21" s="58" t="n">
-        <v>3582910013525</v>
-      </c>
-      <c r="F21" s="59" t="n">
-        <v>0</v>
-      </c>
-      <c r="G21" s="59" t="n">
-        <v>0</v>
-      </c>
-      <c r="H21" s="59" t="n">
-        <v>0</v>
-      </c>
-      <c r="I21" s="59" t="n">
-        <v>0</v>
-      </c>
-      <c r="J21" s="59" t="n">
-        <v>0</v>
-      </c>
-      <c r="K21" s="59" t="n">
-        <v>0</v>
-      </c>
-      <c r="L21" s="59" t="n">
-        <v>0</v>
-      </c>
-      <c r="M21" s="59" t="n">
-        <v>0</v>
-      </c>
-      <c r="N21" s="59" t="n">
-        <v>0</v>
-      </c>
-      <c r="O21" s="59" t="n">
-        <v>0</v>
-      </c>
-      <c r="P21" s="59" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q21" s="59" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="56" t="s">
-        <v>14</v>
-      </c>
-      <c r="B22" s="53" t="s">
-        <v>64</v>
-      </c>
-      <c r="C22" s="37" t="s">
-        <v>65</v>
-      </c>
-      <c r="D22" s="53" t="s">
-        <v>66</v>
-      </c>
-      <c r="E22" s="58" t="n">
-        <v>3582910052203</v>
-      </c>
-      <c r="F22" s="59" t="n">
-        <v>0</v>
-      </c>
-      <c r="G22" s="59" t="n">
-        <v>0</v>
-      </c>
-      <c r="H22" s="59" t="n">
-        <v>0</v>
-      </c>
-      <c r="I22" s="59" t="n">
-        <v>0</v>
-      </c>
-      <c r="J22" s="59" t="n">
-        <v>0</v>
-      </c>
-      <c r="K22" s="59" t="n">
-        <v>0</v>
-      </c>
-      <c r="L22" s="59" t="n">
-        <v>0</v>
-      </c>
-      <c r="M22" s="59" t="n">
-        <v>0</v>
-      </c>
-      <c r="N22" s="59" t="n">
-        <v>0</v>
-      </c>
-      <c r="O22" s="59" t="n">
-        <v>0</v>
-      </c>
-      <c r="P22" s="59" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q22" s="59" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="56" t="s">
-        <v>14</v>
-      </c>
-      <c r="B23" s="53" t="s">
-        <v>64</v>
-      </c>
-      <c r="C23" s="37" t="s">
-        <v>65</v>
-      </c>
-      <c r="D23" s="53" t="s">
-        <v>67</v>
-      </c>
-      <c r="E23" s="58" t="n">
-        <v>3582910026006</v>
-      </c>
-      <c r="F23" s="59" t="n">
-        <v>0</v>
-      </c>
-      <c r="G23" s="59" t="n">
-        <v>0</v>
-      </c>
-      <c r="H23" s="59" t="n">
-        <v>0</v>
-      </c>
-      <c r="I23" s="59" t="n">
-        <v>0</v>
-      </c>
-      <c r="J23" s="59" t="n">
-        <v>0</v>
-      </c>
-      <c r="K23" s="59" t="n">
-        <v>0</v>
-      </c>
-      <c r="L23" s="59" t="n">
-        <v>0</v>
-      </c>
-      <c r="M23" s="59" t="n">
-        <v>0</v>
-      </c>
-      <c r="N23" s="59" t="n">
-        <v>0</v>
-      </c>
-      <c r="O23" s="59" t="n">
-        <v>0</v>
-      </c>
-      <c r="P23" s="59" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q23" s="59" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="56" t="s">
-        <v>14</v>
-      </c>
-      <c r="B24" s="53" t="s">
-        <v>88</v>
-      </c>
-      <c r="C24" s="37" t="s">
-        <v>65</v>
-      </c>
-      <c r="D24" s="53" t="s">
-        <v>89</v>
-      </c>
-      <c r="E24" s="58" t="n">
-        <v>8584005053992</v>
-      </c>
-      <c r="F24" s="59" t="n">
-        <v>0</v>
-      </c>
-      <c r="G24" s="59" t="n">
-        <v>0</v>
-      </c>
-      <c r="H24" s="59" t="n">
-        <v>0</v>
-      </c>
-      <c r="I24" s="59" t="n">
-        <v>0</v>
-      </c>
-      <c r="J24" s="59" t="n">
-        <v>0</v>
-      </c>
-      <c r="K24" s="59" t="n">
-        <v>0</v>
-      </c>
-      <c r="L24" s="59" t="n">
-        <v>0</v>
-      </c>
-      <c r="M24" s="59" t="n">
-        <v>0</v>
-      </c>
-      <c r="N24" s="59" t="n">
-        <v>0</v>
-      </c>
-      <c r="O24" s="59" t="n">
-        <v>0</v>
-      </c>
-      <c r="P24" s="59" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q24" s="59" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="56" t="s">
-        <v>14</v>
-      </c>
-      <c r="B25" s="53" t="s">
-        <v>90</v>
-      </c>
-      <c r="C25" s="53" t="s">
-        <v>70</v>
-      </c>
-      <c r="D25" s="53" t="s">
-        <v>91</v>
-      </c>
-      <c r="E25" s="58" t="n">
-        <v>3582910065432</v>
-      </c>
-      <c r="F25" s="59" t="n">
-        <v>1</v>
-      </c>
-      <c r="G25" s="59" t="n">
-        <v>1</v>
-      </c>
-      <c r="H25" s="59" t="n">
-        <v>1</v>
-      </c>
-      <c r="I25" s="59" t="n">
-        <v>1</v>
-      </c>
-      <c r="J25" s="59" t="n">
-        <v>1</v>
-      </c>
-      <c r="K25" s="59" t="n">
-        <v>1</v>
-      </c>
-      <c r="L25" s="59" t="n">
-        <v>1</v>
-      </c>
-      <c r="M25" s="59" t="n">
-        <v>1</v>
-      </c>
-      <c r="N25" s="59" t="n">
-        <v>1</v>
-      </c>
-      <c r="O25" s="59" t="n">
-        <v>1</v>
-      </c>
-      <c r="P25" s="59" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q25" s="59" t="n">
-        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4577,23 +3291,23 @@
   <dimension ref="A1:Q11"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D3" activeCellId="0" sqref="D3"/>
+      <selection pane="topLeft" activeCell="B3" activeCellId="0" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="60" width="28.2793522267206"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="56" width="28.2793522267206"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="38" width="32.1376518218623"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="60" width="21.8542510121457"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="56" width="21.8542510121457"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="38" width="26.1376518218623"/>
     <col collapsed="false" hidden="false" max="5" min="5" style="38" width="18.7449392712551"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="60" width="13.7125506072874"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="60" width="12.4251012145749"/>
-    <col collapsed="false" hidden="false" max="14" min="8" style="60" width="8.89068825910931"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="60" width="10.3886639676113"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="60" width="11.4615384615385"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="60" width="10.3886639676113"/>
-    <col collapsed="false" hidden="false" max="1025" min="18" style="61" width="8.89068825910931"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="56" width="13.7125506072874"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="56" width="12.4251012145749"/>
+    <col collapsed="false" hidden="false" max="14" min="8" style="56" width="8.89068825910931"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="56" width="10.3886639676113"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="56" width="11.4615384615385"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="56" width="10.3886639676113"/>
+    <col collapsed="false" hidden="false" max="1025" min="18" style="57" width="8.89068825910931"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4618,19 +3332,19 @@
       <c r="Q1" s="47"/>
     </row>
     <row r="2" customFormat="false" ht="63" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="62" t="s">
+      <c r="A2" s="58" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="62" t="s">
+      <c r="B2" s="58" t="s">
         <v>31</v>
       </c>
-      <c r="C2" s="62" t="s">
+      <c r="C2" s="58" t="s">
         <v>32</v>
       </c>
-      <c r="D2" s="62" t="s">
+      <c r="D2" s="58" t="s">
         <v>33</v>
       </c>
-      <c r="E2" s="62" t="s">
+      <c r="E2" s="58" t="s">
         <v>34</v>
       </c>
       <c r="F2" s="48" t="s">
@@ -4671,17 +3385,17 @@
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="63" t="s">
+      <c r="A3" s="59" t="s">
         <v>7</v>
       </c>
       <c r="B3" s="35" t="s">
-        <v>92</v>
-      </c>
-      <c r="C3" s="60" t="s">
-        <v>93</v>
-      </c>
-      <c r="D3" s="64" t="s">
-        <v>94</v>
+        <v>74</v>
+      </c>
+      <c r="C3" s="56" t="s">
+        <v>75</v>
+      </c>
+      <c r="D3" s="60" t="s">
+        <v>76</v>
       </c>
       <c r="E3" s="38" t="s">
         <v>49</v>
@@ -4724,17 +3438,17 @@
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="63" t="s">
+      <c r="A4" s="59" t="s">
         <v>7</v>
       </c>
       <c r="B4" s="35" t="s">
-        <v>95</v>
-      </c>
-      <c r="C4" s="60" t="s">
-        <v>96</v>
-      </c>
-      <c r="D4" s="65" t="s">
-        <v>97</v>
+        <v>77</v>
+      </c>
+      <c r="C4" s="56" t="s">
+        <v>78</v>
+      </c>
+      <c r="D4" s="61" t="s">
+        <v>79</v>
       </c>
       <c r="E4" s="38" t="s">
         <v>49</v>
@@ -4777,17 +3491,17 @@
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="63" t="s">
+      <c r="A5" s="59" t="s">
         <v>7</v>
       </c>
       <c r="B5" s="35" t="s">
-        <v>98</v>
-      </c>
-      <c r="C5" s="60" t="s">
-        <v>99</v>
-      </c>
-      <c r="D5" s="65" t="s">
-        <v>90</v>
+        <v>80</v>
+      </c>
+      <c r="C5" s="56" t="s">
+        <v>81</v>
+      </c>
+      <c r="D5" s="61" t="s">
+        <v>82</v>
       </c>
       <c r="E5" s="38" t="s">
         <v>70</v>
@@ -4830,17 +3544,17 @@
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="66" t="s">
+      <c r="A6" s="62" t="s">
         <v>17</v>
       </c>
       <c r="B6" s="35" t="s">
-        <v>92</v>
-      </c>
-      <c r="C6" s="60" t="s">
-        <v>93</v>
-      </c>
-      <c r="D6" s="65" t="s">
-        <v>94</v>
+        <v>74</v>
+      </c>
+      <c r="C6" s="56" t="s">
+        <v>75</v>
+      </c>
+      <c r="D6" s="61" t="s">
+        <v>76</v>
       </c>
       <c r="E6" s="38" t="s">
         <v>49</v>
@@ -4883,17 +3597,17 @@
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="66" t="s">
+      <c r="A7" s="62" t="s">
         <v>17</v>
       </c>
       <c r="B7" s="35" t="s">
-        <v>95</v>
-      </c>
-      <c r="C7" s="60" t="s">
-        <v>96</v>
-      </c>
-      <c r="D7" s="67" t="s">
-        <v>97</v>
+        <v>77</v>
+      </c>
+      <c r="C7" s="56" t="s">
+        <v>78</v>
+      </c>
+      <c r="D7" s="63" t="s">
+        <v>79</v>
       </c>
       <c r="E7" s="38" t="s">
         <v>49</v>
@@ -4936,19 +3650,19 @@
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="66" t="s">
+      <c r="A8" s="62" t="s">
         <v>17</v>
       </c>
       <c r="B8" s="35" t="s">
-        <v>100</v>
-      </c>
-      <c r="C8" s="60" t="s">
-        <v>101</v>
-      </c>
-      <c r="D8" s="67" t="s">
+        <v>83</v>
+      </c>
+      <c r="C8" s="56" t="s">
+        <v>84</v>
+      </c>
+      <c r="D8" s="63" t="s">
         <v>53</v>
       </c>
-      <c r="E8" s="65" t="s">
+      <c r="E8" s="61" t="s">
         <v>54</v>
       </c>
       <c r="F8" s="50" t="n">
@@ -4989,19 +3703,19 @@
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="66" t="s">
+      <c r="A9" s="62" t="s">
         <v>17</v>
       </c>
       <c r="B9" s="35" t="s">
-        <v>102</v>
-      </c>
-      <c r="C9" s="60" t="s">
-        <v>103</v>
-      </c>
-      <c r="D9" s="67" t="s">
-        <v>104</v>
-      </c>
-      <c r="E9" s="65" t="s">
+        <v>85</v>
+      </c>
+      <c r="C9" s="56" t="s">
+        <v>86</v>
+      </c>
+      <c r="D9" s="63" t="s">
+        <v>87</v>
+      </c>
+      <c r="E9" s="61" t="s">
         <v>54</v>
       </c>
       <c r="F9" s="50" t="n">
@@ -5042,17 +3756,17 @@
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="66" t="s">
+      <c r="A10" s="62" t="s">
         <v>17</v>
       </c>
       <c r="B10" s="38" t="s">
-        <v>105</v>
-      </c>
-      <c r="C10" s="60" t="s">
-        <v>106</v>
+        <v>88</v>
+      </c>
+      <c r="C10" s="56" t="s">
+        <v>89</v>
       </c>
       <c r="D10" s="38" t="s">
-        <v>107</v>
+        <v>90</v>
       </c>
       <c r="E10" s="38" t="s">
         <v>65</v>
@@ -5095,14 +3809,14 @@
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="66" t="s">
+      <c r="A11" s="62" t="s">
         <v>17</v>
       </c>
       <c r="B11" s="38" t="s">
-        <v>108</v>
-      </c>
-      <c r="C11" s="60" t="s">
-        <v>109</v>
+        <v>91</v>
+      </c>
+      <c r="C11" s="56" t="s">
+        <v>92</v>
       </c>
       <c r="D11" s="38" t="s">
         <v>59</v>
@@ -5169,32 +3883,32 @@
   </sheetPr>
   <dimension ref="A1:Q17"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A18" activeCellId="0" sqref="A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="68" width="30.8502024291498"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="68" width="42.6315789473684"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="68" width="18.6396761133603"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="68" width="17.4615384615385"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="68" width="16.3886639676113"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="68" width="10.7125506072875"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="68" width="10.9271255060729"/>
-    <col collapsed="false" hidden="false" max="14" min="8" style="68" width="8.89068825910931"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="68" width="10.3886639676113"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="68" width="11.5708502024291"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="68" width="8.89068825910931"/>
-    <col collapsed="false" hidden="false" max="1025" min="18" style="69" width="8.89068825910931"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="64" width="30.8502024291498"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="64" width="42.6315789473684"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="64" width="18.6396761133603"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="64" width="17.4615384615385"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="64" width="16.3886639676113"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="64" width="10.7125506072875"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="64" width="10.9271255060729"/>
+    <col collapsed="false" hidden="false" max="14" min="8" style="64" width="8.89068825910931"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="64" width="10.3886639676113"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="64" width="11.5708502024291"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="64" width="8.89068825910931"/>
+    <col collapsed="false" hidden="false" max="1025" min="18" style="65" width="8.89068825910931"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="70"/>
-      <c r="B1" s="70"/>
-      <c r="C1" s="70"/>
-      <c r="D1" s="70"/>
-      <c r="E1" s="70"/>
+      <c r="A1" s="66"/>
+      <c r="B1" s="66"/>
+      <c r="C1" s="66"/>
+      <c r="D1" s="66"/>
+      <c r="E1" s="66"/>
       <c r="F1" s="47" t="s">
         <v>30</v>
       </c>
@@ -5211,19 +3925,19 @@
       <c r="Q1" s="47"/>
     </row>
     <row r="2" customFormat="false" ht="63" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="71" t="s">
+      <c r="A2" s="67" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="71" t="s">
+      <c r="B2" s="67" t="s">
         <v>31</v>
       </c>
-      <c r="C2" s="71" t="s">
+      <c r="C2" s="67" t="s">
         <v>32</v>
       </c>
-      <c r="D2" s="62" t="s">
+      <c r="D2" s="58" t="s">
         <v>33</v>
       </c>
-      <c r="E2" s="62" t="s">
+      <c r="E2" s="58" t="s">
         <v>34</v>
       </c>
       <c r="F2" s="48" t="s">
@@ -5264,797 +3978,797 @@
       </c>
     </row>
     <row r="3" customFormat="false" ht="25.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="72" t="s">
+      <c r="A3" s="68" t="s">
         <v>29</v>
       </c>
-      <c r="B3" s="73" t="s">
+      <c r="B3" s="69" t="s">
         <v>47</v>
       </c>
-      <c r="C3" s="73" t="n">
+      <c r="C3" s="69" t="n">
         <v>9006968006093</v>
       </c>
-      <c r="D3" s="73" t="s">
+      <c r="D3" s="69" t="s">
         <v>48</v>
       </c>
-      <c r="E3" s="68" t="s">
+      <c r="E3" s="64" t="s">
         <v>49</v>
       </c>
-      <c r="F3" s="74" t="n">
+      <c r="F3" s="70" t="n">
         <v>3</v>
       </c>
-      <c r="G3" s="74" t="n">
+      <c r="G3" s="70" t="n">
         <v>3</v>
       </c>
-      <c r="H3" s="74" t="n">
-        <v>1</v>
-      </c>
-      <c r="I3" s="74" t="n">
-        <v>2</v>
-      </c>
-      <c r="J3" s="74" t="n">
-        <v>2</v>
-      </c>
-      <c r="K3" s="74" t="n">
-        <v>1</v>
-      </c>
-      <c r="L3" s="74" t="n">
-        <v>2</v>
-      </c>
-      <c r="M3" s="74" t="n">
-        <v>2</v>
-      </c>
-      <c r="N3" s="74" t="n">
-        <v>1</v>
-      </c>
-      <c r="O3" s="74" t="n">
-        <v>2</v>
-      </c>
-      <c r="P3" s="74" t="n">
+      <c r="H3" s="70" t="n">
+        <v>1</v>
+      </c>
+      <c r="I3" s="70" t="n">
+        <v>2</v>
+      </c>
+      <c r="J3" s="70" t="n">
+        <v>2</v>
+      </c>
+      <c r="K3" s="70" t="n">
+        <v>1</v>
+      </c>
+      <c r="L3" s="70" t="n">
+        <v>2</v>
+      </c>
+      <c r="M3" s="70" t="n">
+        <v>2</v>
+      </c>
+      <c r="N3" s="70" t="n">
+        <v>1</v>
+      </c>
+      <c r="O3" s="70" t="n">
+        <v>2</v>
+      </c>
+      <c r="P3" s="70" t="n">
         <v>3</v>
       </c>
-      <c r="Q3" s="74" t="n">
+      <c r="Q3" s="70" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="25.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="72" t="s">
+      <c r="A4" s="68" t="s">
         <v>29</v>
       </c>
-      <c r="B4" s="73" t="s">
+      <c r="B4" s="69" t="s">
         <v>50</v>
       </c>
-      <c r="C4" s="73" t="n">
+      <c r="C4" s="69" t="n">
         <v>9006968011905</v>
       </c>
-      <c r="D4" s="73" t="s">
+      <c r="D4" s="69" t="s">
         <v>48</v>
       </c>
-      <c r="E4" s="68" t="s">
+      <c r="E4" s="64" t="s">
         <v>49</v>
       </c>
-      <c r="F4" s="74" t="n">
-        <v>2</v>
-      </c>
-      <c r="G4" s="74" t="n">
-        <v>2</v>
-      </c>
-      <c r="H4" s="74" t="n">
+      <c r="F4" s="70" t="n">
+        <v>2</v>
+      </c>
+      <c r="G4" s="70" t="n">
+        <v>2</v>
+      </c>
+      <c r="H4" s="70" t="n">
         <v>0</v>
       </c>
-      <c r="I4" s="74" t="n">
-        <v>2</v>
-      </c>
-      <c r="J4" s="74" t="n">
-        <v>2</v>
-      </c>
-      <c r="K4" s="74" t="n">
+      <c r="I4" s="70" t="n">
+        <v>2</v>
+      </c>
+      <c r="J4" s="70" t="n">
+        <v>2</v>
+      </c>
+      <c r="K4" s="70" t="n">
         <v>0</v>
       </c>
-      <c r="L4" s="74" t="n">
-        <v>1</v>
-      </c>
-      <c r="M4" s="74" t="n">
-        <v>1</v>
-      </c>
-      <c r="N4" s="74" t="n">
+      <c r="L4" s="70" t="n">
+        <v>1</v>
+      </c>
+      <c r="M4" s="70" t="n">
+        <v>1</v>
+      </c>
+      <c r="N4" s="70" t="n">
         <v>0</v>
       </c>
-      <c r="O4" s="74" t="n">
-        <v>1</v>
-      </c>
-      <c r="P4" s="74" t="n">
-        <v>2</v>
-      </c>
-      <c r="Q4" s="74" t="n">
+      <c r="O4" s="70" t="n">
+        <v>1</v>
+      </c>
+      <c r="P4" s="70" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q4" s="70" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="25.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="72" t="s">
+      <c r="A5" s="68" t="s">
         <v>29</v>
       </c>
-      <c r="B5" s="73" t="s">
+      <c r="B5" s="69" t="s">
         <v>51</v>
       </c>
-      <c r="C5" s="73" t="n">
+      <c r="C5" s="69" t="n">
         <v>9006968007793</v>
       </c>
-      <c r="D5" s="73" t="s">
+      <c r="D5" s="69" t="s">
         <v>48</v>
       </c>
-      <c r="E5" s="68" t="s">
+      <c r="E5" s="64" t="s">
         <v>49</v>
       </c>
-      <c r="F5" s="74" t="n">
+      <c r="F5" s="70" t="n">
         <v>3</v>
       </c>
-      <c r="G5" s="74" t="n">
+      <c r="G5" s="70" t="n">
         <v>3</v>
       </c>
-      <c r="H5" s="74" t="n">
-        <v>1</v>
-      </c>
-      <c r="I5" s="74" t="n">
-        <v>2</v>
-      </c>
-      <c r="J5" s="74" t="n">
-        <v>2</v>
-      </c>
-      <c r="K5" s="74" t="n">
-        <v>1</v>
-      </c>
-      <c r="L5" s="74" t="n">
-        <v>2</v>
-      </c>
-      <c r="M5" s="74" t="n">
-        <v>2</v>
-      </c>
-      <c r="N5" s="74" t="n">
-        <v>1</v>
-      </c>
-      <c r="O5" s="74" t="n">
-        <v>2</v>
-      </c>
-      <c r="P5" s="74" t="n">
+      <c r="H5" s="70" t="n">
+        <v>1</v>
+      </c>
+      <c r="I5" s="70" t="n">
+        <v>2</v>
+      </c>
+      <c r="J5" s="70" t="n">
+        <v>2</v>
+      </c>
+      <c r="K5" s="70" t="n">
+        <v>1</v>
+      </c>
+      <c r="L5" s="70" t="n">
+        <v>2</v>
+      </c>
+      <c r="M5" s="70" t="n">
+        <v>2</v>
+      </c>
+      <c r="N5" s="70" t="n">
+        <v>1</v>
+      </c>
+      <c r="O5" s="70" t="n">
+        <v>2</v>
+      </c>
+      <c r="P5" s="70" t="n">
         <v>3</v>
       </c>
-      <c r="Q5" s="74" t="n">
+      <c r="Q5" s="70" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="25.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="72" t="s">
+      <c r="A6" s="68" t="s">
         <v>29</v>
       </c>
-      <c r="B6" s="73" t="s">
+      <c r="B6" s="69" t="s">
         <v>52</v>
       </c>
-      <c r="C6" s="73" t="n">
+      <c r="C6" s="69" t="n">
         <v>3582910031185</v>
       </c>
-      <c r="D6" s="73" t="s">
+      <c r="D6" s="69" t="s">
         <v>53</v>
       </c>
-      <c r="E6" s="68" t="s">
+      <c r="E6" s="64" t="s">
         <v>54</v>
       </c>
-      <c r="F6" s="74" t="n">
-        <v>2</v>
-      </c>
-      <c r="G6" s="74" t="n">
-        <v>2</v>
-      </c>
-      <c r="H6" s="74" t="n">
-        <v>1</v>
-      </c>
-      <c r="I6" s="74" t="n">
-        <v>2</v>
-      </c>
-      <c r="J6" s="74" t="n">
-        <v>2</v>
-      </c>
-      <c r="K6" s="74" t="n">
-        <v>1</v>
-      </c>
-      <c r="L6" s="74" t="n">
-        <v>1</v>
-      </c>
-      <c r="M6" s="74" t="n">
-        <v>1</v>
-      </c>
-      <c r="N6" s="74" t="n">
-        <v>1</v>
-      </c>
-      <c r="O6" s="74" t="n">
-        <v>1</v>
-      </c>
-      <c r="P6" s="74" t="n">
-        <v>2</v>
-      </c>
-      <c r="Q6" s="74" t="n">
+      <c r="F6" s="70" t="n">
+        <v>2</v>
+      </c>
+      <c r="G6" s="70" t="n">
+        <v>2</v>
+      </c>
+      <c r="H6" s="70" t="n">
+        <v>1</v>
+      </c>
+      <c r="I6" s="70" t="n">
+        <v>2</v>
+      </c>
+      <c r="J6" s="70" t="n">
+        <v>2</v>
+      </c>
+      <c r="K6" s="70" t="n">
+        <v>1</v>
+      </c>
+      <c r="L6" s="70" t="n">
+        <v>1</v>
+      </c>
+      <c r="M6" s="70" t="n">
+        <v>1</v>
+      </c>
+      <c r="N6" s="70" t="n">
+        <v>1</v>
+      </c>
+      <c r="O6" s="70" t="n">
+        <v>1</v>
+      </c>
+      <c r="P6" s="70" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q6" s="70" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="25.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="72" t="s">
+      <c r="A7" s="68" t="s">
         <v>29</v>
       </c>
-      <c r="B7" s="73" t="s">
+      <c r="B7" s="69" t="s">
         <v>55</v>
       </c>
-      <c r="C7" s="73" t="n">
+      <c r="C7" s="69" t="n">
         <v>3582910079149</v>
       </c>
-      <c r="D7" s="73" t="s">
+      <c r="D7" s="69" t="s">
         <v>53</v>
       </c>
-      <c r="E7" s="68" t="s">
+      <c r="E7" s="64" t="s">
         <v>54</v>
       </c>
-      <c r="F7" s="74" t="n">
-        <v>2</v>
-      </c>
-      <c r="G7" s="74" t="n">
-        <v>2</v>
-      </c>
-      <c r="H7" s="74" t="n">
+      <c r="F7" s="70" t="n">
+        <v>2</v>
+      </c>
+      <c r="G7" s="70" t="n">
+        <v>2</v>
+      </c>
+      <c r="H7" s="70" t="n">
         <v>0</v>
       </c>
-      <c r="I7" s="74" t="n">
-        <v>2</v>
-      </c>
-      <c r="J7" s="74" t="n">
-        <v>2</v>
-      </c>
-      <c r="K7" s="74" t="n">
+      <c r="I7" s="70" t="n">
+        <v>2</v>
+      </c>
+      <c r="J7" s="70" t="n">
+        <v>2</v>
+      </c>
+      <c r="K7" s="70" t="n">
         <v>0</v>
       </c>
-      <c r="L7" s="74" t="n">
-        <v>1</v>
-      </c>
-      <c r="M7" s="74" t="n">
-        <v>1</v>
-      </c>
-      <c r="N7" s="74" t="n">
+      <c r="L7" s="70" t="n">
+        <v>1</v>
+      </c>
+      <c r="M7" s="70" t="n">
+        <v>1</v>
+      </c>
+      <c r="N7" s="70" t="n">
         <v>0</v>
       </c>
-      <c r="O7" s="74" t="n">
-        <v>1</v>
-      </c>
-      <c r="P7" s="74" t="n">
-        <v>2</v>
-      </c>
-      <c r="Q7" s="74" t="n">
+      <c r="O7" s="70" t="n">
+        <v>1</v>
+      </c>
+      <c r="P7" s="70" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q7" s="70" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="25.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="72" t="s">
+      <c r="A8" s="68" t="s">
         <v>29</v>
       </c>
-      <c r="B8" s="73" t="s">
+      <c r="B8" s="69" t="s">
         <v>56</v>
       </c>
-      <c r="C8" s="73" t="n">
+      <c r="C8" s="69" t="n">
         <v>4030113618119</v>
       </c>
-      <c r="D8" s="73" t="s">
+      <c r="D8" s="69" t="s">
         <v>57</v>
       </c>
-      <c r="E8" s="68" t="s">
+      <c r="E8" s="64" t="s">
         <v>54</v>
       </c>
-      <c r="F8" s="74" t="n">
+      <c r="F8" s="70" t="n">
         <v>6</v>
       </c>
-      <c r="G8" s="74" t="n">
+      <c r="G8" s="70" t="n">
         <v>6</v>
       </c>
-      <c r="H8" s="74" t="n">
+      <c r="H8" s="70" t="n">
         <v>4</v>
       </c>
-      <c r="I8" s="74" t="n">
-        <v>2</v>
-      </c>
-      <c r="J8" s="74" t="n">
-        <v>2</v>
-      </c>
-      <c r="K8" s="74" t="n">
-        <v>1</v>
-      </c>
-      <c r="L8" s="74" t="n">
+      <c r="I8" s="70" t="n">
+        <v>2</v>
+      </c>
+      <c r="J8" s="70" t="n">
+        <v>2</v>
+      </c>
+      <c r="K8" s="70" t="n">
+        <v>1</v>
+      </c>
+      <c r="L8" s="70" t="n">
         <v>4</v>
       </c>
-      <c r="M8" s="74" t="n">
+      <c r="M8" s="70" t="n">
         <v>4</v>
       </c>
-      <c r="N8" s="74" t="n">
-        <v>1</v>
-      </c>
-      <c r="O8" s="74" t="n">
-        <v>2</v>
-      </c>
-      <c r="P8" s="74" t="n">
+      <c r="N8" s="70" t="n">
+        <v>1</v>
+      </c>
+      <c r="O8" s="70" t="n">
+        <v>2</v>
+      </c>
+      <c r="P8" s="70" t="n">
         <v>6</v>
       </c>
-      <c r="Q8" s="74" t="n">
+      <c r="Q8" s="70" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="25.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="72" t="s">
+      <c r="A9" s="68" t="s">
         <v>29</v>
       </c>
-      <c r="B9" s="73" t="s">
+      <c r="B9" s="69" t="s">
         <v>58</v>
       </c>
-      <c r="C9" s="73" t="n">
+      <c r="C9" s="69" t="n">
         <v>8901083000470</v>
       </c>
-      <c r="D9" s="73" t="s">
+      <c r="D9" s="69" t="s">
         <v>59</v>
       </c>
-      <c r="E9" s="68" t="s">
+      <c r="E9" s="64" t="s">
         <v>54</v>
       </c>
-      <c r="F9" s="74" t="n">
+      <c r="F9" s="70" t="n">
         <v>4</v>
       </c>
-      <c r="G9" s="74" t="n">
+      <c r="G9" s="70" t="n">
         <v>4</v>
       </c>
-      <c r="H9" s="74" t="n">
-        <v>2</v>
-      </c>
-      <c r="I9" s="74" t="n">
-        <v>2</v>
-      </c>
-      <c r="J9" s="74" t="n">
-        <v>2</v>
-      </c>
-      <c r="K9" s="74" t="n">
-        <v>1</v>
-      </c>
-      <c r="L9" s="74" t="n">
-        <v>1</v>
-      </c>
-      <c r="M9" s="74" t="n">
-        <v>1</v>
-      </c>
-      <c r="N9" s="74" t="n">
-        <v>1</v>
-      </c>
-      <c r="O9" s="74" t="n">
-        <v>1</v>
-      </c>
-      <c r="P9" s="74" t="n">
+      <c r="H9" s="70" t="n">
+        <v>2</v>
+      </c>
+      <c r="I9" s="70" t="n">
+        <v>2</v>
+      </c>
+      <c r="J9" s="70" t="n">
+        <v>2</v>
+      </c>
+      <c r="K9" s="70" t="n">
+        <v>1</v>
+      </c>
+      <c r="L9" s="70" t="n">
+        <v>1</v>
+      </c>
+      <c r="M9" s="70" t="n">
+        <v>1</v>
+      </c>
+      <c r="N9" s="70" t="n">
+        <v>1</v>
+      </c>
+      <c r="O9" s="70" t="n">
+        <v>1</v>
+      </c>
+      <c r="P9" s="70" t="n">
         <v>4</v>
       </c>
-      <c r="Q9" s="74" t="n">
+      <c r="Q9" s="70" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="25.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="72" t="s">
+      <c r="A10" s="68" t="s">
         <v>29</v>
       </c>
-      <c r="B10" s="73" t="s">
+      <c r="B10" s="69" t="s">
         <v>60</v>
       </c>
-      <c r="C10" s="73" t="n">
+      <c r="C10" s="69" t="n">
         <v>4030113647256</v>
       </c>
-      <c r="D10" s="73" t="s">
+      <c r="D10" s="69" t="s">
         <v>61</v>
       </c>
-      <c r="E10" s="68" t="s">
+      <c r="E10" s="64" t="s">
         <v>49</v>
       </c>
-      <c r="F10" s="74" t="n">
+      <c r="F10" s="70" t="n">
         <v>3</v>
       </c>
-      <c r="G10" s="74" t="n">
+      <c r="G10" s="70" t="n">
         <v>3</v>
       </c>
-      <c r="H10" s="74" t="n">
-        <v>1</v>
-      </c>
-      <c r="I10" s="74" t="n">
-        <v>2</v>
-      </c>
-      <c r="J10" s="74" t="n">
-        <v>2</v>
-      </c>
-      <c r="K10" s="74" t="n">
-        <v>1</v>
-      </c>
-      <c r="L10" s="74" t="n">
-        <v>2</v>
-      </c>
-      <c r="M10" s="74" t="n">
-        <v>2</v>
-      </c>
-      <c r="N10" s="74" t="n">
-        <v>1</v>
-      </c>
-      <c r="O10" s="74" t="n">
-        <v>2</v>
-      </c>
-      <c r="P10" s="74" t="n">
+      <c r="H10" s="70" t="n">
+        <v>1</v>
+      </c>
+      <c r="I10" s="70" t="n">
+        <v>2</v>
+      </c>
+      <c r="J10" s="70" t="n">
+        <v>2</v>
+      </c>
+      <c r="K10" s="70" t="n">
+        <v>1</v>
+      </c>
+      <c r="L10" s="70" t="n">
+        <v>2</v>
+      </c>
+      <c r="M10" s="70" t="n">
+        <v>2</v>
+      </c>
+      <c r="N10" s="70" t="n">
+        <v>1</v>
+      </c>
+      <c r="O10" s="70" t="n">
+        <v>2</v>
+      </c>
+      <c r="P10" s="70" t="n">
         <v>3</v>
       </c>
-      <c r="Q10" s="74" t="n">
+      <c r="Q10" s="70" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="25.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="72" t="s">
+      <c r="A11" s="68" t="s">
         <v>29</v>
       </c>
-      <c r="B11" s="73" t="s">
+      <c r="B11" s="69" t="s">
         <v>62</v>
       </c>
-      <c r="C11" s="73" t="n">
+      <c r="C11" s="69" t="n">
         <v>3582910068693</v>
       </c>
-      <c r="D11" s="73" t="s">
+      <c r="D11" s="69" t="s">
         <v>61</v>
       </c>
-      <c r="E11" s="68" t="s">
+      <c r="E11" s="64" t="s">
         <v>49</v>
       </c>
-      <c r="F11" s="74" t="n">
+      <c r="F11" s="70" t="n">
         <v>3</v>
       </c>
-      <c r="G11" s="74" t="n">
+      <c r="G11" s="70" t="n">
         <v>3</v>
       </c>
-      <c r="H11" s="74" t="n">
-        <v>1</v>
-      </c>
-      <c r="I11" s="74" t="n">
-        <v>2</v>
-      </c>
-      <c r="J11" s="74" t="n">
-        <v>2</v>
-      </c>
-      <c r="K11" s="74" t="n">
-        <v>1</v>
-      </c>
-      <c r="L11" s="74" t="n">
-        <v>2</v>
-      </c>
-      <c r="M11" s="74" t="n">
-        <v>2</v>
-      </c>
-      <c r="N11" s="74" t="n">
-        <v>1</v>
-      </c>
-      <c r="O11" s="74" t="n">
-        <v>2</v>
-      </c>
-      <c r="P11" s="74" t="n">
+      <c r="H11" s="70" t="n">
+        <v>1</v>
+      </c>
+      <c r="I11" s="70" t="n">
+        <v>2</v>
+      </c>
+      <c r="J11" s="70" t="n">
+        <v>2</v>
+      </c>
+      <c r="K11" s="70" t="n">
+        <v>1</v>
+      </c>
+      <c r="L11" s="70" t="n">
+        <v>2</v>
+      </c>
+      <c r="M11" s="70" t="n">
+        <v>2</v>
+      </c>
+      <c r="N11" s="70" t="n">
+        <v>1</v>
+      </c>
+      <c r="O11" s="70" t="n">
+        <v>2</v>
+      </c>
+      <c r="P11" s="70" t="n">
         <v>3</v>
       </c>
-      <c r="Q11" s="74" t="n">
+      <c r="Q11" s="70" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="25.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="72" t="s">
+      <c r="A12" s="68" t="s">
         <v>29</v>
       </c>
-      <c r="B12" s="73" t="s">
+      <c r="B12" s="69" t="s">
         <v>63</v>
       </c>
-      <c r="C12" s="73" t="n">
+      <c r="C12" s="69" t="n">
         <v>3582910013525</v>
       </c>
-      <c r="D12" s="73" t="s">
+      <c r="D12" s="69" t="s">
         <v>64</v>
       </c>
-      <c r="E12" s="68" t="s">
+      <c r="E12" s="64" t="s">
         <v>65</v>
       </c>
-      <c r="F12" s="74" t="n">
+      <c r="F12" s="70" t="n">
         <v>4</v>
       </c>
-      <c r="G12" s="74" t="n">
+      <c r="G12" s="70" t="n">
         <v>4</v>
       </c>
-      <c r="H12" s="74" t="n">
-        <v>2</v>
-      </c>
-      <c r="I12" s="74" t="n">
-        <v>2</v>
-      </c>
-      <c r="J12" s="74" t="n">
-        <v>2</v>
-      </c>
-      <c r="K12" s="74" t="n">
-        <v>1</v>
-      </c>
-      <c r="L12" s="74" t="n">
-        <v>2</v>
-      </c>
-      <c r="M12" s="74" t="n">
-        <v>2</v>
-      </c>
-      <c r="N12" s="74" t="n">
-        <v>1</v>
-      </c>
-      <c r="O12" s="74" t="n">
-        <v>2</v>
-      </c>
-      <c r="P12" s="74" t="n">
+      <c r="H12" s="70" t="n">
+        <v>2</v>
+      </c>
+      <c r="I12" s="70" t="n">
+        <v>2</v>
+      </c>
+      <c r="J12" s="70" t="n">
+        <v>2</v>
+      </c>
+      <c r="K12" s="70" t="n">
+        <v>1</v>
+      </c>
+      <c r="L12" s="70" t="n">
+        <v>2</v>
+      </c>
+      <c r="M12" s="70" t="n">
+        <v>2</v>
+      </c>
+      <c r="N12" s="70" t="n">
+        <v>1</v>
+      </c>
+      <c r="O12" s="70" t="n">
+        <v>2</v>
+      </c>
+      <c r="P12" s="70" t="n">
         <v>4</v>
       </c>
-      <c r="Q12" s="74" t="n">
+      <c r="Q12" s="70" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="25.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="72" t="s">
+      <c r="A13" s="68" t="s">
         <v>29</v>
       </c>
-      <c r="B13" s="73" t="s">
+      <c r="B13" s="69" t="s">
         <v>66</v>
       </c>
-      <c r="C13" s="73" t="n">
+      <c r="C13" s="69" t="n">
         <v>3582910052203</v>
       </c>
-      <c r="D13" s="73" t="s">
+      <c r="D13" s="69" t="s">
         <v>64</v>
       </c>
-      <c r="E13" s="68" t="s">
+      <c r="E13" s="64" t="s">
         <v>65</v>
       </c>
-      <c r="F13" s="74" t="n">
-        <v>2</v>
-      </c>
-      <c r="G13" s="74" t="n">
-        <v>2</v>
-      </c>
-      <c r="H13" s="74" t="n">
+      <c r="F13" s="70" t="n">
+        <v>2</v>
+      </c>
+      <c r="G13" s="70" t="n">
+        <v>2</v>
+      </c>
+      <c r="H13" s="70" t="n">
         <v>0</v>
       </c>
-      <c r="I13" s="74" t="n">
-        <v>2</v>
-      </c>
-      <c r="J13" s="74" t="n">
-        <v>2</v>
-      </c>
-      <c r="K13" s="74" t="n">
+      <c r="I13" s="70" t="n">
+        <v>2</v>
+      </c>
+      <c r="J13" s="70" t="n">
+        <v>2</v>
+      </c>
+      <c r="K13" s="70" t="n">
         <v>0</v>
       </c>
-      <c r="L13" s="74" t="n">
-        <v>1</v>
-      </c>
-      <c r="M13" s="74" t="n">
-        <v>1</v>
-      </c>
-      <c r="N13" s="74" t="n">
+      <c r="L13" s="70" t="n">
+        <v>1</v>
+      </c>
+      <c r="M13" s="70" t="n">
+        <v>1</v>
+      </c>
+      <c r="N13" s="70" t="n">
         <v>0</v>
       </c>
-      <c r="O13" s="74" t="n">
-        <v>1</v>
-      </c>
-      <c r="P13" s="74" t="n">
-        <v>2</v>
-      </c>
-      <c r="Q13" s="74" t="n">
+      <c r="O13" s="70" t="n">
+        <v>1</v>
+      </c>
+      <c r="P13" s="70" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q13" s="70" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="25.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="72" t="s">
+      <c r="A14" s="68" t="s">
         <v>29</v>
       </c>
-      <c r="B14" s="73" t="s">
+      <c r="B14" s="69" t="s">
         <v>67</v>
       </c>
-      <c r="C14" s="73" t="n">
+      <c r="C14" s="69" t="n">
         <v>3582910026006</v>
       </c>
-      <c r="D14" s="73" t="s">
+      <c r="D14" s="69" t="s">
         <v>64</v>
       </c>
-      <c r="E14" s="68" t="s">
+      <c r="E14" s="64" t="s">
         <v>65</v>
       </c>
-      <c r="F14" s="74" t="n">
-        <v>2</v>
-      </c>
-      <c r="G14" s="74" t="n">
-        <v>2</v>
-      </c>
-      <c r="H14" s="74" t="n">
+      <c r="F14" s="70" t="n">
+        <v>2</v>
+      </c>
+      <c r="G14" s="70" t="n">
+        <v>2</v>
+      </c>
+      <c r="H14" s="70" t="n">
         <v>0</v>
       </c>
-      <c r="I14" s="74" t="n">
-        <v>2</v>
-      </c>
-      <c r="J14" s="74" t="n">
-        <v>2</v>
-      </c>
-      <c r="K14" s="74" t="n">
+      <c r="I14" s="70" t="n">
+        <v>2</v>
+      </c>
+      <c r="J14" s="70" t="n">
+        <v>2</v>
+      </c>
+      <c r="K14" s="70" t="n">
         <v>0</v>
       </c>
-      <c r="L14" s="74" t="n">
-        <v>1</v>
-      </c>
-      <c r="M14" s="74" t="n">
-        <v>1</v>
-      </c>
-      <c r="N14" s="74" t="n">
+      <c r="L14" s="70" t="n">
+        <v>1</v>
+      </c>
+      <c r="M14" s="70" t="n">
+        <v>1</v>
+      </c>
+      <c r="N14" s="70" t="n">
         <v>0</v>
       </c>
-      <c r="O14" s="74" t="n">
-        <v>1</v>
-      </c>
-      <c r="P14" s="74" t="n">
-        <v>2</v>
-      </c>
-      <c r="Q14" s="74" t="n">
+      <c r="O14" s="70" t="n">
+        <v>1</v>
+      </c>
+      <c r="P14" s="70" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q14" s="70" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="75" t="s">
+      <c r="A15" s="71" t="s">
         <v>12</v>
       </c>
-      <c r="B15" s="73" t="s">
+      <c r="B15" s="69" t="s">
         <v>47</v>
       </c>
-      <c r="C15" s="73" t="n">
+      <c r="C15" s="69" t="n">
         <v>9006968006093</v>
       </c>
-      <c r="D15" s="73" t="s">
+      <c r="D15" s="69" t="s">
         <v>48</v>
       </c>
-      <c r="E15" s="68" t="s">
+      <c r="E15" s="64" t="s">
         <v>49</v>
       </c>
-      <c r="F15" s="74" t="n">
+      <c r="F15" s="70" t="n">
         <v>6</v>
       </c>
-      <c r="G15" s="74" t="n">
+      <c r="G15" s="70" t="n">
         <v>6</v>
       </c>
-      <c r="H15" s="74" t="n">
+      <c r="H15" s="70" t="n">
         <v>5</v>
       </c>
-      <c r="I15" s="74" t="n">
+      <c r="I15" s="70" t="n">
         <v>6</v>
       </c>
-      <c r="J15" s="74" t="n">
+      <c r="J15" s="70" t="n">
         <v>6</v>
       </c>
-      <c r="K15" s="74" t="n">
+      <c r="K15" s="70" t="n">
         <v>5</v>
       </c>
-      <c r="L15" s="74" t="n">
+      <c r="L15" s="70" t="n">
         <v>4</v>
       </c>
-      <c r="M15" s="74" t="n">
+      <c r="M15" s="70" t="n">
         <v>4</v>
       </c>
-      <c r="N15" s="74" t="n">
+      <c r="N15" s="70" t="n">
         <v>3</v>
       </c>
-      <c r="O15" s="74" t="n">
+      <c r="O15" s="70" t="n">
         <v>3</v>
       </c>
-      <c r="P15" s="74" t="n">
+      <c r="P15" s="70" t="n">
         <v>0</v>
       </c>
-      <c r="Q15" s="74" t="n">
+      <c r="Q15" s="70" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="75" t="s">
+      <c r="A16" s="71" t="s">
         <v>12</v>
       </c>
-      <c r="B16" s="73" t="s">
+      <c r="B16" s="69" t="s">
         <v>60</v>
       </c>
-      <c r="C16" s="73" t="n">
+      <c r="C16" s="69" t="n">
         <v>4030113647256</v>
       </c>
-      <c r="D16" s="73" t="s">
+      <c r="D16" s="69" t="s">
         <v>61</v>
       </c>
-      <c r="E16" s="68" t="s">
+      <c r="E16" s="64" t="s">
         <v>49</v>
       </c>
-      <c r="F16" s="74" t="n">
+      <c r="F16" s="70" t="n">
         <v>6</v>
       </c>
-      <c r="G16" s="74" t="n">
+      <c r="G16" s="70" t="n">
         <v>6</v>
       </c>
-      <c r="H16" s="74" t="n">
+      <c r="H16" s="70" t="n">
         <v>5</v>
       </c>
-      <c r="I16" s="74" t="n">
+      <c r="I16" s="70" t="n">
         <v>6</v>
       </c>
-      <c r="J16" s="74" t="n">
+      <c r="J16" s="70" t="n">
         <v>6</v>
       </c>
-      <c r="K16" s="74" t="n">
+      <c r="K16" s="70" t="n">
         <v>5</v>
       </c>
-      <c r="L16" s="74" t="n">
+      <c r="L16" s="70" t="n">
         <v>4</v>
       </c>
-      <c r="M16" s="74" t="n">
+      <c r="M16" s="70" t="n">
         <v>4</v>
       </c>
-      <c r="N16" s="74" t="n">
+      <c r="N16" s="70" t="n">
         <v>3</v>
       </c>
-      <c r="O16" s="74" t="n">
+      <c r="O16" s="70" t="n">
         <v>3</v>
       </c>
-      <c r="P16" s="74" t="n">
+      <c r="P16" s="70" t="n">
         <v>0</v>
       </c>
-      <c r="Q16" s="74" t="n">
+      <c r="Q16" s="70" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="75" t="s">
+      <c r="A17" s="71" t="s">
         <v>12</v>
       </c>
-      <c r="B17" s="73" t="s">
+      <c r="B17" s="69" t="s">
         <v>68</v>
       </c>
-      <c r="C17" s="73" t="n">
+      <c r="C17" s="69" t="n">
         <v>3582910065432</v>
       </c>
-      <c r="D17" s="73" t="s">
-        <v>90</v>
-      </c>
-      <c r="E17" s="68" t="s">
+      <c r="D17" s="69" t="s">
+        <v>82</v>
+      </c>
+      <c r="E17" s="64" t="s">
         <v>70</v>
       </c>
-      <c r="F17" s="74" t="n">
+      <c r="F17" s="70" t="n">
         <v>4</v>
       </c>
-      <c r="G17" s="74" t="n">
+      <c r="G17" s="70" t="n">
         <v>4</v>
       </c>
-      <c r="H17" s="74" t="n">
+      <c r="H17" s="70" t="n">
         <v>4</v>
       </c>
-      <c r="I17" s="74" t="n">
+      <c r="I17" s="70" t="n">
         <v>4</v>
       </c>
-      <c r="J17" s="74" t="n">
+      <c r="J17" s="70" t="n">
         <v>4</v>
       </c>
-      <c r="K17" s="74" t="n">
+      <c r="K17" s="70" t="n">
         <v>4</v>
       </c>
-      <c r="L17" s="74" t="n">
+      <c r="L17" s="70" t="n">
         <v>3</v>
       </c>
-      <c r="M17" s="74" t="n">
+      <c r="M17" s="70" t="n">
         <v>3</v>
       </c>
-      <c r="N17" s="74" t="n">
+      <c r="N17" s="70" t="n">
         <v>3</v>
       </c>
-      <c r="O17" s="74" t="n">
+      <c r="O17" s="70" t="n">
         <v>3</v>
       </c>
-      <c r="P17" s="74" t="n">
+      <c r="P17" s="70" t="n">
         <v>0</v>
       </c>
-      <c r="Q17" s="74" t="n">
+      <c r="Q17" s="70" t="n">
         <v>0</v>
       </c>
     </row>
